--- a/news_data/2020_10.xlsx
+++ b/news_data/2020_10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,24 +22,108 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도, 제5대 제주관광공사 사장에 고은숙씨 임명</t>
+  </si>
+  <si>
+    <t>제주도의회 고은숙 제주관광공사 사장 예정자 '적격' 의견(종합)</t>
+  </si>
+  <si>
+    <t>도민·관광객에 머리숙인 제주도, 유충 나온 강정정수장 한시 중단</t>
+  </si>
+  <si>
+    <t>제주양돈농협, '제주도니' 제주도 관광협회 온라인마켓 '탐나오' 입점</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남국제관광박람회  우수 홍보상 수상</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남에서 언택트 관광지 10선 홍보</t>
+  </si>
+  <si>
+    <t>코로나로 관광객 폭증하자 방문객들에게 '세금' 걷겠다는 제주도</t>
+  </si>
+  <si>
+    <t>'관광업계 직격탄' 제주도 특별고용지원 추가 연장 건의</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 제주관광진흥기금 289억 원 접수</t>
+  </si>
+  <si>
+    <t>김재중, 훈훈 비주얼로 제주도 관광객 모드 "웃음이 멈추질 않았던 어제"</t>
+  </si>
+  <si>
+    <t>제주도ㆍ제주도관광협회, 광주서 언택트 제주관광지 선보여</t>
+  </si>
+  <si>
+    <t>중문관광단지 내 부영호텔 법정 싸움...제주도 최종 승소</t>
+  </si>
+  <si>
+    <t>제주도 관광명소 추가요~'성산포항 활어 위판장'</t>
+  </si>
+  <si>
+    <t>“추석 연휴 관광객 몰렸다” 관외 인구 이동 제주도만 증가</t>
+  </si>
+  <si>
+    <t>제주도, '섬 관광정책' 국제세미나...코로나19 관광위기 대응 방안논의</t>
+  </si>
+  <si>
+    <t>[그래픽]체류 3.55일·지출 47만원… 제주도 관광 트렌드</t>
+  </si>
+  <si>
+    <t>제주도, 청렴도 최하위↓...관광공사 사장 연봉은 최고↑</t>
+  </si>
+  <si>
+    <t>박호형 제주도의원 "거꾸로 가는 제주의 웰니스 관광"</t>
+  </si>
+  <si>
+    <t>"짧게 머물다가 돈 덜 쓰고 간다" 제주도 관광 트렌드</t>
+  </si>
+  <si>
+    <t>제주도 가을여행, 추석 보다 '한글날 연휴' 관광객 더 몰린다</t>
+  </si>
+  <si>
+    <t>2년 표류 제주도 관광객 '환경보전기여금' 도입 시동건다!</t>
+  </si>
+  <si>
+    <t>코로나19에도 제주도내 자연 관광지 꾸준히 인기</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제주도 관광업계 경영위기 극복 특별융자 16일까지 접수 </t>
+  </si>
+  <si>
+    <t>귀경 고속도로 정체, 제주도 등 관광지는 북적</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월의 '베스트 관광인' 일출랜드 송민 부장 선정</t>
+  </si>
+  <si>
+    <t>'관광객 10만 명 또 몰려온다'…제주도 '방역 비상'</t>
+  </si>
+  <si>
+    <t>"울릉도가 제주도만큼 매력적인 관광지가 되어야 합니다"</t>
+  </si>
+  <si>
+    <t>제주도의회, 6일 포스트 코로나 관광전략 토론회 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동</t>
+  </si>
+  <si>
     <t>제주도, 9만5천여 명 입도 대비 관광사업체 집중점검</t>
   </si>
   <si>
     <t>28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지</t>
   </si>
   <si>
-    <t>제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동</t>
-  </si>
-  <si>
     <t>"한라산 능선 다 가려"...롯데관광이 중국자본과 손잡고 만들어 욕먹고 있는 ...</t>
   </si>
   <si>
+    <t>제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의</t>
+  </si>
+  <si>
     <t>제주도, 관광업계 경영위기 극복위한 특별융자 16일까지 신청가능</t>
   </si>
   <si>
-    <t>제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의</t>
-  </si>
-  <si>
     <t>[전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오</t>
   </si>
   <si>
@@ -52,34 +136,118 @@
     <t>추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격</t>
   </si>
   <si>
-    <t>제주도, 9만5천여 명 입도 대비 관광사업체 집중점검 주메뉴 바로가기 본문 바로가기 2022.10.03 (월) 카카오채널 RSS 모바일보기 비서울 23.3℃ 구름조금제주 26.1℃ 맑음고산 25.0℃ 맑음성산 25.4℃ 구름조금서귀포 25.3℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 9만5천여 명 입도 대비 관광사업체 집중점검 임의순 기자 jejutwn@daum.net 등록 2020.10.07 10:32:34 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도가 한글날 연휴를 앞두고 도민과 관광객의 불편 최소화와 안전한 제주관광을 위해 주요 관광사업체의 방역실태를 점검하고 공·항만 등에서 마스크 착용 의무화 캠페인을 집중 홍보할 계획이라고 밝혔다.제주도관광협회에 따르면 오는 9일부터 11일까지 3일간 제주를 찾을 것으로 예상되는 관광객은 약 9만5천여 명이다.이는 지난해 13만 7,457명 대비 약 30.9% 감소한 수준이지만 코로나19 상황과 청정 제주를 사수하기 위해서 집중 방역관리를 추진할 계획이다.앞서 제주도는 5월 황금연휴나 8월 광복절 연휴 이후 전국적으로 코로나19 확산세가 증가한 상황과 코로나19 최대잠복기를 고려해 오는 18일까지 추석 연휴 특별방역 위험 관리기간으로 정하고 비상체제를 유지한다는 방침을 밝히기도 했다.원희룡 도지사는 5일 ‘추석 연휴 청정·안전제주를 지켜주신 도민과 국민 여러분께 드리는 말씀’을 통해 “추석 연휴 이후 2주간의 바이러스 잠복기와 한글날 연휴로 인해 한시도 긴장감을 늦출 수 없는 상황”이라며 “도민과 국민의 생명과 안전을 지키기 위해 늘 국경 수준의 방역 태세를 유지 하겠다”고 말했다.제주도는 도·행정시, 관광공사, 관광협회와 함께 합동점검반을 편성하고 총 50여명의 인원을 투입해 오는 9일부터 11일까지 3일간 호텔․콘도(418개소), 야영장(43개소), 유원시설(74개소), 휴양펜션(117개소) 등에 대해 방역 수칙 준수 여부를 확인한다.이미 추석연휴 이전인 9월 12일부터 10월 4일까지 관광대책 종합상황실을 운영하며 총 652개소의 관광사업체에 대한 점검을 마쳤지만, 방역시스템이 체계적이고 지속적으로 가동될 수 있도록 재차 집중점검에 나서겠다는 복안이다.이를 통해 ▲방문객 마스크 착용 및 열 감지체크 ▲방역관리자 지정 ▲주기적 방역 및 이행수칙 준수 ▲종사자 위생관리 ▲생활 속 거리두기 필요성 및 실천 행동요령 안내 ▲2m 거리두기 이행 여부 등을 점검할 계획이다.관광객들이 많이 몰리는 제주공항 1층 도착장 입구(2개소)와 제주항 여객터미널, 8대 핵심관광클러스터* (제주공항 인근, 함덕해변, 성산일출봉-섭치코지인근, 표선해변, 서귀포시 구시가지, 중문관광단지, 협재-금능해변, 곽지-한담해변)에서 입도객 대상 마스크 착용 의무화 캠페인도 펼친다.코로나19 방역수칙 홍보물을 배부하며 공·항만, 대중교통, 골프장, 고위험시설 등에서 마스크 착용 의무화와 위반시 고발 및 행정조치 시행 사항을 안내할 예정이다.김재웅 도 관광국장은 “한글날 연휴기간에도 안전한 제주관광이 될 수 있도록 공·항만 및 도내 관광사업체를 대상으로 코로나19 방역수칙 이행여부를 집중 점검해 안내함으로써 제주의 브랜드 가치를 높일 수 있도록 힘을 쏟겠다”고 말했다. 제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 [TW포토] 제3회 서귀포은갈치축제 현장 2 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 서귀포시, 민원업무 담당자 직무교육 실시 8 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 9 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 09:00 서귀포시 장애인게이트볼 연맹, 전국장애인게이트볼대회 참가 03:50 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 03일 20시 40분 최상단으로</t>
-  </si>
-  <si>
-    <t>28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.10.04 17:40 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 발열 입도객 등 618명 진단검사, 현재까지 모두 '음성' 판정 추석 연휴가 4일로 끝나는 가운데, 연휴기간 무려 28만명의 관광객이 찾았던 제주도에서는 다행히 코로나19 확진자가 발생하지 않은 것으로 확인됐다. 제주특별자치도는 제주국제공항과 제주항여객터미널에서는 코로나19 바이러스 유입 차단을 위한 고강도 방역대책이 추진되고 있는 가운데, 4일 현재까지 코로나19 추가 확진자는 발생하지 않았다고 밝혔다. 추석연휴가 시작된 26일부터 4일까지 제주도를 방문한 여행객은 28만명에 이르는 것으로 잠정 추산되고 있다. 이번 연휴 기간 제주도 방역당국은 모든 입도객에 대한 방역수칙을 의무화한 특별행정조치 명령이 발동되는 한편, 37.5도 이상 입도객에 대해서는 의무적으로 코로나19 검사를 받도록 '특별입도절차'를 시행했다. 이 기간 지난 26일부터 4일 오후 5시 현재까지 총 618명이 코로나19 검사를 받은 것으로 나타났다. 이 결과 4일까지 검사가 이뤄진 593명의 경우 모두 '음성' 판정을 받았다. 나머지 25명은 현재 검사가 진행 중이다. 제주국제공항 국내선 출·도착장에서 이뤄지는 발열검사에서 37.5℃ 이상으로 체크된 인원은 총 183명으로 집계됐다. 이중 165명은 체온을 재측정한 결과 단순 발열자로 확인됐고, 나머지 18명은 코로나19 진단검사를 실시하고 격리조치에 들어가도록 했는데, 검사결과 15명은 음성 판정을 받으면서 격리조치가 해제됐다. 나머지 3명은 현재 검사결고를 기다리고 있다. 한편, 제주특별자치도는 연휴가 끝난 후에는 2주간 현행대로 비상체제를 유지한다고 밝혔다. 이를 위해 5일부터 18일까지를 '추석연휴 특별방역 위험 관리기간'으로 설정하고, 코로나19 바이러스 감염 예방을 위한 고강도 사후 방역 관리에 돌입한. 이번 사후 특별방역기간에는 청정제주와 도민건강을 사수하기 위해 △타 지역 방문자 중 유증상자 진단검사 지원 △입도객 발열증상자 의무 검사 △감염 고위험시설 집중 방역관리 등이 중점 추진된다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주, 연휴 막바지 공.항만 북새통...코로나19 방역체계 강화 제주, 추석연휴 코로나19 확진자 '0'...발열자 모두 '음성' 제주도, '포커게임 대회' 현장 긴급 해산조치...집합금지명령 발동 원희룡 지사 "한글날 연휴까지 코로나19 차단 방역태세 유지" 추석 연휴 28만명 찾은 제주, 확진자 '제로' 비결은? '추석연휴 끝났어도'...코로나19 고강도 방역체제 18일까지 유지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-04 11:16 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 기자명 홍석형 기자 입력 2020.10.04 10:38 수정 2020.10.04 19:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 부동석)는 지난달 30일 제주국제공항에서 마스크 착용 의무화 집중계도 차원으로 추석 귀성객과 관광객을 대상으로 마스크, 손 소독제 등 방역물품과 감염예방수칙 홍보물을 배부했다고 4일 밝혔다.제주도관광협회는 코로나19 지역 확산에 선제적으로 대응하기 위해 공.항만 및 다중밀집장소에서 지속적으로 홍보활동을 펼쳐 나가고 있다.이번 홍보활동은 도관광국, 한국공항공사 제주지역본부와 합동으로 진행했다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' [단독]제주TP 5대 원장 공모...다시 재공모 수순 밟을 듯 관절 특효 '쇠무릎'…닭발과 환상 콜라보 제주 첫 전국장애인기능경기대회 폐막 제주, 부동산시장 “빨간불”...미분양·가계대출 전국 최고 ‘미래 모빌리티’ 현실로...추자도-제주 간 드론 긴급 배송 성공 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 ‘2022 제주 반려동물 문화축제’ 개막 오늘의 주요뉴스 [관광] 제주관광 회복 가속도…코로나19 이전 수준 회복 [제주특별자치도의회 소식] 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 [사회일반] 해외입국자 입국 1일차 PCR 의무검사 중단 [제주특별자치도의회 소식] 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ [경제일반] 2030년 수소버스·트램 제주를 누빈다 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 '탄저균' 설마 제주 함덕에?…시료 채취 결과 '음성' 서귀포서 운행중 자동차 화재 사고 한림항서 급유중 경유 10ℓ 유출 어선 적발 제주서 맹독성 파란고리문어 발견 새벽시간 제주시 자재보관창고 화재 인기뉴스 댓글많은기사 실시간댓글 1 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 2 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 3 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 4 국힘 제주도당 "이선화 임명은 吳도정 인사참사" 5 해외입국자 입국 1일차 PCR 의무검사 중단 6 서귀포서 운행중 자동차 화재 사고 7 오영훈 지사 “사회복지예산 25%까지 확대할 것” 8 일도2동 두문이 골목마을 도시재생, 국비 공모 신청 9 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 10 ‘돈 먹는 하마’ 버스 준공영제...개선방안은? 1 이재명 대표 ‘제주4·3해결·탄소중립’ 국비 지원 약속 2 제주관광공사, 해양쓰레기 팝업전시 필터(filter/必터) 개최 1 10 월이다 약속대로 국토부는, 제2공항 확정하고 착공해라 2 친일프레임을 고집하여 국민의 의식을 그프레임안에 가둬 정권을 유지하려 몸부림치는 공산추종세력 들은 주체사상을 연구하고 고 공부하여 종교화하는 586주사파빨갱이 들 뿐이며, 작금의 민주당 의 노선이다 3 슬프고 또 슬프네요.. 친일파 청산 못했더니 이모양입니다. 그래도 민족정신은 제대로 이어가야지 이게뭡니까? 4 독립유공자 후예분. 오히려 친일을 운운하는 자들이 빨갱이로 보이는 것은 그동안 잘못 배웠기 때문입니다. 우리 헌법 전문의 "3.1운동으로 건립된 대한민국임시정부의 법통을 계승하고~"에 있듯이 우리는 일제에 저항했고 그것이 대한민국의 정신적 초석입니다. 친일 운운이 빨갱이로보인다? 진짜 친일파들이 그동안 물타기와 레드컴플렉스를 잘도 이용해 온 것이죠!! 부끄러워해야합니다. 5 아래 댓글수준하곤 쯧쯧 6 이땅에서 빨갱이들이 모두 없어질때까지 4.3은 민주당 빨갱이들이 5.18,세월호와함께 줄기차게 우려먹을것임 ㅎㅎㅎ 7 개자식아 거기는 비행기 노선이 겹처저서 않된다고 하잔아 18또라이새끼야 정신좀차려라 제주날씨 4일 제주, 출근길 강풍 동반 '가을비' 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>“한라산 능선 다 가려”...롯데관광이 중국자본과 손잡고 만들어 욕먹고 있는 제주도 ‘초고층 빌딩’ - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 19℃ 서울 17℃ 인천 19℃ 춘천 17℃ 강릉 19℃ 수원 18℃ 청주 19℃ 대전 17℃ 전주 19℃ 광주 22℃ 대구 26℃ 부산 20℃ 제주 "한라산 능선 다 가려"...롯데관광이 중국자본과 손잡고 만들어 욕먹고 있는 제주도 '초고층 빌딩' "이제 제주 비행기에서 내려다볼 때 건물부터 보여 경관을 해쳐요" 김소영 기자 입력 2020.10.06 11:31 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 성산일출봉 / 뉴시스[인사이트] 김소영 기자 = "이제 제주 비행기에서 내려다볼 때 건물부터 보여 경관을 해쳐요"개장이 얼마 남지 않은 제주 169ｍ짜리 초고층 빌딩 드림타워에 대한 잡음이 끊이지 않고 있다.드림타워는 제주 노형동 925번지에 들어서는 관광숙박빌딩으로 38층에 달한다.롯데관광개발과 중국 최대 부동산 개발회사 녹지그룹이 공동시행했고, 중국건축(CSSEC)이 책임시공을 한다.중국 자본이 들어간 약 1조5000억원 규모의 초대형 개발사업인 것이다.드림타워 조감도 / 뉴시스드림타워가 랜드마크가 될 것이라는 제주도의 예상과 달리 인근 주민들과 여행객에게 드림타워는 제주 자연경관을 해치는 주범으로 불린다.도민들은 "여기 근처 바람 조금 불어도 소리 엄청 난다", "주민들은 경관 해치고 관광버스 들락거릴 생각해 진짜 싫어한다" 등의 반응을 보이고 있다.여행객 역시 "제주 경관을 해치는 느낌이다", "제주 비행기 타고 하늘에서 보면 한라산이 보였는데 이젠 저 건물이 시강이라 한라산이 안 보인다"라며 불만을 토로한다.자연경관이 인상적인 제주도의 매력을 홀로 우뚝 솟은 건물이 망친다는 평이 이어지고 있다.공사 중이던 드림타워 항공뷰 / 뉴스1이 같은 문제는 시공 착수 시기부터 불거진 바 있다.과거 제주대학교 김태일 교수는 시뮬레이션을 통해 드림타워가 산간지대 오름을 가리고 능선 높이만큼 솟아올라 경관적 부조화를 이룰 수 있음을 경고했었다.조화롭지 못한 건물은 관광도시 전체의 분위기를 망친다. 제주의 특색을 고려하지 못한 드림타워가 관광객들의 마음을 사로잡을 수 있을지 귀추가 주목된다. 김소영 기자 · soyoung@insight.co.kr 베스트클릭 방송·드라마 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 방송·드라마 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 방송·드라마 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 사회 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 국제 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 사회 윤석열 대통령, ‘마약과의 전쟁’ 선포하고 대규모 소탕 작업 벌인다 스타 돈스파이크, 2010년에도 마약으로 ‘징역’ 1년형...“직접 대량 구매해 주변에 무료나눔” 사회 검사가 자기 ‘성관계 영상’ 봤다며 억울해한 이은해...검찰은 이렇게 반응했다 연예 최진실 14주기 맞아 묘소 찾은 최준희...오빠 최환희에 갑자기 ‘일침’ 날렸다 스포츠 부진 빠진 FC서울 선수들에 '욕설' 날리는 팬들과 충돌한 기성용..."개XX까지 나왔다" 연예 최진실 14주기 맞아 묘소 찾은 최환희...“준희는 교통사고로 입원” 방송·드라마 남녀 출연자들이 하룻밤 같이 자는 ‘29금’ 연애 리얼리티 나왔다 국제 “히잡 쓰지 않겠다”...시위 참여한 23살 유명 틱톡커, 1시간 만에 총 맞아 결국 사망 비디오 입대 앞두고 전역일 봤다가 눈앞이 캄캄해진 BJ 저라뎃의 찐 반응 (영상) 연예 “E열 3, 4번 누구랑 봤을까요?” 전남친 나오는 영화 ‘공조2’ 관람 인증한 손예진 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 관광업계 경영위기 극복위한 특별융자 16일까지 신청가능 주메뉴 바로가기 본문 바로가기 2022.10.04 (화) 카카오채널 RSS 모바일보기 흐림서울 17.1℃ 구름많음제주 23.9℃ 구름많음고산 22.4℃ 구름많음성산 23.1℃ 흐림서귀포 24.9℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 관광업계 경영위기 극복위한 특별융자 16일까지 신청가능 임의순 기자 jejutwn@daum.net 등록 2020.10.07 10:30:34 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도가 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복을 위해 10월 6일까지 하반기 제주관광진흥기금 지원 신청을 받은 결과, 총 91건·89억 규모가 접수됐다고 밝혔다.업종별로 ▲여행업 46건 23억원 ▲ 관광숙박업 9건 19억원 ▲일반숙박업 11건 9억원 ▲ 전세버스업 10건 12억원 ▲ 관광식당업 3건 3억원 ▲ 기타 12건 23억원 등으로 집계됐다.총 91건의 신청건수 중 여행업계가 46건(23억)으로 50%를 차지하는 것은 코로나19 직격탄을 맞은 여행업이 여전히 경영난으로 어려움을 겪고 있다는 것으로 분석됐다.특히 상반기 융자추천 후 대출 실행을 보류했다가 코로나19 장기화로 자금난이 이어지면서 하반기에 재신청하는 사례가 48건(46억원)으로, 전체 신청건수의 52%를 차지했다.원희룡 지사는 지난 5일 소통과 공감의 날을 통해 “침체돼있는 제주 지역 경제와 관광을 활성화 시킬 수 있는 채비를 해나가야한다”면서 “경기침체에서 위기에 처한 각 가구와 기업들을 지원하기 위한 사업에 철저를 기할 것”을 주문한 바 있다.제주도는 관광업계 어려움을 반영해 올해 상반기 특별융자 추천자의 경우, 융자 금액 한도 내에서 상반기 대출 실행한 금액을 제외한 나머지를 추가로 융자 추천하는 방안을 추진 중이다.관광업계 의견을 수렴해 행정처분 이력, 융자금 중도회수 이력, 투자진흥지구 지정여부 관계없이 신청이 가능하도록 제한을 완화하는 등 제도개선도 추진했다.특별융자 신청은 오는 16일까지 제주웰컴센터 내 설치된 관광진흥기금특별지원센터에서 접수 받는다.지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다.융자자 부담 금리는 0.37%(4분기 기준)이며 융자 기간은 2년 거치 3년 균등 상환 조건이다.특히 올해 5월 관광진흥조례 개정에 따라 관광사업의 종류에 관광지원서비스업이 추가됐다. 해당업종 운영자는 관할 행정시에서 지정증을 교부받아야 융자금 신청을 하면 된다.          ※ 문의처 : 제주관광진흥기금 특별지원센터(740-6095~7, 710-3344)한편, 제주도는 올해 상반기 1,494개 업체 1,797억 원을 신규 융자 추천했으며 기존 대출 실행자 1,139건 2,700억 원에 대해서는 2년간 상환유예를 결정했다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 4 3년 만에 개최되는 제3회 서귀포 은갈치 축제 9월 30일 개최 5 제주시, 10월 시정시책공유 간부회의 개최 6 2022 청춘마이크 제주 뮤직 페스티발 9월 30일 개최 7 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 8 서귀포시 서부보건소, 제주도 최초 선정 '생애 초기 건강관리사업' 운영 9 서귀포시, 민원업무 담당자 직무교육 실시 10 서귀포시, 美 풀러턴(Fullerton)市와 함께한‘창업 및 수출지원 세미나’성료 실시간 뉴스 2022-10-04_TUE [TW포토] 제주 한라산 일출 풍경, '핑크빛 하늘' 06:40 제주 오션갤러리, 시행사 보유분 특별분양 03:58 2022-10-03_MON 제주도, 김희현 정무부지사, 국학기공대회 참석 격려 16:39 제주도, 무오법정사 항일항쟁 104주년…“숭고한 정신 이어 새로운 미래 준비” 16:38 제주도의회 김황국 의원, 스포츠관광 정책 발전 기여 공로상 수상 16:31 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 04일 11시 13분 최상단으로</t>
-  </si>
-  <si>
-    <t>제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의 &lt; 유통 &lt; 생활경제 &lt; 기사본문 - 굿모닝경제 - 경제인의 나라, 경제인의 아침! 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-04 11:03 (화) For translation 전체기사 로그인 회원가입 post youtube facebook 경제인의 나라, 경제인의 아침 전체메뉴 버튼 정치·정책 정책 국회 대통령실 정부부처 지방자치 경제금융 금융당국 은행 보험 제2금융 일반경제 증권 증권 자산운용 자본시장 블록체인 산업 재계 전자 자동차 정유 중공업 철강 정보통신과학 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 건설 분양 시황 교통 공기업 사회·문화 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 유통 제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의 기자명 김형수 기자 입력 2020.10.28 10:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [한국정책신문=김형수 기자] 제주특별자치도는 제주관광공사, 국가브랜드진흥원과 함께 '팬데믹 시대의 관광 리빌딩'을 주제로 제주버추얼포럼을 개최한다고 28일 밝혔다. 오는 30일 제주국제컨벤션센터 탐라홀에서 개최되는 제주버추얼포럼은 사회적 거리두기를 위해 관객없이 열린다. 국내·외 연사들이 온·오프라인으로 참석하는 하이브리드 방식으로 진행된다. 제주버추얼포럼은 포스트 코로나 시대 관광의 변화를 예측하고, 변화에 대응할 수 있는 관광산업 리빌딩을 통해 관광 산업의 새로운 지속가능 성장 전략을 모색하기 위해 기획됐다. 제주버추얼포럼은 두 개의 세션으로 나눠 개최된다. 첫 세션은 ‘비욘드 코로나 시대의 국제협력 네트워크’를 주제로 마련됐다. 원희룡 지사의 기조강연 이후 미국 하와이, 중국 해남도, 일본, 싱가포르 관광청의 사례 발표와 코로나 이후 관광시장 회복을 위한 국제 네트워크의 중요성에 대해 토론이 이뤄질 예정이다. 두 번째 세션은 ‘비욘드 코로나 시대 관광산업의 미래 / 기술·혁신·비즈니스’를 주제로 세계여행관광협회와 UNWTO 관계자 등이 기조강연에 나선다. 카카오모빌리티, 하나투어, 야놀자, 제주연구원 관계자 등이 패널로 참가해 코로나19 이후 관광 산업 조기 회복을 위한 기술과 혁신, 비즈니스 분야의 역할에 대해 토론하는 순서로 진행된다. 트윗하기 김형수 기자 alias@goodkyung.com 다른기사 보기 저작권자 © 굿모닝경제 - 경제인의 나라, 경제인의 아침! 무단전재 및 재배포 금지 당신만 안 본 뉴스 현대건설, 인천항만공사와 ESG 경영 협약 체결 [특징주] 19만원선 무너진 NAVER, 신저가 갱신 [굿모닝! 오늘의 날씨] 대부분 오전에 비 그침...오후부터 쌀쌀 삼성SDI, 친환경선언...2050년까지 재생에너지 사용 전환 임영웅 '보금자리', '더트롯쇼' 압도적 1위…12번째 정상 현대차그룹, 중남미·유럽 등서 부산엑스포 유치활동 사용자 '볼모' 법저지 나선 글로벌CP..."망사용료 입법 서둘러야" 현대건설, 인천항만공사와 ESG 경영 협약 체결 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 NHN, 그룹 모태 ‘게임’ 집중…NHN빅풋 본사와 합병 구광모 LG 회장, 폴란드 총리 만나 '2030 부산엑스포' 유치 지지 요청 네이버, 북미 패션 커뮤니티 퍼쉬마크 2.3조에 인수 LS일렉트릭, 올해 ESG경영 원년 선포...2040년까지 넷제로 대내외 악재 겹쳐 '우울'…정유사, 상반기 쌓아둔 곳간 지키나 '쥐꼬리 이자' 옛말…저축은행 뛰어넘는 은행 예금금리 최신뉴스 9월 건설경기지수 5.6p↓…약 29개월 만에 최저 '제2회 전북도 스포츠태권도 국제융합컨퍼런스' 진행 NHN, 그룹 모태 ‘게임’ 집중…NHN빅풋 본사와 합병 카카오페이, 자립준비청년·소상공인 위한 기부 롯데카드, '대학생 ESG 아이디어 공모전' 개최 인기뉴스 1 현대건설, 인천항만공사와 ESG 경영 협약 체결 2 [특징주] 19만원선 무너진 NAVER, 신저가 갱신 3 [굿모닝! 오늘의 날씨] 대부분 오전에 비 그침...오후부터 쌀쌀 4 삼성SDI, 친환경선언...2050년까지 재생에너지 사용 전환 5 임영웅 '보금자리', '더트롯쇼' 압도적 1위…12번째 정상 6 현대차그룹, 중남미·유럽 등서 부산엑스포 유치활동 7 사용자 '볼모' 법저지 나선 글로벌CP..."망사용료 입법 서둘러야" 8 포스코건설, 신반포 청구아파트 리모델링 사업 1810억원 수주 하단메뉴 신문사소개 사업소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리인 매체정보 서울특별시 중구 삼일대로6길 5 조양빌딩(신관) 11층 대표전화 : 02-726-7493 팩스 : 02-777-6473 등록번호 : 서울 아03448 등록·발행일자 : 2014-11-24 대표이사·발행인 : 오운암 편집인 : 원충희 편집국장 : 이근형 청소년보호·개인정보관리 책임자 : 정성환 굿모닝경제 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. © 굿모닝경제 - 경제인의 나라, 경제인의 아침!. All rights reserved. 위로 전체메뉴 전체기사 정치·정책 전체 정책 국회 대통령실 정부부처 지방자치 여론조사 국제 경제금융 전체 금융당국 은행 보험 제2금융 일반경제 증권 전체 증권 자산운용 자본시장 블록체인 산업 전체 재계 전자 자동차 정유 중공업 철강 정보통신과학 전체 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 전체 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 전체 건설 분양 시황 교통 공기업 사회·문화 전체 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 전체 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 인사·부고·동정 포토 전체 연예포토 스타화보 스포츠포토 일반포토 동영상 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 11:14 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 편집팀 iheadline@hanmail.net 승인 2020.10.12 17:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 안창남 문화관광체육위원장. ⓒ헤드라인제주 “코로나19 위기에 대응한 문화, 체육, 관광정책에 대한 심층적 검토” 올해는 코로나 19로 인해 제주도민 전체가 힘든 시기를 보내고 있습니다. 문화예술행사는 취소와 연기를 반복하고 있고, 체육과 축제는 모든 지원행사의 취소로 콘텐츠가 가득한 섬이 아닌, 잠자는섬이 되어버렸습니다. 또한 문화체육활동으로 인해 파급되는 경제활동 역시 간과할 수 없는 상황이 되었습니다. 도차원에서는 침체된 경제를 회복시킨다는 명분으로 문화예술, 체육, 축제 등 행사성 예산을 전폭 삭감하여 소액의 재난지원금이란 형태로 분배하였습니다만. 제주지역 내에서 실질경제가 돌아갈 수 있는 선순환구조를 오히려 행정이 파괴해 버렸습니다. 11대 하반기 의정의 시작인 올해는 행정사무감사를 통해 민선 7기 코로나19로 인해 방치해두었던 문화관광체육분야에 대한 정책 점검과, 문화예술과 체육활동의 통제, 축제의 취소에서 오는 문제점들을 심도 있게 검토하여 도민행복에 부합할 수 있는 정책 방향이 제시되도록 개선을 강력히 요구 할 것입니다. 내년에도 팬데믹과 재정여건으로 인해 문화예술, 체육, 관광 등에서 낙관적이지는 못합니다만, 앞으로 문화관광체육이 나아가야 할 방향과 제주문화관광에 맞는 자연유산의 가치부각을 위한 활용사업 주문을 비롯하여, 도민경제에 미치는 영향이 극대화 될 수 있도록 심층적으로 검토하겠습니다. 더불어 전 세계적 위기를 사각지대 없는 방역메뉴얼을 통해 제주가 기회로 올 수 있는 시스템을 구축할 수 있도록 구조적 제도개선을 요구하겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 [전문] 좌남수 제주도의회 의장, 행정사무감사 임하는 입장 [전문] 정민구 제주도의회 부의장, 행정사무감사 임하는 입장 [전문] 강연호 제주도의회 부의장, 행정사무감사 임하는 입장 [전문] 김용범 제주도의회 의회운영위원장, 행정사무감사 임하는 각오 [전문] 이상봉 제주도의회 행정자치위원장, 행정사무감사 임하는 입장 [전문] 양영식 제주도의회 보건복지안전위원장, 행정사무감사 임하는 입장 [전문] 강성의 제주도의회 환경도시위원장, 행정사무감사 임하는 각오 [전문] 현길호 제주도의회 농수축경제위원장, 행정사무감사 임하는 각오 [전문] 부공남 제주도의회 교육위원장, 행정사무감사 임하는 각오 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 "제주 보전지역 정기조사 부실투성이...도의회, 재조사 요구하라" 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 7 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 고은숙 관광공사 사장 후보자 인사청문 요청서 제출 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 11:15 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도, 고은숙 관광공사 사장 후보자 인사청문 요청서 제출 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 고은숙 관광공사 사장 후보자 인사청문 요청서 제출 현대성 기자 승인 2020.10.13 17:50 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 제5대 제주관광공사 사장 임용후보자로 지명된 고은숙 제일기획 자문위원(53)에 대한 인사청문 요청서를 제주도의회에 제출했다고 13일 밝혔다. 이번 인사청문 요청에 따라 제주도의회는 인사청문 요청을 받은 날로부터 20일 이내에 인사청문특별위원회를 구성해 청문회를 개최하고, 인사청문 경과보고서를 제주도에 회신해야 한다. 고은숙 후보자 인사청문회는 29일 개최될 것으로 점쳐지고 있다. 도의회는 강도 높은 인사청문회를 통해 적임자 여부를 검증한다는 방침이다. 고은숙 후보자는 제주시 일도1동 출신으로 제일기획 익스피리언스비즈니스 그룹장, 옴니채널지즈니스 BE비즈니스본부장(임원) 및 자문위원 등을 역임한 통합마케팅 전문가다. 제주도는 고은숙 후보자가 25년 이상 대기업 근무와 임원 경험을 바탕으로 조직·인사·재무 등의 능력을 지닌 것으로 판단하고 공사의 재무위기 극복 및 4차 산업혁명 시대 제주관광의 패러다임 전환을 이끌 적임자로서의 역할 수행을 기대하고 있다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 64일부터 요양시설 접촉면회 재허용 7제주고·제주여상, 전도사격대회 고등부 단체전 정상 8깊어가는 가을, 코스모스 활짝 9기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 10김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>한글날 연휴 제주도 몰린 관광객…사흘간 11만 명 방문 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 일반 한글날 연휴 제주도 몰린 관광객…사흘간 11만 명 방문 입력 2020-10-11 10:57 이재영 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲한글날 연휴 나흘간 약 14만 명의 관광객이 제주도를 찾은 것으로 예상된다. (연합뉴스)한글날 연휴를 맞아 제주도를 찾은 관광객이 사흘간 11만 명이 넘어섰다. 11일 제주도관광협회에 따르면 한글날을 하루 앞둔 8일부터 10일까지 제주를 찾은 입도객 수는 11만126명으로 집계됐다.날짜별로는 8일 3만9888명, 9일 4만2933명, 10일 2만7305명이었다. 연휴 마지막 날인 11일에도 약 3만 명이 제주를 찾을 것으로 보여 한글날 연휴 나흘간 약 14만 명의 관광객이 제주를 찾을 것으로 예상된다. 관련 뉴스 제주도 방문객, 오늘부터 마스크 의무 착용…37.5도 넘으면 의무 격리 서울, 4월 상용근로자 임금 전국 중 최고…418만 원 이재훈 선행, 제주도에서 선한 영향력…근황 보니 관광객 급증으로 인해 제주에는 코로나19 방역에 대한 비상이 걸렸다. 아직까지 코로나19 확진자는 발생하고 있지 않지만, 도 방역당국은 긴장을 놓지 않고 있다.도 방역당국은 발열 증상자에 대해 코로나19 진단 검사를 의무적으로 받도록 하는 특별 입도 절차를 한글날 연휴 마지막 날인 11일까지 운영한다.이에 따라 제주국제공항과 제주항으로 들어오는 관광객 등 방문자 중 체온이 37.5도 이상이면 코로나19 진단 검사를 의무적으로 받아야 하며, 판정 결과가 나올 때까지 의무 격리를 해야 한다.제주도는 추석과 한글날 연휴 동안 많은 관광객이 찾은 만큼 '조용한 전파' 가능성이 있다고 보고 18일까지 특별방역 위험 관리기간으로 지정해 고강도 사후 방역 관리를 이어간다는 방침이다. #제주도 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 인천에 사는 박준수, 유영미 씨는 동갑내기 부부다. 11년 전 친구 소개로 만나 반년간의 연애 끝에 결혼에 골인했다. 당시 준수 씨는 완성차를 만드는 대기업에, 영미 씨는 전자제품을 만드는 중소기업에 다녔다. 결혼 1년여 만에 아이를 낳았고, 영미 씨는 회사를 나왔다. 외벌이에 빠듯한 살림이었지만 살만했다. 아이에게 드는 돈도 별로 없 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 서울만? 비수도권 출산율도 0.7~0.8명대 가임기 여성 유출로 출생아 감소 더 가팔라져 인구가 줄어드는 속도는 비수도권에서 상대적으로 빠르다. 추세적인 저출산에 더해 가임기 여성을 포함한 청년층(15~29세) 인구가 유출돼서다. 인구 유출은 추가적인 출생아 수 감소 요인이 된다. 그나마 수도권은 합계출산율 감소 영향이 가임기 여성 증가 10조원 증안펀드 10월 중순 재가동, 강신우 전 KIC CIO가 지휘 증시가 불안한 모습을 보이는 가운데 금융당국이 이달 중순께 증권시장 안정펀드(증안펀드)를 재가동할 전망이다. 증안펀드 투입에 앞서 공매도 금지에 대한 논의도 진행된다. 4일 금융권 등에 따르면 금융위원회는 증안펀드 재가동을 위해 증권 유관 기관과 실무 협의 및 약정 절차를 진행 중이다. 빠르면 이달 중순에 조성 작업을 마무리할 계 전장연, 지하철 4호선 출근길 시위…“지연우려” 전국장애인차별철폐연대(전장연)가 4일 오전 8시부터 서울 지하철 4호선에서 출근길 지하철 탑승 시위를 이어갈 것으로 예상된다. 서울교통공사는 공지사항을 통해 "10월 4일(화)~7일(금) 오전 8시 00분부터 4호선에서 ‘전국장애인차별철폐연대’의 ‘장애인 권리 예산 확보’를 위한 삭발식 및 ‘지하철 타기 선전전’이 예정돼 있다"며 "이로 인해 믿었던 반도체 수출도 '흔들'…성큼 다가온 '쌍둥이 적자' 공포 10월 수출입동향서 수출 상승세 둔화 무역수지 적자 6개월째 이어져 '위기' 반도체마저 115억 달러로 5.7% 감소 재정 적자에 이어 경상수지도 위기 세계 경기 침체로 무역 상황이 악화되면서 믿었던 반도체 수출도 흔들리고 있다. 23개월 연속 이어오던 수출 상승세가 주춤하며 이미 적자인 관리재정수지에 이어 경상수지까지 적자인 '쌍둥이 적 감사원 '文 서면조사 통보'에…野 "정치 탄압" vs 與 "감사에 성역 없어" 野 정치탄압대책위 "尹 소란 종착지는 文…감사원 직권남용 고발" 靑 출신 野 의원들 "무례한 행태…국민 두려움 모르는 권력 끝은 침몰" 이재명 "민생경제, 외교평화에 힘 쏟을 때" 與 "전직 대통령도 성역은 있을 수 없어" 정진석 "전 대통령 서면조사 요구 처음 아냐…겸허히 받아들여야" 감사원이 '서해 공무원 피격 사건'과 관련해 문재인 전 유가 하락 방어 나선 OPEC+, 하루 100만 배럴 감산 폭탄 터뜨리나 하루 50만~100만 배럴 감산 전망 지배적 전 세계 산유량의 1% 달하는 규모 배럴당 125달러였던 브렌트유 최근 85달러선대 유가 상승시 경기침체 리스크 더 커질 수도 석유수출국기구(OPEC)와 비(非) OPEC 산유국의 협의체인 ‘OPEC플러스(+)’가 이번 주 열리는 정례 회의에서 대형 감산에 나설 것이라는 관측이 커지고 있다. 감산으로 글로벌 경 [신용리스크 악몽 재현되나]①"우리 회사채 사주세요" 치솟는 금리에 울고 싶은 기업들 국내 5대 그룹 한 계열사는 최근 회사채 수요예측에 나섰지만, 선뜻 사겠다는 큰 손(기관투자자)이 없어 낭패를 봤다. 미국 중앙은행인 연방준비제도가 연방기금금리를 0.75%포인트(p) 올리는 ‘자이언트 스텝’을 3회 연속 단행한 후 시장 금리가 치솟고, 변동성이 커지자 기관들이 손사래를 치고 있다. 회사 관계자는 “올해 초만 해도 없어서 못 많이 본 뉴스 01 돈 벌 곳도, 쓸 곳도 없다...'유령도시' 돼가는 非수도권 02 전장연, 지하철 4호선 출근길 시위…“지연우려” 03 "집ㆍ자녀 원했을 뿐인데...실직 후 투잡 뛰며 '나'마저 잃었다" 04 머스크 “크림반도는 러시아 영토, 우크라이나 중립국 전환해야” 05 FOMC 후 일주일…폭락장에도 ‘태조이방원’ 찜한 외국인 06 유엔 “연준, 금리 그만 올려라” 07 우크라이나, 남부전선 돌파…러시아 점령지 헤르손 뚫었다 08 벤처투자 혹한기…몸집보다 수익으로 내실 다진 ‘켄타우로스’ 뜬다 09 양조위·이병헌·이영애 스타 총출동...전성기 회복 노리는 부산국제영화제 10 '베이비 슬럼프 시대'...아기 발자국을 늘려라 최신 영상 "北 도발 시 즉각 대응"…한미 연합 해상훈련 모습 // 이투데이TV 사회 최신 뉴스 "터놓고 얘기해요"…서울시, 19일 '1인가구 공감토크쇼' '채널A 사건' 최강욱 의원 무죄…법원 "비방 경위 찾을 수 없어" [포토] '창의적 상상 가득한 공공디자인' [포토] 일상 속 공공디자인 [포토] 무한상상 공유하는 공공디자인 페스티벌 [국감 핫이슈] 서울대 입학생 3명 중 2명 수도권 출신… 강남 3구 11.9％ [국감 핫이슈] 재소자 폭행‧고소에 시달리는 교정공무원…‘극단적 선택’도 속보 ‘채널A 사건’ 최강욱 의원 1심 무죄 [국감 핫이슈] ‘스토킹범죄’ 경찰이 구속영장 신청해도 검사‧판사가 32.6% 기각 8차선 도로에 누워 잔 남성 발견…“누구 인생 망치려고” 뉴스발전소 [인포그래픽] 개천절, 태극기 다는 법은? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '즐거움 가득한 공공디자인' 마켓 뉴스 특징주 투자전략 테슬라 공급 업체 ‘디아이씨’, 폐배터리 사업 진출 소식에 급등세 에쓰오일, 산유국 감산 소식에 3%대 오름세 오픈엣지테크놀로지, 삼성전자·ARM 전략적 제휴 논의 소식에 상한가 오토앤, 현대글로비스 미국 중고차 경매업체 인수 소식에 강세 오리온, 4분기 실적 기대감 속에도 ‘약세’ 출발 [오늘의 증시 리포트] “HMM, 4분기부터 실적 급감” [환율전망] 원·달러 1원 상승 출발…“국채금리 하락·파운드화 강세에 약세” “삼성전자, 역대급 ‘공급 축소’ 전망... 반도체 상승 싸이클, 최대 재고 후유증 우려” [오늘의 투자전략] 글로벌 증시 강세 따른 투자심리 개선…저가 매수·기술적 반등 시도 "하이브, BTS 활동 줄어도 3분기 실적 시장 예상치 부합할 전망" 오늘의 상승종목 10.04 10:56 20분지연 코스피 코스닥 1.SK네트웍스우 17,000 2.디아이씨 735 3.삼성출판사 3,650 4.에이프로젠제약 80 5.한미글로벌 2,850 1.오로스테크놀로지 2,760 2.라닉스 1,520 3.오픈엣지테크놀로지 3,150 4.네이처셀 2,750 5.유안타제7호스팩 715 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 28,168,000 +1.23% 이더리움 1,903,000 +1.33% 비트코인 캐시 167,100 -0.48% 리플 655.6 +0.18% 위믹스 2,588 +2.17% 에이다 615.7 +0.26% 이오스 1,700 -0.23% 트론 88.15 -0.91% 스텔라루멘 167.2 -3.96% 비트코인에스브이 69,400 -0.57% 체인링크 10,750 +2.77% 샌드박스 1,196 +0.93% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
-  </si>
-  <si>
-    <t>추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격 : 사회 : 종교신문 1위 크리스천투데이 사회 추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격 크리스천투데이 전체기사 교계교단 전체기사 일반기사 연합기구 교단 기관단체 이단·사이비 목회신학 전체기사 일반기사 교회/목회 치유상담 신학대 소식 신학/단체 은혜의 샘 설교 교회로 돌아온 신학 교회건축, 패러다임을 바꾸다 선교 전체기사 일반기사 국내선교 해외선교 특수선교 중보기도 해외 한인교회 특별기고 청년캠퍼스 청소년 국제 전체기사 일반기사 국제기구 미국·중남미 아시아·대앙주 유럽 중동·아프리카 일반기사 사회 전체기사 일반기사 정치·사회 인권 종교 봉사 NGO 복지 사람들 문화 전체기사 일반기사 대중문화 에세이 송영옥 칼럼 영화·공연 미술전시 문학 북스 뮤직/CCM 크리스천 연예/스포츠 교육 전체기사 일반기사 교회교육 홈스쿨링 기독교학교 라이프 전체기사 건축 일터 사역 여행 집회/세미나 생활경제 가정 건강 크리스천기업소식 오피니언/칼럼 기독컨텐츠 카드뉴스 오늘의 묵상 기독교 명언 북마크 쉽게 씌어진 시 Praise 배경화면 Pray with You 산마루서신 오늘의 기도문 포토투데이 CTTV 사회 정치/사회 추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격 김신의 기자 sukim@chtoday.co.kr | 입력 : 2020.10.05 14:46 Share Kakao More ▲2020년 추석 연휴 기간, 놀아동산을 찾은 관광객들. ⓒ인터넷 커뮤니티 캡쳐 정부가 추석 연휴 기간 동안 교회와 광화문 집회를 제한 또는 통제한 가운데, 놀이동산과 제주도 등 관광지에는 엄청난 인파가 모인 것으로 알려졌다. 5일 제주도 관광협회에 따르면, 사실상 추석 연휴가 시작된 지난달 26일부터 4일까지 제주도 입도객 수는 28만 1천 258명으로 알려졌다. 하루 평균 약 3만 명 이상. 제주도가 이 기간 동안 코로나19 진단검사를 진행한 건은 겨우 618건에 불과하다. 한편 인터넷 커뮤니티에는 추석 연휴에 몰린 놀이동산 관광객들의 실시간 사진이 올라왔다. 누리꾼들이 공개한 사진에는 거리 두기 1m조차 지켜지지 않은 상태의 관광객들이 빼곡하게 서 있는 모습이 담겼다. 이 같은 사진을 올린 누리꾼은 “사회적 거리 두기 이런 거 없다. 이럴 거면서 왜 힘없는 서민들을 괴롭히는가? 더구나 정부 정책에 반대하는 집회는 무관용? 이게 무슨 코미디인가?”라고 분개했다. 한편 정부는 코로나19 방역을 명분으로 300석 미만의 교회는 20명 미만, 300석 이상의 교회는 50명 미만만 예배를 드릴 수 있도록 제한했다. 또 광화문 집회 측은 드라이브 스루, 카퍼레이드 방식을 선택했음에도 방역 당국으로부터 제지를 당했다. 경찰은 서울시내 진입로 90곳에 검문소를 설치하기도 했다. ‘재인산성’ 검문소·차벽 등 집회 통제에 각계 비판 쏟아져중대본, 100만 모인 곳 놔두고 여전히 ‘교회·광화문 집회’ 집착 구독신청 &lt;저작권자 ⓒ '종교 신문 1위' 크리스천투데이, 무단전재 및 재배포 금지&gt; 마켓 플레이스 기독교 세미나/행사정보 치유전문목회 필독서_GS약선카페 창업… 파워관계전도세미나 사역장로 '7년의중간보고서' [시무장… 원데이 성막영성집회 강사 조태규목… [10월16일 개강]집중력 영어속독 강사&amp;… [양평] 더큰나무 펜션_캠프_교육관_수… &lt;눈으로 보듯 손으로 만지듯&gt; "위코세"특강 위드코로나시대의 말씀… 한국목회임지연구소 교회 후임 요청 … 전세계 모든 열방을 살리는 나성기도… 수맥과팔체질 제37차 코칭 목회 세미나 꿈이있는교회 3GO사역 "나누고 섬기고 … 목사님 전도사 선교사 후보생(남 여) 어쨌든 신장병을 고쳤다는데... 장대수 목사의 추석특별 심령치유의 … 총신대학교 실천목회연구과정 &gt;Please activate JavaScript for write a comment in LiveRe. 인사이드 시티 이 기사는 논쟁중 종교인, 근로자에 비해 세금 적게 낸다? 팩트체크했더니 장혜영 의원, 국세청 자료 분석 후 ‘종교인 실효세율 0.7%’ 종교인들 2020년 소득신고 1조 7천억 원에 120억 원 납부 공제율 높고 기타소득 선택도 가능한 과세제도 원인 꼽아… 대구 퀴어축제, 교통 대란 우려… 중구청 미온 대처 논란 &lt;수리남&gt;까지… 넷플릭스, 반기독교에 집착하는 이유 인물 이 사람 “죽을 듯한 고비 만나도, 죽지 않아요… 중간에 그만두지 마시길” 불순물·석고는 ‘제거’ 칼슘·미네랄은 ‘풍부’… 명품 ‘미쁜 빛 소금’ 세계는 지금 美 캘리포니아, ‘시신 퇴비화’ 법안 통과… 존엄성 논란 데이비드 플랫 “복음 못 들으면 천국 못 가는 이유” 크리스천 셀럽 션-김미경-김성은, 한부모 돕는 플리마켓 함께해 최미-최명자-손영진-송정미, ‘THE DIVAS’ 콘서트 개최 많이 본 기사 최강희 “과거의 죄 고백하고 다 거룩해진 줄 알았는데…” 성경까지 왜곡해 윤석열 대통령 무분별 비난하는 사람들 총격으로 딸과 25명 성도 잃은 美 목회자의 고별설교 그리스도께 온전히 헌신한 성도의 7가지 징후 존 맥아더 목사, 성경 왜곡한 캘리포니아주지사에 공개 서한 美 히스패닉 복음주의자 66% “낙태 전면금지 지지” “단일 교회 최다 선교사 파송, 故 하용조 목사의 선교 DNA” 아프리카 복음주의 단체 회장 “거짓 목자의 특징은… ” 신앙과 삶 [신앙 에세이: 삶과 사랑] 참 진 CT YouTube [영상] 통계가 말하는 동성애와 에이즈 [영상] 이영훈 목사 “조용기 목사님은 강단에 서시기만 하면…”[영상] 인권위 명령 어기면 3천만원? 추진 중인 악법 뭐뭐 있나[영상] “콘텐츠웨이브 이태현 대표, 동성애 미화 방송 제작·살포 책임” 크리스천투데이 크리스천투데이 | 등록번호 : 서울, 아01897 | 등록일자 : 2011년 12월 2일 | 제호 : 크리스천투데이 | 발행인 : 유재광 | 편집인 : 이대웅 | 발행소 : 서울시 종로구 창경궁로 305, 시티빌딩 (혜화동) / 서울시 종로구 혜화동 31-1번지 시티빌딩 | 발행일자 : | 청소년보호책임자 : 송경호 | Tel : 02) 598-4564 | Fax : 02) 6008-4204 Copyright © All rights reserved. 크리스천투데이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재, 복사, 배포 등은 법적제재를 받을 수 있습니다. 회사소개 | 구독신청 | 개인정보취급방침 | 편집자에게 | 광고안내 02)598-4597 | 대표전화 : 02)598-4564 | Fax : 02)6008-4204 저작권 | 회원약관 | 게시판/댓글 운영원칙 | 이메일주소 무단수집거부</t>
+    <t>제주도, 제5대 제주관광공사 사장에 고은숙씨 임명 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 제5대 제주관광공사 사장에 고은숙씨 임명 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 제주도, 제5대 제주관광공사 사장에 고은숙씨 임명 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.10.30 09:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 원희룡 제주도지사가 30일 고은숙 신임 제주관광공사 사장에게 임명장을 수여하고 있다. ⓒ헤드라인제주 제주특별자치도는 30일 오전 8시50분 도지사 집무실에서 고은숙 제5대 제주관광공사 사장 임명식을 개최했다. 고 신임 사장은 제일기획 익스피리 언스비즈니스 그룹장, 옴니채널지즈니스 BE비즈니스본부장(임원) 및 자문위원 등을 역임한 통합마케팅 전문가로 알려져 있다. 임기는 오는 2023년 10월 29일까지로 앞으로 3년간 활동하게 된다. 제주도 관계자는 "고 신임 사장이 조직 혁신과 변화로 코로나19 위기에 봉착한 제주관광공사를 새롭게 탈바꿈하고 경영 안정화를 도모하는 구심점 역할을 수행할 것으로 기대한다"고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 고은숙 관광공사 사장 예정자 "제주관광 체질 개선할 것" 고은숙 제주관광공사 후보자 인사청문회, "전문성 부족" 집중 포화 고은숙 후보자 인사청문회 '적격', "관광마케팅 경험 없으나..." 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도의회 고은숙 제주관광공사 사장 예정자 '적격' 의견(종합) | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도의회 고은숙 제주관광공사 사장 예정자 '적격' 의견(종합) 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도의회 고은숙 제주관광공사 사장 예정자 '적격' 의견(종합) 송고시간2020-10-28 17:54 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 제주도의회는 고은숙(53) 제주관광공사 사장 예정자에 대해 '적격' 의견을 냈다. 답변하는 고은숙 제주관광공사 사장 예정자 (제주=연합뉴스) 고은숙(53) 제주관광공사 사장 예정자가 28일 제주도의회 문화관광체육위원회 회의실에서 열린 인사청문회에서 의원들의 질문에 답변하고 있다. 2020.10.28 bjc@yna.co.kr 제주도의회 문화관광체육위원회는 28일 고 예정자에 대한 인사청문회를 실시한 결과 "제주관광공사의 경영 위기를 극복해 제주관광을 한 단계 더 끌어올릴 것으로 보인다"며 이같이 판단했다. 도의회는 "고 예정자가 현재 유일한 제주관광공사의 수익사업인 지정면세점에 대해 상품 포트폴리오 다양화, 경쟁력 강화를 통해 현재의 입지적 한계를 타개해 나가겠다는 의지가 확고하다"며 이같이 판단했다. 광고 원 지사는 도의회에서 채택된 보고서를 바탕으로 최종 임명 여부를 결정하게 된다. 제주관광공사 사장에 대한 인사청문회는 법적 의무사항이 아니며, 채택된 도의회 인사청문 심사경과보고서도 구속력을 가진 것이 아닌 '권고' 수준에 그친다. 앞서 도의회 의원들은 관광 분야의 문외한인 예정자의 전문성과 원희룡 제주지사의 보은 인사 문제를 제기했다. 이외에도 인사청문회가 이어지는 동안 문경운 의원이 고 예정자의 부동산 투기 의혹을 제기한 데 이어 오영희 의원이 회사를 통해 간 연수 과정을 학력에 표기해 고 예정자의 허위학력 기재 의혹을 제기하기도 했다. 고은숙 예정자는 "관광이라는 것은 하나만의 산업이 아니다. 모든 산업이 융합된 융복합 산업"이라며 "(저는) 융복합 산업의 핵심에 있었던 전자·통신 관련 브랜드의 마케팅 활동을 했다. 브랜드의 마케팅이라 하면 시장과 소비자의 이해를 기반으로 성패를 좌우한다."고 말했다. 그는 "관광공사의 통합마케팅을 함에 있어 관광 전문가가 아니더라도 전체적인 산업, 시장을 바라보는 시각, 소비자를 바라보는 방식에 따라 훌륭한 경영을 할 수 있다"고 말했다. 이어 보은 인사 논란에 대해서도 관련 내용을 모두 부인했다. 고 예정자는 제주 출신으로 중앙대학교 대학원에서 신문학 석사, 미국 일리노이대학교 대학원에서 커뮤니케이션학 석사 학위를 받은 뒤 1995년 8월부터 제일기획에서 25년간 근무하며 제일기획 스페인법인 법인장, 익스피리언스비즈니스 그룹장, 옴니채널비즈니스 BE비즈니스본부장(임원) 등을 역임했다. 현재 신종 코로나바이러스 감염증 이후 시대(포스트코로나), '위드(with) 코로나 시대'의 제주 관광 정책 방향을 마련하기 위한 미래전략위원회 위원장을 맡고 있다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/10/28 17:54 송고 #제주 #제주관광공사 #인사청문회 #사장 #제주도의회 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 선우은숙, 4살 연하 아나운서 유영재와 재혼 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>도민·관광객에 머리숙인 제주도, 유충 나온 강정정수장 한시 중단 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 도민·관광객에 머리숙인 제주도, 유충 나온 강정정수장 한시 중단 등록 2020.10.28 11:53:37 작게 크게 도, 단계별 수계전환·유충유입 원인 조사 등 추진발표 "가용 인력·자원을 총동원 도민불편 조속히 해결할것" [제주=뉴시스] 현공은 제주도 상하수도본부장이 28일 오전 제주도청 브리핑룸에서 '강정 정수장 급수계통 변경 계획(안)'에 대해 설명하고 있다. kjm@newsis.com [제주=뉴시스] 강정만 기자 = 제주특별자치도는 제주 강정정수장 급수구역에 수돗물 안정화를 위한 ▲단계별 수계전환 수돗물 공급 ▲강정정수장 시설개선 ▲유충 유입 원인 조사 및 재발방지 대책 마련 등이다 ‘3가지 응급조치대책’을 동시 추진한다고 28일 밝혔다. 도는 이 대책을 영산강유역환경청과 케이 워터( K-water) 영섬수도지원센터와 협력해 추진한다. 도는 지난 10월 18일 밤 수돗물 유충 민원이 발생함에 따라 안전한 수돗물 공급을 위해 여과지 역세척, 이토, 여과사 교체 등의 긴급 조치를 지속 시행해왔지만  이번 발견된 유충은 미세하고 강정정수장 여과지 노후화(1987년 설치) 등으로 유충 완벽차단에는 한계가 있어 강정정수장 한시적 운영중단과 수계전환 등 특단의 대책을 실시하게 됐다고 설명했다. 도는  이번 주부터 강정정수장 급수구역 인근 정수장 4곳(어승생·회수·토평·남원)을  연계하고 강정정수장에서 공급했던 급수구역 전 지역에 유충 없는 수돗물(2만1000t/일)로 대체 공급할 계획이다. 도는 10월 말까지 단계적 수계전환 조치를 완료하고 11월 1일 오후6시부터 강정정수장 운영을 일시 중단한다. 이번 조치는 강정정수장 수돗물 유충 유출 완벽 차단 시까지 한시적으로 진행된다. 서귀포시 서부급수구역의 경우 어승생 정수장과 회수정수장 계통 예비취수원(약 9000t/일)을 고근산 및 신도시 배수지 계통 급수구역에 공급하게 된다. [제주=뉴시스] 현미경으로 본 강정정수장 유충.(제주도 제공)고근산 및 신도시 배수지 계통 급수구역은 당초 회수정수장을 거쳐 강정정수장을 통해 수돗물을 공급받아왔던 지역으로, 급수 대상 마을은 서홍동·대륜동·대천동 등이 해당된다. 서귀포시 동부급수구역은 토평정수장과 남원정수장의 예비취수원(약 1만2000t/일)을 활용해 삼매봉 배수지 및 관광단지1배수지를 거치지 않는 직결급수지역(송산동 등)에 공급을 확대한다. 삼매봉 배수지 계통은 지난 26일 수계전환 조치를 완료했다. 이 외 지역은 공급능력에 대한 세부검토 결과 비상연계관로 추가 설치가 필요한 지역으로, 관로 공사를 진행할 예정이다. 급수 대상 마을은 송산동·정방동·중앙동·천지동·효돈동·동홍동·중문동 등이다. 최승현 제주도 행정부지사는 이날 도청 기자실에서 브리핑을 통해 “수돗물 유충 사태로 불편을 겪고 있는 모든 도민과 관광객 여러분께 머리 숙여 사과 드린다”며 “이번 대책은 유충 없는 깨끗한 수돗물을 공급하기 위한 조치로, 앞으로 모든 가용 인력과 자원을 총동원해 공급전환 및 정수장 공정개선 등의 조치를 차질 없이 추진하고 도민 불편을 조속히 해결해 나가겠다”고 강조했다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주양돈농협, '제주도니' 제주도 관광협회 온라인마켓 '탐나오' 입점 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주양돈농협, '제주도니' 제주도 관광협회 온라인마켓 '탐나오' 입점 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주양돈농협, '제주도니' 제주도 관광협회 온라인마켓 '탐나오' 입점 기자명 오형석 기자 입력 2020.10.29 11:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 코로나19 장기화...온라인 제주 돼지고기 시장 적극적 마켓팅 [시사매거진/제주] 제주양돈농협(조합장 고권진)은 제주도관광협회(회장 부동석)가 운영하는 제주여행 대표 온라인마켓인 ‘탐나오’에 입점했다고 28일 밝혔다. 제주양돈농협은 코로나19 사태 장기화가 바꾼 소비 패턴 분석과 함께 지역경제 활성화와 소비촉진을 위해 ‘탐나오’ 입점을 결정했다고 전했다. 제주양돈농협은 이를 통해 제주산 돼지고기의 우수성을 널리 알릴 계획이다. 2020년 소비자가 뽑은 올해의 브랜드 대상 축산물(돈육)부문에서 최고브랜드 상을 수상한 ‘제주도니’는 고소한 식감과 풍부한 맛으로 소비자들의 입맛을 사로잡고 있다. 제주양돈농협은 신석식품의 유통 브랜드가 오프라인에서 온라인으로 옮겨가면서 온라인 시장을 적극적으로 개척해 제주산 돼지고기 소비 촉진에 나선다는 방침이다. 고권진 제주양돈농협 조합장은 “소포장 세트 등 돼지고기 구성 품목도 다양하게 개발해 탐나오에 선보이겠다”고 말했다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남국제관광박람회  우수 홍보상 수상 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 호남국제관광박람회  우수 홍보상 수상 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 호남국제관광박람회  우수 홍보상 수상 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.10.27 15:12 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주도관광협회(회장 부동석)는 지난 23일부터 25일까지 광주 김대중컨벤션센터에서 개최된 2020 호남국제관광박람회에서 우수홍보상을 수상했다고 27일 밝혔다. 이번 박람회에서는 제주의 언택트 관광지 10선을 포함해 제주 허니문관광, 골프 천국 제주 등 포스트코로나 시대에 걸맞는 다양한 이벤트 등 관광마케팅을 전개해 참관객들로 하여금 높은 호응도를 얻었다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 호남에서 언택트 관광지 10선 홍보 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도관광협회, 호남에서 언택트 관광지 10선 홍보 파이낸셜뉴스입력 2020.10.25 00:05수정 2020.10.25 00:27 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 23~25일 호남국제관광박람회 참가 제주홍보관 운영 제주시 조천읍 거문오름. 한국관광공사가 선정한 제주의 언택트 관광지 10선 중 하니다. [사진=제주관광공사] 【제주=좌승훈 기자】 제주도와 제주도관광협회(회장 부동석)는 23~25일 광주 서구 김대중컨벤션센터에서 열리고 있는 2020 호남국제관광박람회에 참가해 제주관광 홍보관을 운영하고 있다고 밝혔다. 협회는 이번 박람회를 통해 한국관광공사가 선정한 코로나 이후의 제주의 언택트(비대면·비접촉) 관광지 10선을 선보였다. 서귀포시 강정동 서건도 [사진=제주관광공사] 언택트 관광지 10선은 ▷"제주판 모세의 기적이 눈앞에" 서건도 ▷신비로움과 스산한 기운이 공존하는 거문오름 ▷숲에서 놀 수 있는 모든 것을 할 수 있는 휴림(제주시산림조합) ▷“제주에는 물의 수호신이 삽니다!” 물영아리 오름 ▷숨겨진 계곡과 숲길이 있는 고살리 숲길 ▷“구불구불 다니다보면 따스한 기운이 넘쳐요!” 신풍리 밭담길 ▷아름다운 경관 속 가슴 아픈 역사, 북촌리 4.3길 ▷단풍풍경 제주 대표 스팟, 천아숲길 ▷“모든 것을 다 내려놓고 달려라! 자전거!” 무릉 자전거도로 환상자전거길 3구간 ▷중산간마을의 생명수, 정물오름이다. 제주관광홍보관 협회는 코로나19로 해외여행 대신 국내관광으로 발길을 돌리고 있는 신혼부부를 위한 제주 허니문 관광과 골프 천국 제주를 담은 이미지 홍보 마케팅도 적극 전개했다. 아울러 온라인 여행마켓 ‘탐나오’와 제주시티투어버스, 제주뱃길 관광, 힐링·안전관광 온라인 영상 홍보, 도내 관광사업장 최신 정보 등도 제공하고 있다. 무릉자전거도로 환상자전거길 3구간 [사진=제주관광공사] 한편 관광 관련 콘텐츠를 한 눈에 볼 수 있는 호남국제관광박람회는 올해 3회째로 호남국제관광박람회 조직위원회가 주최한다. 이번 박람회에는 한국관광공사를 비롯해 제주도와 광주시, 전남도, 전북도, 대구시, 강원도, 충남도, 충북도, 경북도 등 자치단체들이 대거 참가해 지역별로 특화된 관광상품을 선보이고 있다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>코로나로 관광객 폭증하자 방문객들에게 ‘세금’ 걷겠다는 제주도 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 코로나로 관광객 폭증하자 방문객들에게 '세금' 걷겠다는 제주도 제주도에 입도하는 관광객들에게 세금을 걷는 방안이 추진될 전망이다. 박아영 기자 입력 2020.10.27 16:40 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 뉴시스[인사이트] 박아영 기자 = 코로나19로 해외 여행을 못 가면서 제주도 찾는 이들이 부쩍 많아졌다.이 가운데, 제주도가 관광객들에게 이른바 '입도세'를 걷겠다고 밝혀 찬반 여론이 거세다.지난 25일 원희룡 제주지사는 서귀포시 대정읍 송악산에서 기자회견을 갖고 '청정 제주 송악 선언'을 통해 "제주의 청정 환경을 지키기 위한 환경보전기여금 도입을 본격 추진하겠다"고 밝혔다.관광객 증가에 따른 생활폐기물 처리 비용 등을 원인 제공자에게 부담시키겠다는 것인데 사실상 '입도세'라고 할 수 있다.뉴시스하루 기준 렌터카 1대당 5천 원, 숙박업소는 1인당 1천500원을 각각 부과하는 안이 제시된 상태다.이렇게 걷은 연간 1천500억원의 세금은 환경 보전과 관광객 편의를 위해 쓰일 전망이다.하지만 관광업계는 제주도 관광 열풍에 찬물을 끼얹는 처사라며 크게 반발하고 나섰다.앞서 입도세, 환경보전기여금은 지난 2013년부터 논의되어왔지만 타지역과의 형평성과 위헌 소지 논란 등으로 추진되지 못했다.gettyimagesBank뉴시스이번에도 역시 비판 여론이 거세기 때문에 입법까지는 진통이 예상된다.또한 이날 원희룡 지사는 "제주의 자연은 모든 국민이 누릴 권리가 있는 대한민국의 소중한 자산으로, 청정과 공존은 제주도민이 선택한 양보할 수 없는 헌법적 가치"라고 강조하며 경관과 생태계에 대한 고려가 없는 난개발을 금지하겠다는 방침도 밝혔다.이에 따라 제주도는 우선 논란이 되고 있는 송악산, 오라관광단지, 동물테마파크, 헬스케어타운, 비자림로 확장 사업에 강화된 원칙을 적용할 계획이다. 박아영 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>‘관광업계 직격탄’ 제주도 특별고용지원 추가 연장 건의 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 ‘관광업계 직격탄’ 제주도 특별고용지원 추가 연장 건의 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 ‘관광업계 직격탄’ 제주도 특별고용지원 추가 연장 건의 기자명 김정호 기자					(newss@hanmail.net) 입력 2020.10.25 16:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 특별고용지원업종 지정기간을 기존 2021년 3월 말에서 2021년 12월 말로 9개월 추가 연장해 줄 것을 고용노동부에 건의했다고 25일 밝혔다.특별고용지원 업종은 여행업과 관광운송업(항공‧해운‧전세버스), 관광숙박업, 공연업, 항공지상조업, 면세점, 공항버스, 전시‧국제회의업 등 8곳이다.제주는 고용유지지원금 신청 건 중 관광분야가 전체 신청건의 34% 정도를 차지할 정도로 편중이 심하다. 실제 10월16일 기준 전체 신고 6174건 중 여행사와 호텔업, 전세버스, 항공사 등이 2095건에 달한다. 제주도는 “관광분야 종사자들의 고용불안을 해소하기 위해 선제적으로 추가 연장을 건의했다”며 “연내 코로나19가 진정국면에 들어서더라도 당장 경기 회복은 어려울 상황”이라고 밝혔다.당초 고용노동부는 3월16일부터 9월15일까지 특별고용지원업종을 지정 고시했다. 이후 제주도의 요청으로 지정기간을 2021년 3월31일까지 한차례 연장한 바 있다. 김정호 기자 newss@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 제주관광진흥기금 289억 원 접수 최종편집 2022년 10월 11일 14시 52분 제보 문의 회원가입 로그인 홈 정치 경제 사회 세계 문화 Books 전국 스페셜 협동조합 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 홈 정치 경제 사회 세계 문화 Books 전국 강원 부산/울산 경남 광주/전남 대전/세종/충청 전북 대구/경북 제주 경기 스페셜 협동조합 탐방 함께자리 언론네트워크 차이나인사이트 인문학습원 협동조합 제주도, 하반기 제주관광진흥기금 289억 원 접수 정기후원 제주도, 하반기 제주관광진흥기금 289억 원 접수 현창민 기자(=제주) | 기사입력 2020.10.20. 15:07:43 페이스북 트위터 카카오스토리 밴드 URL복사 제주도는 하반기 제주관광진흥기금 융자 접수 결과 총 289억 원이 신청 됐다고 밝혔다. 제주도에 따르면 지난 9월 28일부터 16일까지 접수된 경영안정자금은 총 197건에 260억 원이 신청됐으며 업종별로는 ▲여행업 85건, 58억 원 ▲관광숙박업 24건, 49억 원 ▲일반숙박업 18건, 16억 원 ▲관광식당업 13건, 37억 원 ▲전세버스업 14건, 19억 원 ▲노후전세버스 교체 4건, 5억 원 ▲기타 39건, 76억 원 등이다. 시설 개보수자금은 2건이 접수돼 29억 원이 신청된 것으로 집계됐다. ▲.ⓒ제주특별자치도청 도는 10억 미만의 경영안정자금은 자체심사를 통해 10억 이상 및 시설 개보수 자금인 경우 기금 심의 위원회를 심사를 거쳐 이달 내에 최종 지원 대상자를 확정할 예정이다. 이번 하반기 특별 융자는 코로나19로 경영난을 겪고 있는 관광사업체 지원을 위해 융자 금액 한도 내에서 상반기 대출 실행한 금액을 제외한 나머지를 추가로 융자 추천하기로 했다. 또한 행정처분 이력 융자금 중도회수 이력 관계없이 신청이 가능하도록 제한을 완화했으며 그 결과 총 289억 원까지 접수된 것으로 나타났다. 총 199건 중 여행업계가 85건(58억원)으로 42%를 차지했다. 숙박업 분야(관광숙박, 일반숙박)가 42건(65억원) 21%로 뒤를 이었다. 이외에도 전세버스(경영안정자금+노후전세버스교체)가 18건(24억 원)이 접수됐다. 제주관광진흥기금 융자 추천대상자는 제주도내에 소재한 제주관광진흥기금 융자협약 금융기관을 방문해 경영안정자금은 12월 31일까지 시설 개보수 자금은 내년 2월 28일까지 대출을 실행해야 한다. 김재웅 도 관광국장은 “앞으로도 관광사업체 경영안정 도모와 도민의 실절적 수혜 확대를 위해 유관기관과의 유기적인 협력체계를 구축해 융자 지원 사업을 지속 발굴해 나가겠다”고 밝혔다. 앞서 도는 올해 상반기 1494개 업체 1797억 원을 신규 융자 추천했다. 기존 대출 실행자 1139건·2700억 원에 대해 2년간 상환유예를 결정한 바 있다. 이 기사의 구독료를 내고 싶습니다. 3,000 5,000 10,000 30,000 50,000 +1,000 원 추가 +10,000 원 추가 -1,000 원 추가 -10,000 원 추가 매번 결제가 번거롭다면 CMS 정기후원하기 10,000 원 결제하기 일부 인터넷 환경에서는 결제가 원활히 진행되지 않을 수 있습니다. 343601-04-082252 [예금주 프레시안협동조합(후원금)]으로 계좌이체도 가능합니다. 기사 후원에 참여해 주셔서 감사합니다. 후원기사 제주도, 하반기 제주관광진흥기금 289억 원 접수 익명으로 후원하기 이름 핸드폰번호 이메일 @ 직접입력 naver.com hanmail.net nate.com korea.com gmail.com 금액 결제방법 휴대폰소액결제 신용카드 계좌이체 ※입력하신 개인정보는 후원 관련 문의시 식별정보 이외의 목적으로 활용되지 않습니다. ※익명으로 후원하시면 프레시안은 개인정보를 수집하지 않으나, 향후 결제를 취소할 때 처리가 지연될 수 있습니다. 계좌이체는 신청 할 수 없습니다. 취소 확인 현창민 기자 pressianjeju@gmail.com 제주취재본부 현창민 기자입니다. 최근글보기 NAVER 에서 현창민 기자 를 구독·응원해주세요 프레시안에 제보하기 프레시안에 CMS 정기후원하기 전체댓글 0 등록 최신순 조합소개 기사제보 저작권 정책 이메일 무단수집거부 개인정보취급방침 청소년보호방침 RSS 프레시안협동조합 | 사업자번호 101-81-69524 | 대표 박인규 제호: 프레시안 | 신문사업·인터넷신문사업 등록번호 서울아00083 | 창간 2001.9.24 | 등록 2005.10.12 | 발행인·편집인 박인규 | 청소년보호책임자 김우정 (04043) 서울시 마포구 서교동 395-73 BK빌딩 101호(양화로 10길 49 BK빌딩 101호) | 02-722-8494 | FAX 02-6008-8400 Copyrightⓒ Pressian Coop. All rights reserved.</t>
+  </si>
+  <si>
+    <t>김재중, 훈훈 비주얼로 제주도 관광객 모드 "웃음이 멈추질 않았던 어제" - 헤럴드 POP 기후위기시계 × News 방송 가요 영화 드라마 예능 이슈 ●실시간 뉴스 방송 김재중, 훈훈 비주얼로 제주도 관광객 모드 "웃음이 멈추질 않았던 어제" 2020.10.24 09:04 [헤럴드POP=이지선 기자]김재중 인스타그램 김재중이 제주도에서의 일상을 전했다. 4일 가수 김재중은 자신의 인스타그램에 "웃음이 멈추질않았던 어제~ 오늘도 어제만 같아라 ㅅㅅ v #제주도"라는 글과 함께 두 장의 사진을 게재했다. 공개된 사진 속 김재중은 훤한 비주얼을 자랑하며 여유 넘치는 모습. 김재중은 관광지를 둘러보며 인증샷을 남기고 있어 시선을 끌었다. 한편 김재중은 최근 커버앨범 '러브 커버스 Ⅱ(Love Covers Ⅱ)'를 일본에서 내놓고 현지 오리콘 차트 주간 앨범 랭킹 1위에 올랐다.popnews@heraldcorp.com 오늘의 인기정보 오늘의 인기정보 오늘의 인기정보 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 신문윤리강령 FAMILY SITE FAMILY SITE 헤럴드경제 코리아헤럴드 K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드팝 인터넷신문등록번호:서울 아03712 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 온라인 뉴스룸 : 02-723-9623 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도ㆍ제주도관광협회, 광주서 언택트 제주관광지 선보여 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도ㆍ제주도관광협회, 광주서 언택트 제주관광지 선보여 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도ㆍ제주도관광협회, 광주서 언택트 제주관광지 선보여 기자명 오형석 기자 입력 2020.10.24 16:15 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 2020 호남국제관광박람회 참가 제주관광 홍보관 운영 [시사매거진/제주] 제주도와 제주도관광협회(회장 부동석)는 10.23(금) ~ 25(일) 3일간 광주 김대중컨벤션센터에서 개최된 2020 호남국제관광박람회에 참가하여 제주관광 홍보관을 운영한다고 밝혔다. 이번 박람회에는 포스트코로나 시대를 맞이하여 한국관광공사에서 선정한 제주의 언택트 관광지 10선(서건도, 거문오름, 신풍리 밭담길, 북촌리 4.3길, 휴림, 물영아리오름, 천아숲길, 무릉자전거도로, 고살리숲길, 정물오름)을 선보인다. 또한, 최근 코로나19로 인해 해외여행 대신 국내관광으로 발길을 돌리고 있는 신혼부부를 위한 제주 허니문 관광과 골프 천국 제주를 담은 이미지 홍보 마케팅을 전개하고 있다. 더불어 온라인 여행마켓‘탐나오’와 제주시티투어버스를 비롯,  힐링, 안전 관광 온라인 영상 홍보와 제주뱃길 관광 활성화, 도내 관광사업체의 최신 관광정보를 제공하고 있으며, 특히, 홍보관 운영을 통한 돌하르방 석고 마임 퍼포먼스 및 포토존 운영 등 이벤트를 실시하여 참관객들로 하여금 제주의 매력을 느낄 수 있도록 선보이고 있다. 도 관광협회는 이번 박람회 참여를 통해 코로나19 이후의 뉴노멀시대 관광 패러다임 변화에 적극 대응하고 제주관광 활성화를 위해 노력하겠다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>중문관광단지 내 부영호텔 법정 싸움...제주도 최종 승소 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:50 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 중문관광단지 내 부영호텔 법정 싸움...제주도 최종 승소 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 중문관광단지 내 부영호텔 법정 싸움...제주도 최종 승소 기자명 이병철 기자 입력 2020.10.19 16:15 수정 2020.10.19 16:31 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 부영그룹이 제주도에 제기했던 중문관광단지 내 부영호텔 건축허가 관련 소송 2건 모두 대법원에서 패소했다고 제주도가 오늘 밝혔습니다. 쟁점이 된 사업은 부영그룹의 자회사 부영주택이 제주 중문관광단지 주상절리대 인근 29만3897㎡에 총객실 1천380실 규모의 부영호텔 4개 동을 짓는 계획입니다. 부영주택은 2006년 12월 중문관광단지 개발사업 시행사인 한국관광공사로부터 사업부지를 매입한 후 지난 2016년 2월 호텔 4개동 신축하겠다며 제주도에 건축허가를 신청했습니다. 도는 부영주택이 환경영향평가법에 따른 환경영향평가 변경 협의 절차를 이행하지 않았기에 2017년 12월 건축허가 신청을 최종 반려했습니다. 또한 2017년 건축물 높이 조정과 주상절리대 경관 보호를 이유로 재보완을 요청했습니다. 이에 부영주택은 같은해 제주도를 상대로 환경보전방안 조치(이행)계획 재보완 요청 취소와 건축허가 신청 반려 처분 취소 소송을 각 제기했습니다. 법원은 재판에서, 제주도가 건축허가 신청을 반려할 만큼 정당하고 중대한 공익상 필요가 인정된다고 보아 부영주택의 주장을 받아들이지 않았습니다. 이병철 기자 taiwan0812@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 학생들에게 성적인 농담한 교사...법원, "해임 적법" 최신뉴스 전국 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 전국 부산 산업단지 통근버스 6개 노선 신설 전국 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 사회 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 사회 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 포토뉴스 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 김기선 팀장 “11월 24일부터 종이컵 등 일회용품 무상제공 금지” 3 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 4 무주 일가족 사상사고...보일러 배기관 막혀 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 7 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 8 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광명소 추가요~'성산포항 활어 위판장' :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 관광명소 추가요~'성산포항 활어 위판장' 등록 2020.10.14 10:05:32 작게 크게 성산포항 활어 위판장 [제주=뉴시스] 강정만 기자 = 제주특별자치도가 성산포 어업인들의 숙원사업인 성산포항 활어 위판장을 2년여 공사 끝에 15일 개장한다. 125억원이 투입돼 지난해 1월 착공해 지상 4층, 지하 1층, 연면적 5917㎡ 규모로 조성됐다. 방문객들이 싱싱한 활어를 골라 먹을 수 있는 관광어시장형 활어회센터다. 관광지인 성산일출봉, 우도 등과 연계한 어촌 관광자원이 되리라는 기대다. 활어위판장, 활·선어 판매장, 회센터(식당), 전망대, 전시장(수산물 가공품 등), 관람로(수산물 위판 현장) 등을 갖췄다. 도는 갓 잡은 활어를 판매할 수 있어 도민들아 품질 좋은 활어를 구입할 수 있고, 판매하는 어업인은 운송비용을 절감하는 등 일석이조 효과를 얻을 수 있을 것으로 전망했다. ◎공감언론 뉴시스 kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, '섬 관광정책' 국제세미나...코로나19 관광위기 대응 방안논의 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, '섬 관광정책' 국제세미나...코로나19 관광위기 대응 방안논의 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, '섬 관광정책' 국제세미나...코로나19 관광위기 대응 방안논의 기자명 오형석 기자 입력 2020.10.20 17:59 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 온·오프라인 활용 11월 7일 개최 [시사매거진/제주] 제주도와 제주관광공사는 오는 11월 7일 롯데호텔제주에서 '제4회 ITOP(섬 관광정책, Inter-Islands Toursim Policy) 국제정책 세미나'를 개최한다고 20일 밝혔다. 이 행사는 코로나19 사태 속에 섬 지방정부가 한자리에 모여 위기에 빠진 관광 정책과 대응 방안을 논의하기 위해 마련됐다. 주제는 '섬 관광 지역의 코로나19 대응 및 스마트 관광'이다. 참석자들은 코로나19 확산 이후 섬 관광 지역에서의 관광은 어떻게 변화되고 있으며, 이러한 변화에 어떤 방식으로 대응하고 있는지에 대해 지역별 사례를 공유하고, 스마트관광의 활용과 향후 과제를 모색할 예정이다. 코로나19로 인해 온·오프라인을 활용해 해외 연사는 온라인으로, 국내 연사는 오프라인으로 참여하게 된다. 세미나는 유튜브를 통해 실시간으로 생중계되며, 일반 참가자는 온라인을 통해 참여할 수 있다. 세미나에는 ITOP 포럼 10개 회원지역 중 페낭, 푸켓, 발리 등 3개 지역과 홍콩의 스마트관광 전문가가 함께한다. 김승배 제주특별자치도 관광정책과장이 '제주지역의 코로나19 대응과 스마트관광'이라는 주제로, 여순힌 페낭 관광창조경제부 장관이 '안전·책임 관광지로서의 페낭'이라는 주제로 발표한다. 토론에는 김의근 제주 국제컨벤션센터 대표이사를 좌장으로 자투퐁 카유사이 푸켓 외무부 부장, 이다 아유 인다 유스티카리니 발리 마케팅부 부장, 박상원 홍콩폴리텍 교수 등이 참여한다. 고선영 제주관광공사 연구조사센터장은 "이번 행사는 코로나19 확산에 따른 섬 지방정부의 공통된 고민을 공유하고, 대응 방안을 함께 모색하기 위해 마련했다"며 "세미나 내용이 유튜브로 실시간 생중계되는 만큼 현장 참가보다 온라인 참여를 적극적으로 홍보할 예정"이라고 밝혔다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[그래픽]체류 3.55일·지출 47만원… 제주도 관광 트렌드 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 포토 국내사진 해외사진 그래픽뉴스 뉴시스Pic [그래픽]체류 3.55일·지출 47만원… 제주도 관광 트렌드 등록 2020.10.15 15:03:22 작게 크게 [서울=뉴시스] 15일 제주관광공사가 발간한 ‘제주 관광동향 연차보고서’에 따르면 내국인 관광객의 체류일수는 2019년 3.55일로 4년째 감소를 이어갔다. 1인 평균 지출 비용은 내국인 기준 2018년(51만5825원)에서 2019(46만9039원)으로 감소했다. (그래픽=안지혜 기자) hokma@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4[속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5[속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 6尹, 학업성취도 전수평가에 "아이 교육 방치 안 돼…맞춤형 교육 책임질 것" 7尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도, 청렴도 최하위↓...관광공사 사장 연봉은 최고↑ &lt; 자치행정 &lt; 정치행정 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도, 청렴도 최하위↓...관광공사 사장 연봉은 최고↑ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치행정 자치행정 제주도, 청렴도 최하위↓...관광공사 사장 연봉은 최고↑ 기자명 진순현 기자 입력 2020.10.20 13:17 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 20일 국회 행정안전위원회 제주도를 비롯 4개 지자체 국정감사사장 연봉은 전국 최고인 반면 직원 임금은 최하위도, 외부청렴도 5등급, 내부청렴도 4등급 최하위 ‘질타’ 더불어민주당 이해식 의원(왼쪽)국회에서 제주관광공사 수백원대 적자 운영이 도마에 올랐다.국회 행정안전위원회(위원장 서영교)는 20일 오전 제주도를 비롯해 강원도, 경상북도, 충청북도 4개 지자체를 상대로 국정감사를 진행했다.이날 이해식 의원(더불어민주당, 서울 강동을)은 “수백원대 적자 운영으로 존폐위기에 처한 제주관광공사 사장 연봉이 경기관광공사 다음 2순위인 1억3000만원”이라며 “반면 직원들의 임금은 전국 최하위권”라고 따져 물었다.이에 원희룡 지사는 “면세점 때문에 손실이 발생했다”며 “크루즈 확대를 위해 대규모 인원을 채용한 뒤 사드 문제로 많은 손해를 입게 됐다"고 답변했다. 이어 ”기관장 연봉에 대해선 관광협회 등 다른 기관들과의 연봉 차이에서 빚어진 부분이 있고, 직원들의 처우개선을 더 높이는 게 앞으로의 과제"라고 밝혔다.이어 제주도가 지난해 공공기관 청렴도 평가에서 5등급인 최하위 성적이라는 비판이 제기됐다. 이 의원은 “지난해 제주도 외부청렴도 5등급, 내부청렴도는 4등급에 머물렀다”며 “이는 전년도보다 2등급이나 추락한 결과였다”고 질타했다.이어 이 의원은 “지난 2016년 소방납품비리로 인해 제주도정이 내부 비위자에 대한 무관용 처벌을 내리겠다고 발표했다”며 “하지만 지난해 10월 현금을 제공받은 공직자에게는 강등 처분, 향응을 제공받은 자에게도 견책 처분을 내리는 등 변함이 없다”고 지적했다. 심지어는 “음주운전 공무원에게도 견책, 음주만취 공직자에게도 감봉 1개월에 그치는 등 솜방이 처벌에 그쳤다”며 지난 음주시장 임명과도 빗대어 우회적으로 비판했다.답변에 나선 원 지사는 "일단 무게 있게 받아들이고 반영하겠다. 청렴 문제는 제주도 공직사회가 그동안 고질적으로 질타받아왔던 부분"이라며 "노력은 하고 있으나 도민들에게 체면이 안 설 정도로 죄송하다"고 솜방이 처벌에 대해서는 즉답을 피해갔다. 진순현 기자 jinjin3808@naver.com 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>박호형 제주도의원 “거꾸로 가는 제주의 웰니스 관광” &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:50 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 박호형 제주도의원 “거꾸로 가는 제주의 웰니스 관광” 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 박호형 제주도의원 “거꾸로 가는 제주의 웰니스 관광” 기자명 이병철 기자 입력 2020.10.15 13:45 수정 2020.10.15 17:55 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 박호형 의원 박호형 제주도의회 의원이 오늘 관광국 행정감사에서 웰니스 관광에 대한 추진의지가 미흡하다고 지적했습니다. 박 의원은 "코로나19 여파로 힐링관광이 대두되면서 웰니스 관광에 관심이 높아지고 있다"면서 "현 시점에서 이행실적은 ‘웰니스관광 콘텐츠 발굴 15선’ 선정 이외에 웰니스관광협의회 구성, 지원 조례 제정 등의 추진 사항이 미흡하다"고 관광국을 추궁했습니다. 특히 박 의원은 “관광국은 어렵게 확보한 웰니스관광과 관련 예산마저 지난해 집행율이 30%대 그치고 있다”면서 “코로나 대비를 해야 할 올해 예산마저 감액시키고 있어 웰니스관광을 성장시킬 의지 자체가 없다”고 잘라 말했습니다. 박 의원은 “웰니스관광의 경우 시장자체가 커지고, 코로나로 인해 피해를 본 관광가이드 등을 웰니스관광 전문인력으로 양성하는 등 제주형 뉴딜정책의 추진과제로도 육성할 필요가 있다”고 밝혔습니다. 이병철 기자 taiwan0812@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 학생들에게 성적인 농담한 교사...법원, "해임 적법" 최신뉴스 전국 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 전국 부산 산업단지 통근버스 6개 노선 신설 전국 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 사회 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 사회 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 포토뉴스 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 김기선 팀장 “11월 24일부터 종이컵 등 일회용품 무상제공 금지” 3 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 4 무주 일가족 사상사고...보일러 배기관 막혀 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 7 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 8 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"짧게 머물다가 돈 덜 쓰고 간다" 제주도 관광 트렌드 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 15℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV 경찰, 대전 현대 아웃렛 참사 관련 현대백화점그룹 본사 압색 [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 "짧게 머물다가 돈 덜 쓰고 간다" 제주도 관광 트렌드 등록 2020.10.15 12:02:35수정 2020.10.15 14:27:14 작게 크게 2019년 제주 관광동향에 관한 연차보고서 체류일수 3.55일·지출비용 46만여원 하락세 관광 만족률은 상승…“언택트 관광 집중해야” [제주=뉴시스] 우장호 기자 = 추석 연휴가 시작된 30일 제주시 한림읍 협재해수욕장에 '추캉스'족이 찾아와 즐거운 시간을 보내고 있다. 2020.09.30. woo1223@newsis.com [제주=뉴시스] 양영전 기자 = 지난해 제주관광의 질적 성장을 목표로 설정한 주요 지표들이 하락세를 나타냈다. 특히 올해에는 신종 코로나바이러스 감염증(코로나19) 여파로 작년보다 관광시장 상황이 더 안 좋을 것으로 예측되면서 제주관광 활성화를 위한 정책 필요성이 어느 때보다 중요해졌다는 지적이다. 15일 제주관광공사의 ‘2019년 제주 관광동향에 관한 연차보고서’에 따르면 내국인 관광객들의 제주 체류일수와 1인 평균 지출 비용은 모두 떨어졌다. 내국인 관광객의 체류일수는 2016년 4.12일에서 2017년 4.49일, 2018년 3.95일, 2019년 3.55일로 4년째 감소를 이어갔다. 다만 외국인의 경우 2016년 4.13일을 시작으로 2017년 4.39일, 2018년 4.9일, 2019년 4.53일로 내국인에 비해 비교적 오래 머무르는 것으로 조사됐지만, 작년의 경우 전년 대비 0.37일 하락했다. 1인 평균 지출 비용은 내·외국인 관광객 할 것 없이 4년째 하락세를 거듭하고 있다.내국인의 경우 2016년 59만2461원에서 2017년(54만307원), 2018년(51만5825원)까지 50만원대를 유지하다 2019(46만9039원)으로 40만원대까지 추락했다. 외국인 관광객도 제주에서 돈을 덜 쓰고 가는 추세를 이어갔다. 지난해 외국인은 제주에서 평균 1186.7달러를 사용했다. 2018년에는 1339.4달러를 쓰고 갔다. 제주도는 제주관광의 질적 성장을 목표로 체류일수, 1인 평균 지출 비용, 관광객 만족도, 여행형태, 마케팅 다변화지수 등 5개 지표를 선정해 관리하고 있다. 이 가운데 마케팅 다변화지수를 제외한 4개 지표는 계량적 접근으로 관리하고 있는데, 증가를 목표로 하고 있는 체류일수와 1인 평균 지출 비용에서 하락세가 이어지면서 대책 마련이 시급해졌다. [서울=뉴시스] 관광 만족도 조사에선 꾸준히 성적이 올라 긍정적으로 평가됐다. 내국인의 경우 지난해 만족률은 93.8%로 전년(91.4%)보다 올랐다. 2016년은 77.4%, 2017년은 81.4%로 집계됐다.외국인도 2016년부터 작년까지 81.8%, 86.1%, 83.4%, 90.5% 등으로 꾸준히 만족률이 상승한 것으로 나타났다. 여행형태를 보여주는 개별관광객 비중에서는 내국인의 경우 개별 여행이 완전히 정착된 것으로 분석됐다.지난해 내국인의 개별관광객 비중은 96.3%에 달했다. 2016년부터 2018년까지 92.8%, 92.5%, 95.2% 순으로 조사됐다. 외국인 관광객의 개별 여행 비중은 지난해 82.6%로 전년(86.8%)보다 줄었다. 2016년(40.8%)과 2017년(75.5%)과 비교하면 최근 개별 여행 선호도는 높아진 것으로 볼 수 있다. 고선영 제주관광공사 연구조사센터장은 “체류일수와 평균 지출 비용은 비례해서 증가하거나 감소할 수밖에 없는데 제주 여행의 추세가 한번 와서 오래 머물기보다 짧게 자주 방문하는 형태로 변화하고 있다”며 “올해의 경우 코로나19 상황에서 제주의 자연 경관 등을 감상하는 등의 언택트 관광이 각광을 받고 있다. 이런 트렌드에 발 맞춰 관련 콘텐츠를 개발해 나가는 게 중요하다”고 말했다. ◎공감언론 뉴시스 0jeoni@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 '문자 논란' 유병호 "송구스럽다… 소통은 정상적인 것" 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 윤석열 대통령 출근길 문답 "북한, 핵으로 얻을 수 있는 것 없어" 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 고우석, 바람의 가문에 장가 간다…이종범 딸과 결혼 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 오늘의 헤드라인 "'학업성취도 평가' 5년만에 부활  기초학력 수준 정밀하게 가린다 5년 전 폐지됐던 학력 전수평가가 사실상 부활한다.기초학력 미달 학생이 늘어나는 현실을 타개하기 위한 고육책이다. 교육부는 11일 국무회의에서 제1차 기초학력 보장 종합계획을 보고했다고 밝혔다. 이번 계획은 올해 시행된 기초학력보장법에 따른 첫 종합 방안으로, 국가가 모든 학생의 기초학력을 보장해야 한다는 법적 책임을 담보하기 위해 마련됐 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 대전 아웃렛 화재 관련 현대百 본사 압수수색 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "코레일 운영 수도권 역사 절반이 외주…악순환 반복 "소상공인 과태료 최대 70% 감면 추진…법령 정비 "러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'YTN 최대 주주' 한전KDN 사장, 與의 지분 매각 요구에 "하겠다" 3'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 4尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 5尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3우크라전 229일, 러 키이우 등 전역 미사일 공습…최소 111명 사상(종합) 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4삼성전자 사들이기 시작한 외국인…분위기 반전될까 5코스피, 1.78% 하락한 2193.02 출발 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 33분기 국내 주식시장 시총 630조 증발…카카오 '반토막' 4국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 5①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 3연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" 두산 베어스가 11일 올 시즌을 끝으로 계약 기간이 만료되는 김태형 감독과 재계약을 하지 않기로 결정했다고 밝혔다. 김 감독은 2015시즌부터 두산 베어스의 지휘봉을 잡아 2022시즌까지 정규시즌에서 645승 19무 485패를 거뒀다. 또한 2015년부터 2021년까지 7년 연속 한국시리즈 진출에 성공했고, 세 차례 한국시리즈 우승을 이끌었다. 두산 베어스 관계자는 "구단 전성기를 이끌어준 김태형 감독의 노고에 감사드린다. 팀의 장기적인 방향성 등을 고려해 이같은 결정을 했다"고 말했다. 두산은 마무리 훈련과 내 2이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 3'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 4진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 4예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 [부고]박찬수(한국거래소 파생상품시장본부 상무)씨 부친상 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 의정부 행복로서 14일 뷰티 페스티벌 열린다 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 브이원텍, LG전자와 33억 규모 공급계약 체결 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 野 "대통령실 새 진입로? 尹, 도어스테핑 피하려는 꼼수" 구인모 거창군수 "더 큰 거창 힘찬도약 다짐" 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 민주당 광주시당, 10개 상설위 위원장 공모 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 박지원, 강대강 대치 여·야에 "북핵실험 5일 남아…이럴 때 아냐" "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 전재수 의원, 행정안전부 특별교부세 9억원 확보 광주 물 관리-지하시설물 중복 관리 "대책 시급"(종합) 정무위 국감… 野, 김건희 도이치 의혹에 "이복현 입장 내놔야" 러 외무부 "美, 우크라에 호전적 분위기 조장 말라" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 국제사회, 우크라 향한 러의 미사일 공습 규탄 시위 물결 中, 대만 국경일에도 무력시위…臺국방부장 "中 도발" 9월 중국 승용차 판매량 194만대...전년비 21%↑ 베네수엘라, 재앙 수준의 산사태로 최소 36명 사망 우크라 외무 "푸틴, 우크라에 보복 테러…영토 수복 작전 계속"(종합) 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 美 철도파업 위기감 다시 고조…노사합의안 반대 57% 연료전지 CATL, 3분기 순익 최대 1.9조원 3배 급증 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 9월 중국 승용차 판매량 194만대...전년비 21%↑ 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 올해 태풍에 침수차 2만대…중고차 환불 특약사항 필수 한전 사장 "핵심 해외사업 매각 바람직하지 않아…최대한 지킬 것"(종합) 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 브이원텍, LG전자와 33억 규모 공급계약 체결 이엔플러스, 2차전지 양산 설비 반입…공장 완공 박차 금감원장 "은행권 경영진, 법률상 내부통제 의무 부과해야" 국민연금 이사장, 수익률 제고 방안에 "운용발전위서 논의" 에스엠, 12~13일 기업설명회 신한투자증권, 해외주식 실전투자대회 개최 현대카드, 인플루언서 대상 '인플카 현대카드' 출시 보험업계, 최근 10년 새 PF대출 10배 증가 한창, 2차전지 장비업체 셀틱 조건부 투자계약 체결 시티랩스, 운전면허 명의도용 방지 안면인증 솔루션 도입 이복현 금감원장, 우리은행 횡령에 "있을 수 없는 일" 씨아이에스, 195억 규모 2차전지 전극공정 장비 공급계약 체결 국내외 식품안전정보, 조건 제약 없이 검색한다 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 TSMC, 삼성전자 제치고 반도체 매출 '세계 1위' 오른다 롯데제과, 빵빠레 샌드 카스타드 아이스크림 전량 회수 인쇄·복사·스캔 한번에…한국엡손, 스마트 복합기 3종 출시 김대중컨벤션센터서 광주식품대전 개막…13~16일 한화디펜스 첨단 다목적무인차량, 美육군 성능시연 참가 롯데케미칼, 일진머티리얼즈 인수…2.7조원 본계약 체결 토요타 후원 소외계층 오케스트라 연주회 개최 선생님들의 교수법 토론의 장…구몬 '학습연구대회' 성료 "ESG 리스크, 인권·안전 등 이슈 대응에 달려" 김포-하네다 운항 횟수 2배 증가…30일부터 28회→56회 국내외 식품안전정보, 조건 제약 없이 검색한다 카카오게임즈, '가디언 테일즈' 주제 오케스트라 예매 오픈 파수, 문서관리 플랫폼 ‘랩소디’에 저장소 통제 기능 추가 "SKT 구축 버스 공공와이파이 공유기 교체 비율 유독 높아" 美 애브포인트, 에센셜 인수…韓 SaaS 시장 본격 진출 롤러코스터 탔다가 911 부재중전화 왜?…"아이폰14가 구조요청 보내" 팬데믹 기간 전세계 '수면 질' 감소…韓 수면시간 늘었지만 평균 이하 박원재 부원장 "NIA, 지능정보시대 도약 견인차 역할" 경북도, '포스텍 연구중심 의대 설립' 박차… 바이오·의료산업 전문인력 양성 울산대·KAIST, 친환경 초고내구성 아연-공기전지 개발 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 국내외 식품안전정보, 조건 제약 없이 검색한다 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 노상방뇨 지적한 노인 무차별 폭행한 50대 실형 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 연세대 K-NIBRT사업단, 싸이티바 코리아와 인력양성 등 업무협약 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 경남도교육청, 9급 건축직 경력자 15명 뽑는다 '한동훈 어록집' 출판사 "韓 장관, 말만 하면 확대 재생산...조회수 등 신드롬" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" 울산 청년 여성 10명 중 2.4명 매년 떠나…학업·취업 기회 부족 '초등 임용합격→발령' 광주 4.8개월·전남 4.6개월…서울 15.6개월 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 의정부 행복로서 14일 뷰티 페스티벌 열린다 [포천소식] 시, 신재생에너지 융복합지원사업 공모 선정 등 파주시, 12월까지 긴급복지지원제도 확대 지원 고양시, 일산문화공원→'일산문화광장'으로 명칭 변경 ‘인천항 스마트 오토밸리 조성사업’ 운영사업자 선정 재공모 추진 이동환 고양시장 "국토부 1기 신도시 정비사업 로드맵 환영" 김태우 강서구청장 "경쟁력 키워 잘 사는 도시 만들 것" [화성소식] 시, U-만성질환관리센터 무료 심전도검사 등 진행 등 돌아온 마포나루 새우젓축제…"김장·콘서트 즐겨요" "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 화성 반려문화 축제 15일 개최…시민 참여·체험형으로 "다음에 또 만나요" 괴산군, 외국인 계절근로자 환송 제주 사회적경제기업 4곳 중 1곳 제조·도·소매업 '국민은행 강도살인' 첫 재판 내달로 연기…이승만 '일부 혐의 부인' 제9대 대구시의회 개원 100일…"선진 정책 의회 지향" 민주당 광주시당, 10개 상설위 위원장 공모 농협조합장선거 앞두고 광주·전남 무자격조합원 6750명 적발 '행사 취소에 환불 않고 추가입장'…세계군문화엑스포 '물의' 시민단체 "하계 아시안게임 광주·대구 공동 유치, 공론화부터" 해남군, 농식품부 '가루쌀 교육·컨설팅사업' 5개소 선정…전국 최다 세계지방정부연합 총회 개막…14일까지 이어져 충북, 전화금융사기 피해건수·금액 갈수록 동반 상승 대구폴리텍대, 대구옥외광고·울산옥외광고 대상전 잇따라 수상 "수계식·다비식때 왜 사진기 들이대냐 핀잔 들었는데...지금은 보물" 마산국화축제장에 국내 최장 200m 국화터널 만든다 3년 만에 돌아온 부산자갈치축제…13일 개막 2022경기국제웹툰페어 폐막, 관람객 2만2795명 방문 수원시 선정 아름다운 가을명소…광교산 수변 산책로 등 10곳 소개 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 김주형은 될성부른 나무…한국 무대서도 최연소 기록 KPGA 김한별, 골프채 부러뜨리고 캐디에 폭언…상벌위 회부 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 김승기 캐롯 감독, 가입비 미납에 "제가 말씀드릴 입장 아니다" 두산 "구단 방향성 고려, 김태형 감독과 재계약 안해" [백보드]허웅 vs 두경민 등 새 시즌 라이벌 열전 "따라올 테면 따라와 봐"…프로농구 10개 구단 감독 출사표 '2년차' 스트라이더, 애틀랜타와 최대 7년 1320억원 계약 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" 조성하 "결혼할 때 쥐뿔도 없었다…母도 말려" 클라씨, 컴백 카운트다운…'데이 앤드 나이트' 일정 공개 '이경규가 간다' 잇는다…'안정환의 히든 카타르' 편성 케플러, 첫 팬미팅 성료..."더 많이 못해줘서 미안" 이지현, 이혼소송 두번으로 보낸 30대…"부모님께 나는 죄인" 박시은♥진태현, 아픔 딛고 일터 복귀…"오랜만에 광고 촬영" '진검승부' 도경수·김상호, 본격 라면 독대…아웅다웅 케미 공효진, 뉴욕 결혼식…절친 정려원·엄지원 참석(종합) '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 4"집에 와서 허겁지겁 먹어" 제주 병설 유치원 '매운 급식' 논란 5동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 6울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 3"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 김진부 경남도의회 의장 "행정통합 공감하나 실현 힘들 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 세상에 이런 일이 검찰, 자신의 아내 성폭행 오해 동료살해 40대 공무직 징역 24년 구형 "용돈 주마" PC방서 여고생 2명 유인·추행한 40대 입건 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 가을여행, 추석 보다 '한글날 연휴' 관광객 더 몰린다 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 가을여행, 추석 보다 '한글날 연휴' 관광객 더 몰린다 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도 가을여행, 추석 보다 '한글날 연휴' 관광객 더 몰린다 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.10.06 12:02 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 가을시즌 제주여행계획 설문조사 결과방문이유는 '청정환경, 인기 방문지는 '성산일출봉'.한라산' 지난 9월26일부터 지난 4일까지 징검다리 추석 연휴기간 보다, 오는 9일부터 11일까지 한글날 연휴 기간 제주여행을 계획하고 있는 관광객이 많은 것으로 나타났다. 제주특별자치도와 제주관광공사(사장 박홍배)는 '가을시즌 제주여행 계획 설문조사' 결과 추석 연휴 제주여행을 계획한 관광객 보다 한글날 연휴 제주여행을 계획한 응답자가 더 많았다고 6일 밝혔다. 이번 설문조사에서 올해 가을시즌 제주여행을 계획하는 시기(복수응답)로 '10월'이 57.2%로 가장 많은 비중이 차지했다. 그 중에서도 한글날 연휴(10월7일~10월11일)가 17.1%로 추석연휴(9월30일~10월6일) 15.0%보다 높은 비율을 보였다. 관광객들이 계획한 방문 시기는 추석연휴(15.0%)에만 집중된 것이 아니라, 한글날 연휴(17.1%)와 비교적 고르게 분산된 것으로 나타났다. 또 10월(10월12일~30일) 25.1%, 11월(11월1일~30일) 28.1%로 응답해, 연휴 이후에도 제주를 찾는 가을시즌 관광객은 꾸준할 것으로 예상된다. 앞서 지난 6월 실시된 '향후 1년 제주여행 계획조사'(향후 1년 조사)에서 9월에서도 11월 사이 '가을'에 제주여행을 계획하는 응답자가 40.5%로 가장 높게 조사됐다. 제주여행을 선택한 이유(복수응답)로는 '청정한 자연환경'이 56.6%로 독보적인 1위를 차지했으며, '이동거리가 적당해서'가 31.8%로 뒤를 이었다. 지난 '2020년 황금연휴(4월30일 ~ 5월5일) 제주여행 계획 설문조사'와 '향후 1년 조사'의 동일 문항에서 1위를 차지했던 '해외여행 대체지로 적절해서'(56.1%, 51.9%)는 금번 조사에서는 28.8%로 3위에 그쳤다. 반면, '청정한 자연환경'(35.3%)의 선택비율은 황금연휴 조사에서는 35.3%였으나 '향후 1년' 조사에서는 51.9%로 늘었고, 가을시즌 조사에서도 56.6%로 지속적으로 선택 비중이 높아지고 있어, 명실상부 제주여행의 가장 매력적인 요인임을 증명했다. 제주도의 다른 지역 대비 코로나19로부터 안전성에 대해서 51.3%가 안전하다고 답해, 위험하다는 응답 6.6%보다 월등히 높게 나타났다. 또 코로나19 이후 제주도에 대한 관심도에 관해서도 43.4%의 응답자가 증가했다고 답해 감소했다는 응답 12.1%보다 훨씬 높은 수치를 보였다. 가을시즌 제주여행에서 특별히 우려되는 사항으로는 '숙박업소 위생상태'(50.9%)가 가장 많았다. '음식점 위생상태'(38.3%), '이동수단 위생상태'(35.9%), '공항, 비행기 등의 위생상태'(33.2%)가 그 뒤를 이었다. 이어서 '쇼핑장소의 위생(14.1%)', 타 관광객의 개인방역 준수정도(13.3%)', '관광지 위생상태(12.3%) 등을 우려하고 있는 것으로 나타났다. 가을시즌 제주여행의 예상 체류기간은 평균 3.59일로 답했으며, 1인당 지출 비용(항공료 제외)은 평균 39만4810원을 예상하며, 동반인 수는 평균 3.20명으로 나타났다. 지난 '황금연휴 조사'와 '향후 1년 조사'와 비교해 이번 조사에서 1인당 지출비용은 35만750원에서 37만480원, 39만4810원으로, 동반인 수도 2.91명에서 3.05명, 3.20명으로 높게 나타나 여행 심리가 지속적으로 회복되고 있는 것으로 분석된다. 지출비중이 많은 항목으로는 숙박비가 76.4%로 압도적으로 높게 나타났으며, 식음료비가 56.0%로 그 뒤를 이었다. 동반인은 '가족 및 친지'(77.2%)가 '친구 및 연인'(19.6%), '혼자'(5.0%), '직장동료'(0.2%) 등과 비교해 독보적으로 높았다. 지난 '황금연휴 조사'와 '향후 1년 조사'와 비교하면, 56.8%에서 58.1%, 77.2%로 지속적으로 높게 나타나, 명절 연휴임을 감안하더라도 코로나19로 인해 가족여행을 선호하는 성향이 가속화되고 있는 것으로 보인다. 제주에서의 선호활동(복수응답)으로는 '자연경관감상'이 66.1%로 가장 높았으며, '식도락(맛집여행)'이 56.4%, '산 및 오름 및 올레길 트레킹'이 48.6%로 뒤를 이었다. 야외활동을 즐기려는 성향은 지난 조사들과 비슷한 양상을 보이고 있다. 지난 '황금연휴 조사'와 '향후 1년 조사'와 다르게 '레포츠 활동'의 비중이 11.4%, 12.7%에서 27.8%로 눈에 띄게 높아졌으며, 명절 연휴의 영향으로 '지인 및 친지 방문'이 기존 8.5%에서 8.1%에서 22.8%로 크게 올랐다. 방문 예정 지역으로는 성산일출봉을 선택한 비율이 55.8%로 가장 높았으며, 오름 및 한라산 43.0%, 중문관광단지 38.3%, 이중섭거리 및 서귀포올레시장 37.7%, 협제-금릉해변(한림읍) 36.5%로 높은 비율을 보였다. 또 용담해안도로 인근 33.3%, 곽지-한담해변(애월읍) 25.1%, 함덕해변(조천읍) 20.5%, 표선해변(표선면) 17.6%, 월정-세화해변(구좌읍) 17.4%, 지역마을(저지리, 가시리 등) 15.7% 순으로 뒤를 이었다. 이번 여행에서 이용 예정인 숙박유형으로는 콘도 및 리조트(25.0%)와 5성급 호텔(22.5%)이 1, 2위로 높은 비중을 차지해 저렴한 숙박보다는 위생이 체계적으로 관리돼 있는 고급 숙박시설을 선호하는 것으로 해석된다. 코로나19로 인한 여행계획 변화 유무에 대해서, 숙박시설에 변화가 있다고 답한 비율이 68.6%로 높게 나타나 이러한 결과를 뒷받침하고 있다. 올해 국내여행 여부에 관해서는 95.6%가 '있다'고 답해, 코로나19 장기화로 인해 더 이상 여행을 미루지 않고 이미 국내여행을 즐기고 있는 것으로 나타났다. 제주관광공사 연구조사센터 관계자는 “제주여행에 대한 관심은 앞으로도 지속될 것으로 예상되며, 단순한 실외활동이 아닌 실외 레포츠 활동에 대한 선호 성향이 더욱 높아질 것”이라고 설명했다. 이어 “이번 조사로 가을시즌의 두 번의 연휴기간 동안 관광객 분산을 고려한 방역 및 마케팅 시기 조정, 실외활동 홍보 확대, 관광객 개인 방역 준수 강화 조치 등의 정책적 시사점을 제안할 수 있을 것”이라며, “향후 추적조사를 통해 제주를 방문한 관광객의 변화하는 여행 트렌드를 지속적으로 모니터링해 나갈 예정”이라고 밝혔다. 한편 가을시즌(2020년 9월 ~ 11월) 제주여행 계획 설문조사는 지난 9월 23일부터 9월 27일까지 가을시즌 제주여행을 계획하는 관광객 1000명을 대상으로 온라인설문조사 방식으로 진행됐다. 설문지는 제주방문시기, 제주선택이유, 선호활동 등 35문항으로 구성됐다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>2년 표류 제주 관광객 ‘환경보전기여금’ 도입 재시동! &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 2년 표류 제주 관광객 ‘환경보전기여금’ 도입 재시동! 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 2년 표류 제주 관광객 ‘환경보전기여금’ 도입 재시동! 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.10.05 11:00 댓글 10 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도, 오는 12일 환경보전기여금 도입 도민설명회...8단계 제도개선 추진 제주도는 오는 12일 (가칭)환경보전기여금 제도 도입에 대한 도민 및 이해관계자의 의견을 수렴하기 위해 도민설명회를 대면·비대면 동시 개최한다고 5일 밝혔다.세계적 환경브랜드 가치를 보유한 제주가 급증하는 관광객으로 인한 환경오염 처리비용의 증가로 환경비용 부담 필요성이 지속 제기됨에 따라, (가칭)환경보전기여금 제도 도입을 추진하고 있다.제주도는 10월12일 제주국제컨벤션센터 한라홀A에서 환경보전기여금 관련 전문가 및 도민들이 참석한 가운데, 도민설명회를 개최할 계획이다.이번 토론회는 (가칭)환경보전기여금 제도 도입 추진 배경과 필요성에 대한 주제 발표에 이어 6명의 관련 전문가와 이해관계자의 토론회 순으로 진행된다.홍성화 제주대 관광경영학과 교수가 좌장을 맡았고, 민기 제주대 행정학과 교수가 '환경보전기여금 제도 도입 추진 배경 및 필요성'을 주제로 발표한다.토론자로 김태윤 제주연구원 선임연구위원, 김용하 (사)제주생태문화해설사협회장, 강동훈 제주관광협회 렌터카업분과 위원장, 고수은 제주관광협회 전세버스업분과 위원장, 고경수 제주관광협회 관광호텔업분과 간사 등이 참여한다.코로나19 확산 방지를 위해 토론장 현장 방청객은 사전에 신청 받아 15명 이내로 제한할 예정이다.토론회 현장 방청이 어려운 경우에는 온라인 TV와 유튜브( www.youtube.com/jejusoriTV)를 통해 실시간 방송될 예정으로 유튜브 실시간 댓글을 통해 의견을 제출하면 된다.문경삼 환경보전국장은 “이번 도민 설명회를 통해 그동안 제도 도입에 대한 의견을 공유하고, 추진방향 설정에 중요한 역할을 할 수 있을 것으로 기대한다”고 밝혔다.한편 환경보전기여금은 2018년 용역을 완료해 관광객 1인당 8170원을 징수하는 등 연간 1500억원의 환경기금을 조성할 계획이었다.하지만 기재부의 반대로 제주특별법 제도개선에 포함되지 못하면서 2년 동안 표류했다. 제주도는 제주특별법 8단계 제도개선이나 별도 의원입법을 통해 '제주의 환경 및 자연보전을 위한 부담금 특례'를  신설하거나 '부담금관리기본법 특례를 제주특별법에 신설'하는 방안을 고려하고 있다. 관련기사 환경기여금과 제주관광 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>코로나19에도 제주도내 자연 관광지 꾸준히 인기 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 코로나19에도 제주도내 자연 관광지 꾸준히 인기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 코로나19에도 제주도내 자연 관광지 꾸준히 인기 기자명 오형석 기자 입력 2020.10.14 09:11 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주 추석연휴 이동량 전국서 제주만 증가…이동량 5.8% 늘어 코로나블루 속 제주 자연경관 감상하며 심신치유하는 관광객 증가 비양도 전경 [시사매거진/제주] 코로나19가 일상화되면서 제주의 아름다운 자연경관을 감상하며 심신을 치유하는 관광객이 크게 증가한 것으로 나타났다. 제주관광공사는 SK텔레콤과 통계청의 추석연휴(9월 30일~10월 2일) 이동량 보고서를 분석한 결과 제주를 찾은 방문객은 전국 광역자치단체 가운데 유일하게 증가했다고 13일 밝혔다. 금릉해수욕장 제주관광공사에 따르면 다른 지역 이동통신 가입자들이 제주도를 방문해 특정 행정동에 30분 이상 체류한 관외 인구 이동량이 제주도만 지난해 같은기간에 비해 5.8% 증가했다. 이는 전국 평균이 12.1% 감소하는 등 모든 지역에서 이동량이 감소한 가운데 제주만 이동량 증가세를 보인 것이다. 지역별로는 서울의 관외 인구 이동량은 15% 줄었고 부산은 17.7%, 광주 23%, 전라남도 12.2%, 경상북도 12.2% 감소했다. 또 관광객이 가장 많이 유입될 것으로 예상됐던 강원도 역시 0.9% 줄었다 특히 이번 추석연휴 이동량 분석에서 코로나19 일상화로 제주의 자연관광지가 인기를 끌고 있는 점이 눈에 띈다. 애월읍 해안도로 추석연휴 사흘간 비자림이 있는 제주시 구좌읍의 하루 평균 이동량은 지난해보다 42.1% 늘었고 절물자연휴양림이 속한 제주시 봉개동은 39.9% 증가했다. 또 성산일출봉과 섭지코지 등 제주의 대표적인 자연관광지가 있는 서귀포시 성산읍의 이동량 역시 3% 증가한 것으로 집계됐다. 연휴 3일째인 지난 2일만 놓고 보면 관광객들이 집중적으로 몰리면서 구좌읍(비자림)은 지난해에 비해 80.1%, 봉개동(절물자연휴양림)은 80.3%, 성산읍(성산일출봉·섭지코지)은 22.1% 각각 늘었다. 고선영 제주관광공사 연구조사센터장은 코로나19 일상화로 코로나 우울증이 사회문제화되는 가운데 제주의 아름다운 자연경관을 감상하며 심신을 치유하는 관광객이 크게 늘었다며 야외관광지 중심의 비대면 관광이 인기를 끌고 있다고 설명했다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 키워드 #제주관광공사 제주도여행 청정제주 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광업계 경영위기 극복 특별융자 16일까지 접수  &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도 관광업계 경영위기 극복 특별융자 16일까지 접수 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 제주도 관광업계 경영위기 극복 특별융자 16일까지 접수 기자명 이은지 기자 입력 2020.10.07 11:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 0.37% 적용·2년거치 3년 균등 상환 조건 제주웰컴센터 내 특별지원센터서 신청 제주도는 오는 16일까지 제주웰컴센터 내 설치한 관광진흥기금특별지원센터에서 특별융자 접수를 받고 있다. 6일 제주도에 따르면 하반기 제주관광진흥기금 특별융자 접수 결과, 총 91건(89억)이 신청됐다. 업종별로 보면 △여행업 46건·23억원 △관광숙박업 9건·19억원 △일반숙박업 11건·9억원 △전세버스업 10건·12억원 △관광식당업 3건·3억원 △기타 12건·23억원 등으로 집계됐다. 특히 상반기 융자추천 후 대출 실행을 보류했다가 코로나19 장기화로 자금난이 이어지면서 하반기에 다시 신청한 사례가 48건(46억원)으로, 전체 52%를 차지했다. 특별융자 지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다. 융자자 부담 금리는 0.37%(4분기 기준)이며 융자 기간은 2년 거치 3년 균등 상환 조건이다. 지난 5월 관광진흥조례 개정에 따라 관광사업의 종류에 관광지원서비스업이 추가됐다. 해당업종 운영자는 관할 행정시에서 지정증을 받아 융자금을 신청하면 된다. 자세한 사항은 제주관광진흥기금 특별지원센터(740-6095~7, 710-3344)로 문의하면 된다. 이은지 기자 이은지 기자 ez1707@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>귀경 고속도로 정체, 제주도 등 관광지는 북적 인천14.4℃ 금산16.0℃ 서청주(예)15.4℃ 울산17.5℃ 서귀포20.1℃ 완도18.6℃ 고흥19.2℃ 태백14.9℃ 백령도14.5℃ 고산16.7℃ 함양군19.6℃ 남원16.9℃ 장수15.9℃ 충주13.8℃ 해남17.5℃ 파주15.8℃ 안동19.7℃ 양평15.7℃ 보은15.6℃ 구미17.6℃ 영천17.5℃ 홍천15.0℃ 보령17.0℃ 영광군17.0℃ 홍성16.6℃ 순천17.6℃ 이천16.5℃ 청주16.1℃ 울릉도15.7℃ 거제18.7℃ 북강릉17.1℃ 거창18.5℃ 동두천14.9℃ 남해19.0℃ 속초18.2℃ 김해시20.0℃ 경주시18.4℃ 추풍령14.7℃ 창원18.9℃ 제천13.8℃ 정읍16.4℃ 진주19.7℃ 대구17.7℃ 광주18.2℃ 의성16.6℃ 진도군17.4℃ 영덕18.2℃ 합천20.0℃ 문경16.1℃ 순창군17.2℃ 청송군16.4℃ 영주14.9℃ 정선군14.8℃ 산청18.9℃ 제주19.8℃ 서산16.3℃ 철원13.4℃ 고창군16.9℃ 세종16.7℃ 통영20.6℃ 고창17.1℃ 울진16.3℃ 여수19.0℃ 춘천15.7℃ 부여18.1℃ 부산20.0℃ 군산17.8℃ 전주17.2℃ 부안17.2℃ 북창원19.3℃ 대관령13.1℃ 동해18.3℃ 수원15.9℃ 임실16.3℃ 포항17.6℃ 대전17.7℃ 의령군20.9℃ 강화15.9℃ 서울15.5℃ 성산18.0℃ 천안16.1℃ 보성군19.4℃ 장흥18.6℃ 봉화14.3℃ 양산시21.2℃ 상주17.6℃ 인제14.4℃ 밀양18.9℃ 영월14.2℃ 목포15.9℃ 강릉20.5℃ 원주13.6℃ 북춘천14.3℃ 흑산도15.9℃ 광양시21.0℃ 강진군18.9℃ 2022.10.11 (화) 즐겨찾기 모바일버전 전체기사 LOGIN 회원가입 전체기사 생활안전 생활안전 건강·환경 카드뉴스 소방·교통 식품·보건 전기·가전 위해정보 산업안전 산업안전 노동환경 건축설비 해양선박 기후.환경 전자IT 신기술.신제품 안전정책 최신정책 월간 법률의안 일반 종합뉴스 사회 정치 경제 포토뉴스 칼럼 해외 연예·스포츠 일반 날씨 기타 오늘의 사건.사고 안전TV 게시판 (국민안전) 기자 채용 자유게시판 MENU 검색 HOME &gt; 생활안전 &gt; 소방·교통 귀경 고속도로 정체, 제주도 등 관광지는 북적 김혜연 기자 / 기사승인 : 2020-10-02 15:42:56 한국도로공사 고속도로 각 도시간 소요시간 예측(사진, 한국도로공사) [매일안전신문] 추석 연휴 사흘째 2일 귀경길에 오른 귀성객들의 차량으로 고속도로 정체가 늘고 있다. 주요 국립공원, 강원도, 제주도 등 관광지에도 인파가 몰리고 있다. 한국도로공사 예측시스템에 따르면 목포에서 서서울까지는 4시간 40분이 소요되며 서서울에서 목표까지는 3시간 30분이 걸린다. 광주에서 서울까지는 3시간 50분, 서울에서 광주까지는 3시간 20분이 소요될 것으로 예상된다. 영동선 여주 분기점 88km 정체 (사진, 한국도로공사 CCTV) 부산에서 서울까지 약 5시간 10분 소요되며 서울에서 부산까지는 4시간 3분이 걸린다. 특히 대전에서 서울까지는 2시간 20분이 걸리며 서울에서 대전까지는 1시간 30분이 소요된다. 한국 도로공사 예측 각 고속도로 실시간 정체 지도(사진, 한국도로공사) 유명 관광지인 강원도 동해안은 인파로 붐볐다. 강릉 경포대에도 평소와 달리 많은 사람이 여유로운 시간을 보내고 있다. 국립공원인 설악산과 오대산에도 각 1만명이 이상이 찾았다. 영동선 강릉방향 167km지점 승용차 추돌사고(사진, 한국도로교통공사 CCTV) 제주 국제공항은 제주를 찾은 관광객들로 북적였다. 제주도 협회에 따르면 추석 연휴가 시작된 지난달 26일부터 추석 당일인 지난 1일까지 6일간 제주를 찾은 사람은 20만2천여명으로 집계했다. 협회는 4일까지 추석 연휴 기간 총 30만명의 관광객이 제주를 찾을 것으로 예상했다. 고속도로 휴게소와 일부 행락지의 다중이용시설은 한산한 모습을 보였다. 고속도로에 귀경 차량이 모이고 있지만 휴게소 매출은 전년도에 비해 60%가량 감소했다고 한다. 휴게소를 이용하는 사람은 화장실 이용객이 대부분 인 것으로 나타났다. [저작권자ⓒ 매일안전신문. 무단전재-재배포 금지] 김혜연 기자 기자의 인기기사 좋아요 공유하기 페이스북 트위터 카카오톡 라인 카카오스토리 밴드 네이버 https://www.idsn.co.kr/news/view/179523600371281 URL복사 URL주소가 복사 되었습니다. 뉴스댓글 &gt; 댓글 0 댓글쓰기 이 름 비밀번호 등록 - 띄어 쓰기를 포함하여 250자 이내로 써주세요.- 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 최신기사 국립자연휴양림, 운영 혁신 대국민 공모 실시베이식스몰, 제주 호텔 숙박권 경품 이벤트 실시...10월 한 달간 진행교사‧미성년자 불법촬영한 학교 시설관리직원도미노피자, 한국산업의 고객 만족도 8년 연속 1위달성“러시아 남성 8명, 징집 피해 요트 타고 한국 도착”행복청, 시민과 함께하는 한글사랑 행사 추진 주요기사 19년째 10만원인 직장인 식대 비과세 한도 오르려나...민주당 원내대표 “20만원 인상...올 1월로 소급적용”안정적인 흐름, 이더리움과 비트코인..데드 캣 바운스 가능성..솔라나.웨이브,위믹스 횡보 보여..긴 호흡으로 시장 살펴야..미 지수선물 하락세..비트코인,이더리움,솔라나 박스권..웨이브 큰 조정..웨이브 폭등세 속 이더리움,비트코인 안정적 흐름 보여..미 지수선물 강세..솔라나,샌드박스 상승..나스닥 상승..FOMC 지켜볼 필요..비트코인,이더리움 조정 지속되고 솔라나,웨이브,위믹스 횡보세..FOMC까지 관망 작용할 듯..비트코인 2만2천달러 위협..솔라나,샌드박스 상승..웨이브,위믹스 횡보.. HEADLINE 정부, 로드킬 저감에 나선다...유도 울타리 등 저감 시설물 설치 [단독]안전 위협하는 광주외곽순환도로의 기형적 구조...마을 고립시킨 노선 주민 동의 과정에 의구심도 일산화탄소 중독 원인과 대비책은 ... 전북 무주 일가족 5명 사망, 1명 중태 PHOTO NEWS 110년간 금단의 땅으로 베일 쌓인 ‘송현동 부지’, 시민 품에 돌아온다 신당역 스토킹 살해범 전주환의 눈빛...경찰 얼굴 공개한 채 검찰로 송치 [현장포토]레이싱모델 박지은, KW서스펜션서 애교넘치는 하트 포즈 취해.. 많이 본 기사 1'환승연애2' 예고에 난리난 온라인커뮤니티...설마 규민X해은X현규 삼각관계인가2카카오톡 모바일·PC버전 모두 메시지 전송 오류....로그인도 안 돼 이용자들 분통3[7일 급등 코인] 스테픈 223%↑… 팬케이크스왑, 코인98 30~60% 상승4'환승연애2' 성해은, 박나언 X 정현규에 대한 마음은...시청자들 '탈규민 하려나'5한국자산관리공사, 1,668억 원 규모 압류 재산 공매 매체소개서 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 저작권보호정책 서울특별시 서초구 강남대로 309 (코리아비지니스센타) 1610호 | 대표전화 : 02-6489-8583 | 팩스 : 02-6442-8583 제호 : 매일안전신문 | 등록번호 : 서울, 아04488 | 등록일 : 2017-04-21 | 발행인 : 이송규 | 편집인 : 이송규 | 청소년보호책임자 : 강수진 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 이송규 | 02-6489-8583 | peoplesafe@peoplesafe.kr 본 콘텐츠의 저작권은 매일안전신문 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 매일안전신문 All rights reserved. 제보메일 : peoplesafe@peoplesafe.kr 검색어 입력폼 Category 생활안전 전체생활안전 건강·환경 카드뉴스 소방·교통 식품·보건 전기·가전 위해정보 산업안전 전체산업안전 노동환경 건축설비 해양선박 기후.환경 전자IT 신기술.신제품 안전정책 전체최신정책 월간 법률의안 일반 종합뉴스 전체사회 정치 경제 포토뉴스 칼럼 해외 연예·스포츠 일반 날씨 기타 오늘의 사건.사고 안전TV</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 9월의 '베스트 관광인' 일출랜드 송민 부장 선정 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 9월의 '베스트 관광인' 일출랜드 송민 부장 선정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도관광협회, 9월의 '베스트 관광인' 일출랜드 송민 부장 선정 기자명 오형석 기자 입력 2020.10.12 08:07 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회 이달의 베스트 관광인에 선정된 (주)삼영관광 일출랜드 송민 부장(사진 오른쪽) [시사매거진/제주] 제주특별자치도관광협회(회장 부동석)는 이달의 베스트 관광인에 ㈜삼영관광 일출랜드 송민 부장을 선정하고 기념패와 친절 키움 꽃 화분을 전달했다고 11일 밝혔다. 이번 9월의 베스트 관광인으로 선정된 송민 부장은 온·오프라인 마케팅을 담당하면서 제주 관광지 홍보 활성화에 힘쓰고 있으며, 외부 업체들과도 상생 협력 관계를 유지하기 위해 노력하고 있다. 제주특별자치도 관광협회는 앞으로도 제주 관광 친절 서비스에 모범이 되는 베스트 관광인을 매월 선정해 수범 사례를 공유함으로써 ‘관광으로 만들어 가는 희망찬 제주’ 만들기에 앞장서 나가기로 했다. 한편 올해로 개장 18주년을 맞는 일출랜드(대표이사 고승철)는 천연 용암동굴인 미천굴과 함께 민속촌, 아열대 정원, 제주 야생화·현무암 분재 정원, 제주 조각의 거리 등을 갖추고 있다. 특히 매년 4월28일 개장 기념일을 맞아 서귀포시 성산읍 지역 내 마을발전기금을 전달하면서 지역과 더불어 사는 사회 분위기 조성에도 앞장서고 있다. 오형석 기자 yonsei6862@gmail.com 새시대 새언론 시사매거진 키워드 #제주도관광협회 오형석 기자 yonsei6862@gmail.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'관광객 10만 명 또 몰려온다'…제주도 '방역 비상' 본문 바로가기 '관광객 10만 명 또 몰려온다'…제주도 '방역 비상' 매일경제 매일경제TV 매경이코노미 매경LUXMEN CITYLIFE GFW M-PRINT 예능 교양 드라마 편성표 온에어 통합검색 닫기 뉴스 다시보기 이슈플러스 연예 포토 전체 정치 사회 경제 국제 문화 스포츠 연예 생활/건강 엠픽 데이터M 인기척 다듬은 우리말 뉴스 &gt; 사회 '관광객 10만 명 또 몰려온다'…제주도 '방역 비상' 기사입력 2020-10-08 19:19 l 최종수정 2020-10-08 19:41 VOD 시청 안내 어도비 플래시 플레이어 서비스 종료에 따라현재 브라우저 버전에서는 서비스가 원할하지 않습니다.아래 버튼을 클릭하셔서 브라우저 업그레이드(설치) 해주시기 바랍니다. 브라우저 업그레이드 및 설치 【 앵커멘트 】 사흘간의 한글날 연휴 제주를 찾는 관광객은 10만 명 정도, 오늘부터 공항이 붐비기 시작했다고 하는데, 사람이 많이 몰리는 만큼 코로나19 방역 당국도 바짝 긴장하고 있습니다. KCTV 제주방송 김수연 기자입니다. 【 기자 】 한글날 연휴를 앞둔 제주국제공항. 코로나 상황이 무색할 만큼 관광객들이 북적입니다. ▶ 인터뷰 : 안호영 / 제주 관광객 - "코로나 때문에 좀 걱정은 되는데 그래도 연휴여서 (가족들과) 같이 좋은 시간 보내려고 조금 무리했지만 왔어요." 이번 연휴기간 3일 동안 제주를 찾을 것으로 예상되는 입도객은 9만 5천여 명. 하루 평균 3만 1천여 명에 달합니다. 추석 연휴와 비슷한 수준인데 귀성객을 제외한 순수 관광객으로만 따지면 한글날 연휴 관광객이 더 많을 것으로 보입니다. 올해는 특히 코로나 사태로 가을 산행이 인기를 끌면서 산행객들의 발길이 끊이지 않고 있습니다. 울긋불긋 단풍이 물들기 시작한 한라산에는 벌써부터 사람들이 몰려들면서 코로나 이전 수준을 회복했을 정돕니다. ▶ 인터뷰 : 안영회 / 제주 관광객 - "산이 좋고 단풍이 좋아서 저는 한번 왔었는데 좋아서 언니랑 같이 또 한번 온 거예요." ▶ 인터뷰 : 전유정 / 제주 관광객 - "아무래도 코로나 때문에 걱정되니까 조금 이른 단풍 산행을 한 거죠." 보름째 코로나19 확진자가 없이 잠잠한 제주는 또다시 밀려오는 관광객들로 방역에 비상이 걸렸습니다. 추석연휴기간 잠복기도 끝나지 않은 상황에 이번 연휴를 맞게 되면서 이후 2주간의 잠복기 동안 마음을 놓을 수가 없게 됐습니다. 이에 따라오는 11일까지 발열 의심 입도객들에 대해 의무적으로 코로나19 진단검사를 하는 특별입도절차를 유지하고 고위험시설에 대한 집중 방역관리도 실시한다는 방침입니다. KCTV 뉴스 김수연입니다. Copyright ⓒ MBN(매일방송) 무단전재 및 재배포 금지 화제 뉴스 '우울증·생활고에'…경남에서 초등생 자녀 살해 후 극단 선택 잇따라 김재원 "윤 대통령, 한동훈 아주 애정어린 눈으로 지켜보지 않을까" 정진석 "조선, 안에서 썩어 문드러져"…민주 "식민사관 언어" 직장인 올해 남은 '대체 휴일'은? 신혜성, 음주운전 인정…"본인 차 아닌지 몰랐다" '우영우 팽나무', 천연기념물 지정…명예 이장에 배우 정규수 위촉 인기영상 시선집중 스타 핫뉴스 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요. 금주의 프로그램 화제영상 더보기 이시각 BEST 뉴스 동영상 주요뉴스 더보기 MBN 인기포토 아이프레임 미지원 장치에서는 내용을 확인할 수 없습니다. SNS 관심기사 MBN 소개 제휴 안내 TV 광고 이용약관 개인정보처리방침 기타운영정책 고객센터 뉴스제보 사이트맵 Family Site Family Site 매일경제 매경닷컴 매경이코노미 시티라이프 M-print 매일경제TV MBN 미디어렙 매일방송 대표이사 : 이동원 서울시 중구 퇴계로 190 (주)매일방송 오시는길 대표전화 02-2000-3114 매경닷컴 대표이사 : 김정욱 인터넷신문등록번호 서울 아01043 사업자 등록번호 201-81-25980 MBN의 모든 기사 및 영상(콘텐츠)은 저작권법의 보호를 받으며, 무단 전재, 복사, 배포를 금합니다. Copyright © MBN 매일방송 All rights reserved.</t>
+  </si>
+  <si>
+    <t>"울릉도가 제주도만큼 매력적인 관광지가 되어야 합니다" 한국일보 "울릉도가 제주도만큼 매력적인 관광지가 되어야 합니다" 이전기사 검색 읽기모드 흰색 배경 회색 배경 검은색 배경 가나다라 가나다라 가나다라 가나다라 가나다라 인쇄 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 닫기 "울릉도가 제주도만큼 매력적인 관광지가 되어야 합니다" 입력 2020.10.11 22:51 좋아요 0 0 0 댓글달기 0 독도사랑한국어말하기대회 최우수상, 우즈베키스탄 출신 유학생 더스턴과 우미드존 우즈베키스탄 출신 유학생 더스턴(왼쪽)과 우미드존이 영남대학교 중앙도서관 건물 앞에서 포즈를 취했다. 더스턴은 지난해 울릉도와 독도를 방문했다. "울릉도에 수영장이 생겼으면 좋겠어요."우즈베키스탄 출신 유학생인 더스턴(26, Egamberdiev Dostonbek Rayimjon ugli)과 우미드존(26, Musurmonkulov Umidjon Shavkatugli)은 지난 8월 경상북도 출연기관인 독도재단과 대구대학교가 공동 주최한 독도사랑 한국어 말하기 대회에 영남대학교 대표로 출전해 최우수상을 받았다. 영남대를 비롯해 서울대, 전주대 등 6개 대학의 외국인 유학생 23명과 경쟁해 거둔 성과였다. 한국생활 6년차이자 경영학도인 두 사람은 독도에 꾸준히 관심을 가져왔다. 3년 전 수업 시간에 독도에 대해 처음 들었고, 지난해에는 울릉도와 독도를 다녀왔다. 두 사람이 독도를 직접 밟아보고 대회를 계기로 독도 역사를 깊이 들여다본 후 내린 결론은 "독도가 세계인들에게 가까워지려면 울릉도가 제주도 만큼이나 매력적인 곳이 되어야 한다"는 것이다. "특히 젊은 사람들에게 울릉도가 제주도보다 더 가보고 싶은 곳이 되면 독도는 걱정할 필요도 없을 것"이라고 입을 모았다.두 사람은 울릉도에 볼거리와 즐길거리가 부족한 것이 너무 아쉽다고 했다. 우미드존은 "우즈벡은 바다가 없어서 바다를 보면 바닷물에 몸을 담그거나 바닷속 구경을 하고 싶어지는데 그게 안 돼서 아쉬웠다"면서 "제주도만큼 즐길거리가 많아졌으면 좋겠다"고 말했다. 이들은 취재진에게 울릉공항 건설이 진행 중이라는 이야기를 듣고 "너무 좋은 일이다"면서 엄지를 치켜세웠다. 더스턴은 "울릉도에 갈 때 배멀미 때문에 너무 힘들었다"고 고백했다.유학생을 대상으로 독도사랑 말하기 대회를 개최한 것에 대해서는 최고의 선택이라고 입을 모았다. 더스턴은 "지난해에 독도에 갔을 때는 역사를 몰라서 큰 감흥은 없었다. 그러나 대회를 준비하면서 한 달 남짓 역사를 깊게 들여다보고 나니까 독도가 달라 보이더라"면서 "대회 개최는 독도수호에 큰 영향력을 발휘할 것"이라고 말했다. 우미드존은 "우즈벡도 키르기스스탄과 영토분쟁을 겪고 있다. 그래서 독도에 대한 한국인들의 마음을 충분히 이해한다"고 덧붙였다.이들의 수상 소식은 우즈벡 현지 방송에도 소개됐다. 두 사람은 한 목소리로 "우즈벡 사람들이 방송을 통해 독도의 존재를 알게 되었다. 이렇게 계속 독도를 홍보하면 많은 세계인들이 독도를 알 수 있게 될 것이다"면서 "외국인을 상대로 한 독도 관련 대회가 더 많이 생겨났으면 좋겠다"고 말했다.이혁진ㆍ정유미 객원기자 0 0 공유 카카오 페이스북 트위터 이메일 URL 기사 URL이 복사되었습니다. 기사저장 기사가 저장 되었습니다. 기사저장이 취소 되었습니다. 댓글 쓰기 세상을 보는 균형, 한국일보Copyright ⓒ Hankookilbo 신문 구독신청 당신이 관심 있을만한 이슈 지역 많이 본 뉴스 라이브 이슈 댓글0 댓글을 입력해 주세요. 등록 0 / 250 등록 좋아요순 최신순 새로고침 댓글 신고 닫기 신고 사유를 선택해주세요. 불쾌감 조성 (비방/욕설/인신공격) 불법 광고 또는 스팸 음란성 게시글 사생활 침해 또는 명예훼손 취소 확인 삭제 확인 작성하신 글을 삭제하시겠습니까? 아니오 네 한국일보에 로그인하면 다양한 편의 기능을 제공 받을 수 있습니다. 읽던 기사 이어보기 댓글 반응 및 추천기사 제공 연재 기사 정기 구독 기능 로그인 페이스북 로그인 카카오 로그인 아이디 또는 비밀번호를 잘못 입력했습니다.(연속 1회) 아래 이미지를 보이는 대로 입력해주세요. 스피커로 들리는 내용을 숫자로 입력해 주세요. 새로고침 음성으로 듣기 새로고침 이미지로 보기 로그인 자동 로그인 회원가입 아이디 찾기 비밀번호 찾기 중복 가입 요청 이미 가입된 회원입니다. 확인 자동 로그인 공공장소에서 사용하는 컴퓨터에서는 자동 로그인 기능 사용에 유의 바랍니다. 확인 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 아이디 찾기 손흥민/01012345678 으로 찾은 아이디 입니다. user@hankookilbo.com 로그인 비밀번호 찾기 인증방법 선택 등록된 이메일로 인증하기 휴대폰으로 인증하기 인증메일 발송 휴대폰 인증 아이디를 잊으셨나요? 계정 정보 없음 입력하신 사용자가 존재하지 않습니다. 확인 인증메일 발송 인증메일이 발송되었습니다. 해당 메일 계정 확인바랍니다. (유효시간:15분) 확인 아이디 입력 요청 비밀번호를 찾으실 아이디를 입력해주세요. 확인 비밀번호 재설정 비밀번호가 일치합니다. 확인 회원 정보 수정 비밀번호가 변경되었습니다. 확인 재시도 요청 유효 시간이 종료되었습니다. 다시 인증메일을 발송해주세요. 확인 로그인 5회 연속 실패 보안을 위해 비밀번호와 자동입력 방지문자를 함께 입력 바랍니다. 네 아이디 찾기 휴대폰 인증 비밀번호를 잊으셨나요? 약관동의 전체동의 (선택포함) 한국일보 이용약관 (필수) 제 1 조 (목적) 이 이용약관 (이하 ‘약관’이라 합니다)은 ㈜한국일보사 (이하 ‘회사’라 합니다)가 제공하는 한국일보닷컴(hankookilbo.com) 관련 제반 서비스의 이용과 관련하여 회사와 회원 간 권리와 의무 및 책임, 기타 필요한 사항을 규정함을 목적으로 합니다. 제 2 조 (용어의 정의) 1. 이 약관에서 사용하는 용어의 정의는 다음과 같습니다. ① ‘회원’ 이라 함은 이 약관에 동의하고 이용자 아이디(ID)와 비밀번호를 부여 받아 이 회사가 제공하는 서비스를 이용하는 이용자를 말합니다. ② ‘이용계약’ 이라 함은 이 약관을 포함하여 서비스 이용과 관련하여 회사와 회원간에 체결하는 모든 계약을 말합니다. ③ ‘가입’ 이라 함은 회원이 되고자 하는 이용자가 이 약관에 동의하고 회사의 서비스 신청 양식에 필요 정보를 기입하고, 서비스 이용 계약을 신청, 회사의 승인을 얻는 것을 말합니다. ④ ‘탈퇴’라 함은 회원이 이용계약을 해약하는 것을 말합니다. ⑤ ‘이용자 아이디(ID)’라 함은 회원의 식별 및 서비스 이용을 위하여 회원이 정하고 회사가 승인한 문자와 숫자의 조합을 말합니다. ⑥ ‘비밀번호’라 함은 이용자 아이디(ID)로 식별되는 회원의 본인 여부를 검증하기 위하여 회원 자신이 정하여 등록한 문자와 숫자의 조합을 말합니다. ⑦ ‘단말기’라 함은 서비스에 접속하기 위해 회원이 이용하는 개인용 컴퓨터, PDA, 휴대전화, IPTV 등의 전산장치를 말합니다. ⑧ ‘게시물’ 이라 함은 회원이 서비스 이용을 하면서 게시한 글, 사진, 동영상 및 각종 파일과 링크 등을 말합니다. 2. 이 약관에서 사용하는 용어 중 제1항에서 정하지 아니한 것은 관계 법령 및 서비스별 안내에서 정하는 바에 따르며, 그 외에는 일반 관례에 따릅니다. 제 3 조 (약관의 게시 및 개정) 1. 회사는 이 약관을 회원들이 쉽게 알 수 있도록 한국일보닷컴 초기화면에 게시합니다. 2. 회사는 ‘약관의규제에관한법률’ ‘정보통신망이용촉진및정보보호등에관한법률(이하 ‘정보통신망법’) 등 관련 법을 위배하지 않는 범위 안에서 이용 약관을 개정할 수 있습니다. 3. 회사가 약관을 개정할 경우에는 적용일자 및 개정사유를 명시하여 현행약관과 함께 제1항의 방식에 따라 개정약관의 적용일자 30일 전부터 적용일자 전일까지 공지합니다. 다만 회원에게 불리한 개정의 경우에는 공지 외에도 전자우편, 전자쪽지, 로그인 시 동의 창 등 전자적 수단을 통해 따로 통지합니다. 4. 회원이 약관 개정에 동의하지 않을 경우 당 회원과 이용계약을 해지할 수 있습니다. 5. 회원이 개정된 약관의 효력이 발생한지 15일 후에도 거부 의사를 표명하지 않은 채 계속 서비스를 이용할 경우 개정된 약관에 동의한 것으로 간주합니다. 제 4 조 (약관 외 준칙) 1. 회사는 필요한 경우 서비스별로 개별약관 또는 운영원칙을 둘 수 있으며, 이 약관과 운영원칙의 내용이 상충되는 경우에는 서비스별 개별약관과 운영원칙을 우선하여 적용합니다. 2. 이 약관에 명시되어 있지 않은 사항은 관련 법령 또는 상관례에 따릅니다. 제 5 조 (이용계약의 성립) 1. 이용계약은 회원이 되고자 하는 자(이하 ‘가입신청자)가 약관 내용에 ‘동의’를 한 후 회원가입 신청을 하고 회사가 이러한 신청을 승낙함으로써 체결됩니다. 2. 회사는 가입신청자의 신청에 대해 서비스 이용을 승낙함을 원칙으로 합니다. 다만 회사는 다음 각 호에 해당하는 신청에 대하여는 승낙을 하지 않거나 사후에 이용계약을 해지할 수 있습니다. ① 가입신청자가 이 약관에 의하여 이전에 회원자격을 상실한 적이 있는 경우. 다만 ‘회사’의 재가입 승낙을 얻은 경우는 예외로 함 ② 타인의 명의, 이메일 주소, 휴대전화 번호 등 개인정보를 도용하여 가입한 경우 ③ 허위 정보를 기재하거나 회사가 필수적으로 요구하는 사항을 기재하지 않은 경우 ④ 이용자 귀책사유로 인하여 승인이 불가능하거나 기타 규정한 제반 사항을 위반하며 신청하는 경우 ⑤ 관계법령에 위배되거나 사회의 안녕질서 혹은 미풍양속을 저해할 수 있는 목적으로 신청한 경우 ⑥ 영리목적 기타 부정한 용도로 본 서비스를 이용하고자 하는 경우 3. 회사는 제2항에 따라 회원가입신청의 승낙을 하지 않거나 유보한 경우 이를 가입신청자에게 알려야 합니다. 4. 회사는 서비스 이용신청이 다음 각 호에 해당하는 경우에는 그 신청에 대하여 승낙 제한사유가 해소될 때까지 승낙을 유보할 수 있습니다. ① 회사의 서비스 관련 설비의 여유가 없는 경우 ② 회사의 기술상 또는 업무상 문제가 있는 경우 ③ 기타 이용승낙이 곤란한 경우 5. 회사는 이용신청 고객이 관계법령에서 규정하는 미성년자일 경우에 서비스별 안내에서 정하는 바에 따라 승낙을 보류할 수 있습니다. 6. 회사는 회원을 대상으로 서비스별, 이용시간, 이용횟수 등을 통해 등급을 구분하여 이용에 차등을 둘 수 있습니다. 제 6 조 (개인정보 보호 의무 및 사용) 1. 회사는 ‘정보통신망법’ 등 관계 법령이 정하는 바에 따라 회원의 개인정보를 보호하기 위해 최선을 다합니다. 개인정보의 보호와 사용에 대해서는 관련 법령 및 회사의 개인정보취급방침이 적용됩니다. 다만 회사의 공식사이트 이외의 링크된 사이트에서는 회사의 개인정보취급방침이 적용되지 않습니다. 2. 회원은 이용자 아이디(ID) 및 비밀번호 등 개인정보가 타인에게 노출되지 않도록 철저히 관리해야 하며, 회사는 회원의 귀책사유로 인해 노출된 정보에 대해서는 책임을 지지 않습니다. 3. 회원은 아이디 및 비밀번호가 도용되거나 제3자가 사용하고 있음을 인지한 경우 이를 즉시 회사에 통지하고 회사의 안내에 따라야 합니다. 4. 회사는 다음과 같은 경우에 법이 허용하는 범위 내에서 회원의 개인정보를 제3자에게 제공할 수 있습니다. ① 수사기관이나 기타 정부기관으로부터 적법한 절차에 따라 정보제공을 요청 받은 경우 ② 회원의 법령 또는 약관의 위반을 포함하여 부정행위 확인 등의 정보보호 업무를 위해 필요한 경우 ③ 기타 법률에 의해 요구되는 경우 5. 회사는 회원에게 보다 다양한 정보 서비스 및 관련 혜택을 제공할 목적으로 회원의 정보를 이용할 수 있습니다. 또한, 회사는 회원정보를 제휴사에게 제공할 경우 제휴사, 목적, 이용될 회원정보 내용 등을 사전에 공지하고 회원 동의를 받아야 합니다. 6. 회사가 타사와 합병, 분할 시 회원의 정보는 공유될 수 있습니다. 7. 회사는 서비스 제공시 회원의 단말기로 쿠키를 전송할 수 있습니다. 이 경우 회원은 사용하는 단말기의 브라우저가 쿠키의 수신을 거부하거나 쿠키의 수신에 대하여 경고하도록 설정을 변경할 수 있습니다. 8. 회원이 이용신청서에 회원정보를 기재하고 본 약관에 동의 이용신청을 하는 것은 기재된 회원정보를 수집, 이용 및 제공하는 것에 동의하는 것으로 간주합니다. 9. 회사는 관련 법령과 이용 약관, 개인정보보호방침이 정하는 한계 내에서 회원 전체 또는 일부 정보를 업무와 관련된 통계자료로 사용할 수 있습니다. 제 7 조 (회사의 의무) 1. 회사는 관련법과 이 약관이 금지하거나 미풍양속에 반하는 행위를 하지 않으며, 계속적이고 안정적으로 서비스를 제공하기 위하여 최선을 다하여 노력합니다. 2. 회사는 회원이 안전하게 서비스를 이용할 수 있도록 개인정보 보호를 위해 보안시스템을 갖추어야 하며 개인정보취급방침을 공시하고 준수합니다. 3. 회사는 서비스 이용과 관련하여 발생하는 이용자의 불만 또는 피해 구제 요청을 적절하게 처리할 수 있도록 필요한 인력 및 시스템을 구비합니다. 4. 회사는 서비스 이용과 관련하여 회원으로부터 제기된 의견이나 불만이 정당하다고 인정할 경우에는 이를 처리하여야 합니다. 제 8 조 (회원의 의무) 1. 회원은 다음 행위를 하여서는 안 됩니다. ① 신청 또는 변경 시 허위 내용의 등록 ② 타인의 정보 도용 ③ 회사가 게시한 정보의 변경 ④ 회사가 정한 정보 이외의 정보(컴퓨터 프로그램 등)를 송신 또는 게시 ⑤ 회사와 기타 제 3자의 저작권 등 지적재산권에 대한 침해 ⑥ 회사 및 기타 제3자의 명예를 손상시키거나 업무를 방해하는 행위 ⑦ 외설 또는 폭력적인 메시지, 화상, 음성 등의 정보를 서비스에 공개 또는 게시하는 행위 ⑧ 회사의 동의 없이 영리를 목적으로 서비스를 사용하는 행위 ⑨ 기타 불법적이거나 부당한 행위 2. 회원은 관계 법령과 이 약관의 규정, 회사가 통지하는 사항 등을 준수하여야 하며, 기타 회사의 업무에 방해되는 행위를 해서는 안 됩니다. 3. 회원은 이용 신청시 기재한 주소, 연락처, 전자우편주소 등 개인정보와 이용계약 사항의 변경이 있을 경우 즉시 수정하여야 하며, 미변경으로 인해 발생하는 문제에 대해서 회사는 책임지지 않습니다. 4. 회원은 회사의 명시적 동의가 없는 한 서비스를 이용한 영업활동을 할 수 없으며, 그 영업활동의 결과에 대해 회사는 책임을 지지 않습니다. 또한 회원은 이와 같이 영업활동으로 회사가 손해를 입은 경우 회원은 회사에 대해 손해배상 의무를 지며, 회사는 해당 회원에 대해 서비스 이용제한 및 적절한 절차를 거쳐 손해배상 등을 청구할 수 있습니다. 제 9 조 (이용자 아이디 부여 및 변경) 1. 회사는 회원에 대하여 약관에 정하는 바에 따라 이용자 아이디(ID)를 부여합니다. 2. 이용자 아이디(ID)는 원칙적으로 변경이 불가하며 부득이한 사유로 인하여 변경하고자 하는 경우에는 해당 아이디(ID)를 해지하고 재가입 해야 합니다. 3. 이용자 아이디(ID)는 회원 본인의 동의 하에 회사 또는 자회사, 제휴사에서 운영하는 사이트의 회원 아이디(ID)와 연결될 수 있습니다. 4. 이용자 아이디(ID)는 다음 각호에 해당하는 경우에는 회원의 요청 또는 회사의 직권으로 변경 또는 이용을 정지할 수 있습니다. ① 이용자 아이디(ID)가 전화번호 또는 주민등록번호로 등록되어 사생활 침해가 우려되는 경우 ② 타인에게 혐오감을 주거나 미풍양속에 어긋나는 경우 ③ 회사, 회사의 서비스 또는 서비스 운영자 등의 명칭과 동일하거나 오인 등의 우려가 있는 경우 ④ 기타 합리적인 사유가 있는 경우 5. 이용자 아이디(ID) 및 비밀번호 관리책임은 회원에게 있습니다. 이를 소홀히 관리하여 발생하는 서비스 이용상의 손해 또는 제3자에 의한 부정이용 등에 대한 책임은 회원에게 있으며 회사는 그에 대한 책임을 지지 않습니다. 6. 이용자 아이디(ID) 및 비밀번호를 도난 당하거나 제3자가 사용하고 있음을 인지한 경우에는 바로 회사에 통보하고 안내에 있는 경우에는 그에 따라야 하며, 이러한 통지를 하지 아니하거나 회사의 조치에 응하지 아니하여 발생한 모든 불이익에 대한 책임은 회원에게 있습니다. 7. 기타회원 개인정보 관리 및 변경 등에 관한 사항은 서비스별 안내에 정하는 바에 의합니다. 제 10 조 (서비스 이용) 1. 서비스는 회사의 업무상 또는 기술상 특별한 지장이 없는 한 연중무휴, 1일 24시간 운영을 원칙으로 합니다. 단 천재지변 및 비상사태를 비롯한 부득이한 상황이 발생한 경우에는 서비스를 일시 중단할 수 있습니다. 2. 회사는 컴퓨터 등 정보통신설비의 보수점검, 교체 및 고장, 통신두절 또는 운영상 상당한 이유가 있는 경우 서비스의 제공을 일시적으로 중단할 수 있습니다. 이 경우 회사는 회원들에 사이트를 통해 사전 공지합니다. 다만 긴급한 시스템 점검, 증설 및 교체, 설비의 장애, 서비스 이용자 폭주, 국가비상사태, 정전 등 부득이한 사유가 발생한 경우에는 사전 예고 없이 일시적으로 서비스의 전부 또는 일부를 중단할 수 있습니다. 3. 회사는 서비스 개편 등 서비스 운영 상 필요한 경우 회원에게 사전 예고 후 서비스의 전부 또는 일부의 제공을 중단할 수 있습니다. 제 11 조 (회원 게시물의 관리) 1. 회원의 게시물이 정보통신망법 및 저작권법 등 관련법에 위반되는 내용을 포함하는 경우, 회사는 관련법이 정한 절차에 따라 해당 게시물의 게시중단 및 삭제 등을 요청할 수 있습니다. 2. 회원이 서비스에 등록하는 게시물 등으로 인하여 본인 또는 타인에게 손해나 기타 문제가 발생하는 경우 전적으로 회원은 이에 대한 책임을 지며, 회사의 고의가 아닌 한 회사는 이에 대하여 책임을 지지 않습니다. 3. 회사는 다음 각호에 해당하는 게시물 등을 회원의 사전 동의 없이 임시게시 중단, 수정, 삭제, 이동 또는 등록거부 등 관련조치를 취할 수 있습니다. ① 다른 회원 또는 제3자에게 욕설 및 비방, 인신공격으로 불쾌감 및 모욕을 주거나 명예를 훼손하는 내용인 경우 ② 다른 회원 또는 제3자의 저작권을 침해하거나 불법정보 유출과 관련된 글을 올리는 경우 ③ 다른 회원 또는 제3자의 사생활 침해 및 개인정보를 유출하는 경우 ④ 공공질서 및 미풍양속에 위반되는 내용을 유포하거나 링크시키는 경우 ⑤ 불법복제 또는 해킹을 조장하는 내용인 경우 ⑥ 영리를 목적으로 하는 광고 또는 사이트를 홍보하는 내용인 경우 ⑦ 범죄와 결부된다고 객관적으로 인정되는 내용인 경우 ⑧ 사적인 판단이나 지역감정 조성, 종교적 견해의 내용으로 회사가 서비스 성격에 부합하지 않는다고 판단하는 경우 ⑨ 회사에서 규정한 게시물 운영원칙에 어긋나거나 게시판 성격에 부합하지 않는 경우 ⑩ 기타 관계법령에 위배된다고 판단되는 경우 3. 회사는 광고성 게시물 차단 및 안정된 게시물 운영을 위해 일부 서비스에 대해 게시물 이용시간을 제한할 수 있습니다. 다만 이런 경우 이용시간을 해당 서비스에서 공지합니다. 4. 회사는 일부 서비스에 대해서 회원이 등록하는 게시물에 대해 사전 심의 후 게시 여부를 결정할 수 있습니다. 제 12 조 (게시물의 저작권) 1. 회원이 등록한 게시물에 대한 저작권은 해당 저작권자에게 귀속됩니다. 2. 회사가 작성한 게시물 또는 저작물에 대한 저작권, 기타 지적재산권은 회사에 귀속되므로 회원이 서비스를 이용하면서 얻은 저작물은 회사의 사전 승낙 없이 복제, 송신, 출판, 전송, 배포, 방송, 기타 방법에 의하여 영리목적으로 이용하거나 제3자에게 이용하게 해서는 안됩니다. 3. 회사는 서비스의 운영, 전시, 전송, 배포, 홍보의 목적으로 회원의 별도의 허락 없이 무상으로 저작권법에 규정하는 공정한 관행에 맞게 합리적인 범위 내에서 다음과 같이 회원이 등록한 게시물을 사용할 수 있습니다. ① 서비스 내에서 회원 게시물의 복제, 수정, 개조, 전시, 전송, 배포 및 원저작물을 해치지 않는 범위 내에서의 편집 저작물 작성하는 경우 ② 서비스 제휴 파트너에게 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 ③ 휴대폰, PDA, IPTV 등 단말기에서 회원의 게시물 내용을 제공, 전시 혹은 홍보하게 하는 경우 4. 회사는 전항 이외의 방법으로 회원의 게시물을 이용하고자 하는 경우 전화, 팩스, 전자우편 등의 방법을 통해 사전에 회원의 동의를 얻어야 합니다. 5. 게시물에 대해 제3자로부터 저작권 및 기타 권리의 침해 또는 명예훼손, 음란성 등의 이유로 이의가 제기된 경우 회사는 당해 게시물을 임시 삭제할 수 있습니다. 이 경우 회사는 이의를 제기한 자와 게시물 등록자 간의 법적 문제가 종결된 후, 게시 요청이 있는 경우에는 삭제된 게시물을 재등록 할 수 있습니다. 제 13 조 (정보의 제공) 1. 회사는 회원의 서비스 이용에 필요하다고 인정되는 다양한 정보를 공지사항이나 전자우편, SMS, SNS 등의 방법으로 회원에게 제공할 수 있습니다. 다만 회원은 관련법에 따른 거래관련 정보 및 고객문의 등에 대한 답변 등을 제외하고는 언제든지 전자우편에 대해서 수신 거절을 할 수 있습니다 2. 회사는 서비스 개선 및 회원 대상의 서비스 제공 등을 목적으로 회원의 동의 하에 관련 법령에 따라 추가적인 개인정보를 수집할 수 있습니다. 제 14 조 (광고 게재) 1. 회사가 회원에게 서비스를 제공하기 위한 수익기반의 일부인 광고게재 및 판촉활동에 대해서 회원은 서비스 이용 시 제공되는 광고에 대해 동의합니다. 2. 회사는 회원 가입 시 광고메일 발송에 동의한 한 회원에 한해서 회사의 판단에 따라 이메일 광고를 회원의 이메일 주소로 발송, 제공합니다. 3. 회사는 서비스상에 게재되어 있거나 서비스를 통한 광고주의 판촉활동에 회원이 참여하거나 교신 또는 거래를 함으로써 발생하는 일체의 손실과 손해에 대해 책임을 지지 않습니다. 제 15 조 (계약 해지) 1. 회원이 이용계약을 해지하고자 할 경우에는 회원 본인이 회사에서 제공한 서비스 내 영역을 통해 가입 해지를 해야 합니다. 회사는 관련법 등이 정하는 바에 따라 이를 즉시 처리해야 합니다. 2. 회원이 이용계약을 해지할 경우, 회사가 회원정보를 보유하는 경우를 제외하고는 관련법 및 개인정보취급방침에 따라 해지 즉시 회원의 모든 데이터는 소멸됩니다. 3. 회원이 이용계약 해지를 한 경우 본인 계정에 등록된 게시물 일체는 삭제됩니다. 다만 제3자에 의한 스크랩, 담기 등으로 재게시되거나, 복제된 게시물과 타인의 게시물과 결합되어 제공되는 게시물 등은 그러하지 않습니다. 제 16 조 (서비스 이용제한) 1. 회사는 회원이 이 약관의 의무를 위반하거나 서비스의 정상적인 운영을 방해한 경우, 이용을 단계적으로 제한할 수 있습니다. 2. 회사는 주민등록법을 위반한 명의도용 및 결제도용, 저작권법 및 컴퓨터프로그램보호법을 위반한 불법프로그램의 제공 및 운영방해, 정보통신망법을 위반한 불법통신 및 해킹, 악성프로그램의 배포, 접속권한 초과행위 등과 같이 관련법령을 위반한 경우에는 즉시 영구이용정지를 할 수 있습니다. 3. 회사는 본 조의 제한의 조건 및 세부내용은 이용제한정책 및 개별 서비스상의 운영정책에서 정하는 바에 의합니다. 제 18 조 (손해배상) 1. 회사와 이용자는 서비스 이용과 관련하여 고의 또는 과실로 상대방에게 손해를 끼친 경우에는 이를 배상해야 합니다. 2. 단, 회사는 무료로 제공하는 서비스의 이용과 관련하여 개인정보취급방침에서 정하는 내용에 위반하지 않는 한 어떠한 손해도 책임지지 않습니다. 제 19 조 (책임제한) 1. 회사는 천재지변 또는 이에 준하는 불가항력 기타 이 약관에서 정한 정당한 사유로 인하여 서비스를 제공할 수 없게 된 경우에는 서비스 제공에 관한 책임이 면제됩니다. 2. 회사는 회원의 귀책사유로 인한 서비스 이용의 장애 또는 손해에 대해서는 책임을 지지 않습니다. 3. 회사는 회원간 또는 회원과 제3자 상호간에 서비스를 매개로 하여 거래 등을 한 경우에는 책임이 면제됩니다. 4. 회사는 제공하는 서비스에 포함된 모든 정보, 소프트웨어, 제품 등에 부정확함과 인쇄상의 오류로 인해 발생하는 정보의 부정확성에 대해서는 책임을 지지 않습니다. 5. 회사는 회원의 게시물을 등록 전에 상시적으로 사전심사 하거나 게시물의 내용을 확인 또는 검토할 의무가 없으므로 그 결과에 대한 책임은 지지 않습니다. 6. 회사에서 회원에게 무료로 제공하는 서비스의 이용과 관련해서는 어떠한 손해도 책임을 지지 않습니다. 제 20 조 (통지) 1. 회사는 회원에 대하여 통지를 하는 경우 회원이 회사에 등록한 전자우편 주소로 할 수 있습니다. 2. 회사는 불특정다수 회원에게 통지를 해야 할 경우 회사 게시판을 통해 7일 이상 게시함으로써 개별통지에 갈음할 수 있습니다. 제 21 조 (준거법 및 재판관할) 1. 이 약관에 명시되지 않은 사항은 대한민국 관계법령과 상관습에 따릅니다. 2. 서비스 이용으로 인한 분쟁에 대해 소송이 제기될 경우 회사의 본사 소재지를 관할하는 법원을 관할법원으로 합니다. [부칙] 1. 이 약관은 2014년 5월 7일부터 시행합니다. 개인정보처리 방침 (필수) 한국일보닷컴(이하 ‘회사’)은 정보통신망 이용촉진 및 정보보호 등에 관한 법률, 개인정보보호법, 통신비밀보호법, 전기통신사업법, 등 정보통신서비스제공자가 준수하여야 할 관련 법령상의 개인정보보호 규정 및 방송통신위원회가 제정한 「개인정보보호지침」을 준수하고 있으며, 관련 법령에 의거한 개인정보취급방침을 정하여 이용자 권익 보호에 최선을 다하고 있습니다. 회사는 회원님들의 개인정보가 남용되거나 유출되지 않도록 최선을 다할 것이며, 이에 다음과 같이 회사의 개인정보 보호를 위한 방침에 대하여 알려드리고자 합니다. 단, 본 개인정보취급방침은 정부의 법령 및 지침의 변경, 또는 보다 나은 서비스의 제공을 위하여 그 내용이 변경될 수 있으니, 회원님들께서는 사이트 방문시 수시로 그 내용을 확인하여 주시기 바랍니다. 본 개인정보취급방침은 회사가 제공하는 서비스 (모바일 웹 포함) 이용에 적용되며 다음과 같은 내용을 담고 있습니다. 1. 수집하는 개인정보의 항목 및 수집방법 회사는 회원가입, 원활한 고객 상담, 각종 서비스의 제공을 위해 최초 회원가입 당시 아래와 같은 최소한의 개인정보를 필수항목으로 수집하고 있습니다. 가. 수집하는 개인정보의 항목 필수항목 : 이름, 생년월일, 아이디, 비밀번호, 메일주소, 휴대폰 번호, 주소, 가입인 증정보(참고로, 아동 관련 서비스를 제공할 때까지 만14세 미만 아동 회원은 가입을 불허합니다) 다만, 서비스 이용과정이나 사업처리 과정에서 IP Address, 쿠키, 방문 일시, 서비스 이용 기록, 불량 이용 기록, 결제기록 등이 자동으로 생성 되어 수집될 수 있습니다. 선택항목: 기존 아이디를 이용한 부가 서비스 및 맞춤식 서비스 이용 또는 이벤트 응모 과정에서 해당 서비스의 이용자에 한해서만 주민등록번호, 주소, 전 화번호, 직업 등의 정보들이 수집될 수 있습니다. 나. 개인정보 수집방법 회사는 다음과 같은 방법으로 개인정보를 수집합니다. - 홈페이지, 서면양식, 팩스, 전화, 상담 게시판, 이메일, 이벤트 응모, 배송요청 2. 개인정보의 수집 및 이용목적 회사는 수집한 개인정보를 다음의 목적을 위해 활용합니다. 가. 서비스 제공 서비스 제공에 관한 계약 이행 및 서비스 제공에 따른 요금정산, 컨텐츠 제공, 특정 맞춤 서비스 제공, 물품배송 또는 청구서 등 발송, 본인인증, 구매 및 요금 결제, 요금추심 나. 회원관리 회원제 서비스 이용에 따른 본인확인, 개인식별, 한국일보닷컴 이용약관 위반 회원에 대한 이용제한 조치, 서비스의 원활한 운영에 지장을 미치는 행위 및 서비스 부정이용 행위 제재, 가입의사 확인, 가입 및 가입횟수 제한, 추후 아동 관련 서비스제공으로 인한 만14세 미만 아동 개인정보 수집 시 법정 대리인 동의여부 확인, 추후 법정 대리인 본인확인, 분쟁 조정을 위한 기록보존, 불만처리 등 민원처리, 고지사항 전달, 회원탈퇴 의사의 확인 다. 신규 서비스 개발 및 마케팅·광고에의 활용 신규 서비스 개발 및 맞춤 서비스 제공, 통계학적 특성에 따른 서비스 제공 및 광고 게재, 서비스의 유효성 확인, 이벤트 정보 및 참여기회 제공, 광고성 정보 제공, 접속빈도 파악, 회원의 서비스이용에 대한 통계 3. 개인정보의 공유 및 제공 회사는 이용자들의 개인정보를 "2. 개인정보의 수집목적 및 이용목적"에서 고지한 범위내에서 사용하며, 이용자의 사전 동의 없이는 동 범위를 초과하여 이용하거나 원칙적으로 이용자의 개인정보를 외부에 공개하지 않습니다. 다만, 아래의 경우에는 예외로 합니다. - 이용자가 사전에 동의한 경우 - 법령의 규정에 의거하거나, 수사 목적으로 법령에 정해진 절차와 방법에 따라 수사기관의 요구가 있는 경우 4. 개인정보의 보유 및 이용기간 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 단, 다음의 정보에 대해서는 아래의 이유로 명시한 기간 동안 보존합니다. 가. 회사 내부 방침에 의한 정보보유 사유 - 부정이용기록(부정가입, 징계기록 등의 비정상적 서비스 이용기록) 보존 이유 : 부정 이용 방지 보존 기간 : 15일 나. 관련법령에 의한 정보보유 사유 상법, 전자상거래 등에서의 소비자보호에 관한 법률 등 관계법령의 규정에 의하여 보존할 필요가 있는 경우 회사는 관계법령에서 정한 일정한 기간 동안 회원정보를 보관합니다. 이 경우 회사는 보관하는 정보를 그 보관의 목적으로만 이용하며 보존기간은 아래와 같습니다. - 표시, 광고에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 6개월 - 계약 또는 청약철회 등에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 5년 - 대금결제 및 재화 등의 공급에 관한 기록 보존 이유 : 전자상거래 등에서의 소비자보호에 관한 법률 보존 기간 : 5년 - 소비자의 불만 또는 분쟁처리에 관한 기록 보존이유 : 전자상거래등에서의 소비자보호에 관한 법률 보존기간 : 3년 - 웹사이트 방문기록 보존이유 : 통신비밀보호법 보존기간 : 3개월 5. 개인정보 파기절차 및 방법 이용자의 개인정보는 원칙적으로 개인정보의 수집 및 이용목적이 달성되면 지체 없이 파기합니다. 회사의 개인정보 파기절차 및 방법은 다음과 같습니다. 가. 파기절차 - 이용자가 회원가입 등을 위해 입력한 정보는 목적이 달성된 후 별도의 DB로 옮겨져(종이의 경우 별도의 서류함) 내부 방침 및 기타 관련 법령에 의한 정보보호 사유에 따라(보유 및 이용기간 참조)일정 기간 저장된 후 파기됩니다. - 동 개인정보는 법률에 의한 경우가 아니고서는 보유되는 이외의 다른 목적으로 이용되지 않습니다. 나. 파기방법 - 종이에 출력된 개인정보는 분쇄기로 분쇄하거나 소각을 통하여 파기합니다. - 전자적 파일 형태로 저장된 개인정보는 기록을 재생할 수 없는 기술적 방법을 사용하여 삭제합니다. 6. 이용자 및 법정대리인의 권리와 그 행사방법 - 이용자는 언제든지 등록되어 있는 자신의 개인정보를 조회하거나 수정할 수 있으며, 회사의 개인정보의 처리에 동의하지 않는 경우 동의를 거부하거나 가입해지(회원탈퇴)를 요청하실 수 있습니다. 다만, 그러한 경우 서비스의 일부 또는 전부 이용이 어려울 수 있습니다. - 이용자의 개인정보 조회, 수정을 위해서는 '개인정보변경'(또는 '회원정보수정' 등)을, 가입해지(동의철회)를 위해서는 "회원탈퇴"를 클릭하여 본인 확인 절차를 거치신 후 직접 열람, 정정 또는 탈퇴가 가능합니다. - 혹은 개인정보관리책임자에게 서면, 전화 또는 이메일로 연락하시면 지체 없이 조치하겠습니다. - 이용자가 개인정보의 오류에 대한 정정을 요청하신 경우에는 정정을 완료하기 전까지 당해 개인정보를 이용 또는 제공하지 않습니다. 또한 잘못된 개인정보를 제3 자에게 이미 제공한 경우에는 정정 처리결과를 제3자에게 지체 없이 통지하여 정정이 이루어지도록 하겠습니다. - 회사는 이용자 혹은 법정 대리인의 요청에 의해 해지 또는 삭제된 개인정보는 "5. 개인정보의 보유 및 이용기간"에 명시된 바에 따라 처리하고 그 외의 용도로 열람 또는 이용할 수 없도록 처리하고 있습니다. 7. 개인정보 자동 수집 장치의 설치/운영 및 거부에 관한 사항 - 회사는 개인화되고 맞춤화된 서비스를 제공하기 위해서 이용자의 정보를 저장하고 수시로 불러오는 '쿠키(cookie)'를 사용합니다. - 쿠키는 웹사이트를 운영하는데 이용되는 서버가 이용자의 브라우저에게 보내는 아주 작은 텍스트 파일로 이용자 컴퓨터의 하드디스크에 저장됩니다. 이후 이용자가 웹 사이트에 방문할 경우 웹 사이트 서버는 이용자의 하드 디스크에 저장되어 있는 쿠키의 내용을 읽어 이용자의 환경설정을 유지하고 맞춤화된 서비스를 제공하기 위해 이용됩니다. - 쿠키는 개인을 식별하는 정보를 자동적/능동적으로 수집하지 않으며, 이용자는 언제든지 이러한 쿠키의 저장을 거부하거나 삭제할 수 있습니다. 가. 쿠키 사용 목적 회원과 비회원의 접속 빈도나 방문 시간 등을 분석, 이용자의 취향과 관심분야를 파악 및 자취 추적, 각종 이벤트 참여 정도 및 방문 회수 파악 등을 통한 타킷 마케팅 및 맞춤형 정보를 제공하기 위해 사용합니다. 다. 쿠키의 설치·운영 및 거부 - 이용자는 쿠키 설치에 대한 선택권을 가지고 있습니다. 따라서 이용자는 웹브라우저에서 옵션을 설정함으로써 모든 쿠키를 허용하거나, 쿠키가 저장될 때마다 확인을 거치거나, 아니면 모든 쿠키의 저장을 거부할 수도 있습니다. - 다만, 쿠키의 저장을 거부할 경우에는 로그인이 필요한 일부 서비스는 이용에 어려움이 있을 수 있습니다. - 쿠키 설치 허용 여부를 지정하는 방법(Internet Explorer의 경우)은 다음과 같습니다. ① [도구] 메뉴에서 [인터넷 옵션]을 선택합니다. ② [개인정보 탭]을 클릭합니다. ③ [개인정보취급 수준]을 설정하시면 됩니다. 8. 개인정보의 기술적·관리적 보호 대책 회사는 이용자들의 개인정보를 취급함에 있어 개인정보가 분실, 도난, 누출, 변조 또는 훼손되지 않도록 안전성 확보를 위하여 다음과 같은 기술적·관리적 대책을 강구하고 있습니다. 가. 비밀번호 암호화 회원 아이디(ID)의 비밀번호는 암호화되어 저장 및 관리되고 있어 본인만이 알고 있으며, 개인정보의 확인 및 변경도 비밀번호를 알고 있는 본인에 의해서만 가능합니다. 나. 해킹 등에 대비한 대책 회사는 해킹이나 컴퓨터 바이러스 등에 의해 이용자의 개인정보가 유출되거나 훼손되는 것을 막기 위해 외부로부터 접근이 통제된 구역에 시스템을 설치하고, 침입 차단장치 이용 및 침입탐지시스템을 설치하여 감시하고 있습니다. 그리고 백신 프로그램을 주기적으로 업데이트하며 갑작스런 바이러스가 출현할 경우 백신이 나오는 즉시 이를 적용함으로써 개인정보가 침해 방지를 위해 노력하고 있습니다. 다. 개인정보처리시스템 접근 제한 회사는 개인정보를 처리할 수 있도록 체계적으로 구성한 데이터베이스시스템에 대한 접근권한의 부여, 변경, 말소 등에 관한 기준을 수립하고 비밀번호의 생성 방법, 변경 주기 등을 규정 운영하며 기타 개인정보에 대한 접근통제를 위해 필요한 조치를 다하고 있습니다. 라. 개인정보 취급 직원의 교육 개인정보관련 취급 직원은 담당자에 한정시켜 최소화 하고 새로운 보안기술의 습득 및 개인정보보호 의무에 관해 정기적인 교육을 실시하며 별도의 비밀번호를 부여하여 접근 권한을 관리하는 등 관리적 대책을 시행하고 있습니다. 9. 개인정보관리책임자 및 담당자의 연락처 회사는 개인정보를 보호하고 개인정보와 관련한 불만을 처리하기 위하여 아래와 같이 개인정보관리책임자를 지정하고 있습니다. 이용자는 서비스를 이용하면서 발생하는 모든 개인정보보호 관련 민원을 개인정보관리책임자로 신고하실 수 있습니다. 회사는 이용자들의 신고사항에 대해 신속하게 충분한 답변을 드릴 것입니다. 개인정보 관리책임자 성명: 정진황 국장 소속: 디지털콘텐츠국 전화: 02-724-2427 이메일: jhchung@hankookilbo.com 개인정보 관리담당자 성명: 안경모 부장 소속: 디지털미디어부 전화: 02-724-2293 이메일: zuckbox@hankookilbo.com 기타 개인정보침해에 대한 신고나 상담이 필요하신 경우에는 아래 기관에 문의하시기 바랍니다. - 개인정보침해신고센터 ( www.118.or.kr / 국번없이 118) - 대검찰청 사이버범죄수사단 ( www.spo.go.kr / 02-3480-3571) - 경찰청 사이버테러대응센터 ( www.ctrc.go.kr / 국번없이 182) 10. 고지의 의무 현 개인정보취급방침 내용 추가, 삭제 및 수정이 있을 시에는 개정 최소 7일전부터 홈페이지의 공지사항을 통해 고지할 것입니다. - 공고일자 : 2014년 5월 8일 - 시행일자 : 2014년 5월 15일 이벤트/프로모션 등 정보 수신 동의 (선택) 이메일 SMS 뉴스레터 이용약관 및 개인정보 처리 방침은 필수 항목 입니다. 다음 약관 동의 필수 이용약관에 동의 하셔야 합니다. 확인 약관 동의 필수 개인정보처리 방침에 동의 하셔야 합니다. 확인 회원가입 아이디(이메일) 중복확인 사용 가능한 아이디 입니다. 비밀번호 비밀번호 확인 3~10자 영문 대소문자, 숫자 및 특수문자를 사용해주세요. 이름 필명 중복확인 댓글 작성 시 필명이 노출 됩니다. 사용 가능한 필명입니다. 확인 필명 중복확인 댓글 작성 시 필명이 노출됩니다. 사용 가능한 필명입니다. 확인 회원가입 완료 한국일보 회원가입이 완료 되었습니다. 확인 로그인 요청 로그인 한 후 이용 가능합니다. 로그인 하시겠습니까? 아니오 네 이메일로 기사 공유하기 보내는 기사 "울릉도가 제주도만큼 매력적인 관광지가 되어야 합니다" 받으실 분 이메일 여러사람에게 보낼 경우 메일주소는 세미콜론(;)으로 구분해 주세요.(최대 5개) 보내는 분 이름 보내는 분의 이름을 입력해주세요. 이메일 올바른 이메일 형식이 아닙니다. 함께 보내는 메세지 메일 전송 전송 완료 기사가 메일로 전송 되었습니다. 확인 구독 취소 구독을 취소하시겠습니까? 아니오 네 중복 선택 불가 안내 이미 공감 표현을 선택하신 기사입니다. 변경을 원하시면 취소 후 다시 선택해주세요. 확인</t>
+  </si>
+  <si>
+    <t>제주도의회, 6일 포스트 코로나 관광전략 토론회 개최 &lt; 도의회 &lt; 정치 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:52 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도의회, 인사권 독립 후 첫 사무관 승진 임용 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도의회, 6일 포스트 코로나 관광전략 토론회 개최 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 도의회 제주도의회, 6일 포스트 코로나 관광전략 토론회 개최 기자명 한형진 기자					(cooldead@naver.com) 입력 2020.10.05 19:51 댓글 3 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도의회 포스트코로나대응 특별위원회(위원장 강성민)와 문화관광체육위원회(위원장 안창남)는 6일 오후 2시 도의회 의원회관 대회의실에서 공동 주관으로 전문가 토론회 ‘포스트 코로나 제주관광전략, 웰니스 관광을 말하다’를 개최한다. 이번 토론회는 단국대학교 장태수 교수의 기조 강연을 시작으로 김향자 한국문화관광연구원 선임연구위원이 ‘코로나 대응을 위한 제주 웰니스 관광전략과 과제’를 발표한다.이어 토론은 진희종 방송인이 좌장, 김인성 제주도의회 행정자치위원회 전문위원이 사회를 맡아서 진행한다. 토론자는 ▲김재웅 제주도 관광국장 ▲문성종 제주한라대학 교수 ▲박호형 제주도의원 ▲허순영 제주착한여행 대표 ▲조미영 국가균형발전위 전문위원 ▲홍성직 치유농업병원 운영 의사가 참여한다.토론회를 주관하는 강성민 위원장은 “코로나 종식 이후 달라질 관광 수요에 대응하기 위한 선제적 조치와 발빠른 전략 마련을 위해 이번 전문가 토론회를 기획하게 됐다”고 취지를 밝혔다. 안창남 위원장은 “제주형 웰니스관광상품 개발지원과 육성은 민선7기 도지사의 공약사항인데, 이제서야 제주 웰니스 관광 15선을 선정하며 콘텐츠 개발에 나서고 있다”면서 “늦은 감이 있지만 코로나19로 인해 침체된 제주 관광을 회생시키기 위해서는 웰니스 관광을 산업적으로 육성하기 위한 정책을 시급히 마련할 필요가 있다”고 강조했다.이번 토론회는 제주도의회 연속토론회 ‘포스트 코로나 시대, 제주의 미래를 생각한다’의 일환이다. 코로나19로 인한 사회적 거리두기로 인해 소규모 인원으로 진행한다.문의 : 064-741-2051 한형진 기자 cooldead@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.10.04 10:07 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석)는 지난달 30일 제주국제공항에서 추석 귀성객과 관광객을 대상으로 마스크와 손 소독제 등 방역물품과 감염예방수칙 홍보물을 배부하는 등 마스크 착용 의무화 홍보활동을 실시했다고 4일 밝혔다. 이번 홍보활동은 제주도관광국, 한국관광공사 제주지역본부와 합동으로 진행했다. 제주도관광협회 관계자는 "코로나19 지역 확산에 선제적으로 대응하기 위해 공·항만 및 다중밀집장소에서 지속적으로 홍보활동을 펼쳐나가고 있다"고 전했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 9만5천여 명 입도 대비 관광사업체 집중점검 주메뉴 바로가기 본문 바로가기 2022.10.06 (목) 카카오채널 RSS 모바일보기 구름많음서울 17.9℃ 구름많음제주 20.6℃ 흐림고산 19.1℃ 흐림성산 19.0℃ 흐림서귀포 20.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 9만5천여 명 입도 대비 관광사업체 집중점검 임의순 기자 jejutwn@daum.net 등록 2020.10.07 10:32:34 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도가 한글날 연휴를 앞두고 도민과 관광객의 불편 최소화와 안전한 제주관광을 위해 주요 관광사업체의 방역실태를 점검하고 공·항만 등에서 마스크 착용 의무화 캠페인을 집중 홍보할 계획이라고 밝혔다.제주도관광협회에 따르면 오는 9일부터 11일까지 3일간 제주를 찾을 것으로 예상되는 관광객은 약 9만5천여 명이다.이는 지난해 13만 7,457명 대비 약 30.9% 감소한 수준이지만 코로나19 상황과 청정 제주를 사수하기 위해서 집중 방역관리를 추진할 계획이다.앞서 제주도는 5월 황금연휴나 8월 광복절 연휴 이후 전국적으로 코로나19 확산세가 증가한 상황과 코로나19 최대잠복기를 고려해 오는 18일까지 추석 연휴 특별방역 위험 관리기간으로 정하고 비상체제를 유지한다는 방침을 밝히기도 했다.원희룡 도지사는 5일 ‘추석 연휴 청정·안전제주를 지켜주신 도민과 국민 여러분께 드리는 말씀’을 통해 “추석 연휴 이후 2주간의 바이러스 잠복기와 한글날 연휴로 인해 한시도 긴장감을 늦출 수 없는 상황”이라며 “도민과 국민의 생명과 안전을 지키기 위해 늘 국경 수준의 방역 태세를 유지 하겠다”고 말했다.제주도는 도·행정시, 관광공사, 관광협회와 함께 합동점검반을 편성하고 총 50여명의 인원을 투입해 오는 9일부터 11일까지 3일간 호텔․콘도(418개소), 야영장(43개소), 유원시설(74개소), 휴양펜션(117개소) 등에 대해 방역 수칙 준수 여부를 확인한다.이미 추석연휴 이전인 9월 12일부터 10월 4일까지 관광대책 종합상황실을 운영하며 총 652개소의 관광사업체에 대한 점검을 마쳤지만, 방역시스템이 체계적이고 지속적으로 가동될 수 있도록 재차 집중점검에 나서겠다는 복안이다.이를 통해 ▲방문객 마스크 착용 및 열 감지체크 ▲방역관리자 지정 ▲주기적 방역 및 이행수칙 준수 ▲종사자 위생관리 ▲생활 속 거리두기 필요성 및 실천 행동요령 안내 ▲2m 거리두기 이행 여부 등을 점검할 계획이다.관광객들이 많이 몰리는 제주공항 1층 도착장 입구(2개소)와 제주항 여객터미널, 8대 핵심관광클러스터* (제주공항 인근, 함덕해변, 성산일출봉-섭치코지인근, 표선해변, 서귀포시 구시가지, 중문관광단지, 협재-금능해변, 곽지-한담해변)에서 입도객 대상 마스크 착용 의무화 캠페인도 펼친다.코로나19 방역수칙 홍보물을 배부하며 공·항만, 대중교통, 골프장, 고위험시설 등에서 마스크 착용 의무화와 위반시 고발 및 행정조치 시행 사항을 안내할 예정이다.김재웅 도 관광국장은 “한글날 연휴기간에도 안전한 제주관광이 될 수 있도록 공·항만 및 도내 관광사업체를 대상으로 코로나19 방역수칙 이행여부를 집중 점검해 안내함으로써 제주의 브랜드 가치를 높일 수 있도록 힘을 쏟겠다”고 말했다. 제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 [TW포토] 제3회 서귀포은갈치축제 현장 3 제주 오션갤러리, 시행사 보유분 특별분양 4 [TW포토] 제주관광대 탐모라볼빛축제…장덕철 열창 5 제주시, 10월 시정시책공유 간부회의 개최 6 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 7 [TW포토] 2022 제주레저힐링축제 새별오름 공연 8 [TW포토] 제주관광대 탐모라볼빛축제 성황리에 열려 9 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 10 제11회 숲유치원·유아숲체험원 전국대회, 10년만에 제주도에서 개최한다 실시간 뉴스 2022-10-06_THU 서귀포시, 동절기 코로나19 추가접종 10월 11일부터 참여 가능 11:29 서귀포시, 제17회 임산부의 날 기념행사 개최 11:27 서귀포시 동부보건소, 가을철 농작업 및 야외활동 시 진드기 조심하세요! 11:26 제주시, 오는 11월 24일부터 '일회용' 종이컵·빨대 등 제공 및 사용 금지한다 11:13 제주시, 환경오염배출 사업장 ‘자가진단 점검표’ 제작‧배포 11:12 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 06일 12시 42분 최상단으로</t>
+  </si>
+  <si>
+    <t>28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 28만명 관광객 찾은 제주도, 코로나19 확진자 '0' 유지 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.10.04 17:40 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 발열 입도객 등 618명 진단검사, 현재까지 모두 '음성' 판정 추석 연휴가 4일로 끝나는 가운데, 연휴기간 무려 28만명의 관광객이 찾았던 제주도에서는 다행히 코로나19 확진자가 발생하지 않은 것으로 확인됐다. 제주특별자치도는 제주국제공항과 제주항여객터미널에서는 코로나19 바이러스 유입 차단을 위한 고강도 방역대책이 추진되고 있는 가운데, 4일 현재까지 코로나19 추가 확진자는 발생하지 않았다고 밝혔다. 추석연휴가 시작된 26일부터 4일까지 제주도를 방문한 여행객은 28만명에 이르는 것으로 잠정 추산되고 있다. 이번 연휴 기간 제주도 방역당국은 모든 입도객에 대한 방역수칙을 의무화한 특별행정조치 명령이 발동되는 한편, 37.5도 이상 입도객에 대해서는 의무적으로 코로나19 검사를 받도록 '특별입도절차'를 시행했다. 이 기간 지난 26일부터 4일 오후 5시 현재까지 총 618명이 코로나19 검사를 받은 것으로 나타났다. 이 결과 4일까지 검사가 이뤄진 593명의 경우 모두 '음성' 판정을 받았다. 나머지 25명은 현재 검사가 진행 중이다. 제주국제공항 국내선 출·도착장에서 이뤄지는 발열검사에서 37.5℃ 이상으로 체크된 인원은 총 183명으로 집계됐다. 이중 165명은 체온을 재측정한 결과 단순 발열자로 확인됐고, 나머지 18명은 코로나19 진단검사를 실시하고 격리조치에 들어가도록 했는데, 검사결과 15명은 음성 판정을 받으면서 격리조치가 해제됐다. 나머지 3명은 현재 검사결고를 기다리고 있다. 한편, 제주특별자치도는 연휴가 끝난 후에는 2주간 현행대로 비상체제를 유지한다고 밝혔다. 이를 위해 5일부터 18일까지를 '추석연휴 특별방역 위험 관리기간'으로 설정하고, 코로나19 바이러스 감염 예방을 위한 고강도 사후 방역 관리에 돌입한. 이번 사후 특별방역기간에는 청정제주와 도민건강을 사수하기 위해 △타 지역 방문자 중 유증상자 진단검사 지원 △입도객 발열증상자 의무 검사 △감염 고위험시설 집중 방역관리 등이 중점 추진된다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주, 연휴 막바지 공.항만 북새통...코로나19 방역체계 강화 제주, 추석연휴 코로나19 확진자 '0'...발열자 모두 '음성' 제주도, '포커게임 대회' 현장 긴급 해산조치...집합금지명령 발동 원희룡 지사 "한글날 연휴까지 코로나19 차단 방역태세 유지" 추석 연휴 28만명 찾은 제주, 확진자 '제로' 비결은? '추석연휴 끝났어도'...코로나19 고강도 방역체제 18일까지 유지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 14:20 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 추석 귀성객 마스크 착용 의무화 홍보활동 기자명 홍석형 기자 입력 2020.10.04 10:38 수정 2020.10.04 19:39 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주특별자치도관광협회(회장 부동석)는 지난달 30일 제주국제공항에서 마스크 착용 의무화 집중계도 차원으로 추석 귀성객과 관광객을 대상으로 마스크, 손 소독제 등 방역물품과 감염예방수칙 홍보물을 배부했다고 4일 밝혔다.제주도관광협회는 코로나19 지역 확산에 선제적으로 대응하기 위해 공.항만 및 다중밀집장소에서 지속적으로 홍보활동을 펼쳐 나가고 있다.이번 홍보활동은 도관광국, 한국공항공사 제주지역본부와 합동으로 진행했다. 홍석형 기자 hsh8116@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 투자유치 희망 기업 JDC 파트너스데이 개최 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 8 ‘경유·휘발유 값’ 전국서 가장 비싼 곳은 ‘제주도’ 1 조사 발표하면 싸집니까 ? 도 홈페이지를 방문해서 확인하는 사람이 몇명이나 있을까요 ? 2 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 3 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 4 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 5 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 6 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 7 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>“한라산 능선 다 가려”...롯데관광이 중국자본과 손잡고 만들어 욕먹고 있는 제주도 ‘초고층 빌딩’ - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 "한라산 능선 다 가려"...롯데관광이 중국자본과 손잡고 만들어 욕먹고 있는 제주도 '초고층 빌딩' "이제 제주 비행기에서 내려다볼 때 건물부터 보여 경관을 해쳐요" 김소영 기자 입력 2020.10.06 11:31 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 성산일출봉 / 뉴시스[인사이트] 김소영 기자 = "이제 제주 비행기에서 내려다볼 때 건물부터 보여 경관을 해쳐요"개장이 얼마 남지 않은 제주 169ｍ짜리 초고층 빌딩 드림타워에 대한 잡음이 끊이지 않고 있다.드림타워는 제주 노형동 925번지에 들어서는 관광숙박빌딩으로 38층에 달한다.롯데관광개발과 중국 최대 부동산 개발회사 녹지그룹이 공동시행했고, 중국건축(CSSEC)이 책임시공을 한다.중국 자본이 들어간 약 1조5000억원 규모의 초대형 개발사업인 것이다.드림타워 조감도 / 뉴시스드림타워가 랜드마크가 될 것이라는 제주도의 예상과 달리 인근 주민들과 여행객에게 드림타워는 제주 자연경관을 해치는 주범으로 불린다.도민들은 "여기 근처 바람 조금 불어도 소리 엄청 난다", "주민들은 경관 해치고 관광버스 들락거릴 생각해 진짜 싫어한다" 등의 반응을 보이고 있다.여행객 역시 "제주 경관을 해치는 느낌이다", "제주 비행기 타고 하늘에서 보면 한라산이 보였는데 이젠 저 건물이 시강이라 한라산이 안 보인다"라며 불만을 토로한다.자연경관이 인상적인 제주도의 매력을 홀로 우뚝 솟은 건물이 망친다는 평이 이어지고 있다.공사 중이던 드림타워 항공뷰 / 뉴스1이 같은 문제는 시공 착수 시기부터 불거진 바 있다.과거 제주대학교 김태일 교수는 시뮬레이션을 통해 드림타워가 산간지대 오름을 가리고 능선 높이만큼 솟아올라 경관적 부조화를 이룰 수 있음을 경고했었다.조화롭지 못한 건물은 관광도시 전체의 분위기를 망친다. 제주의 특색을 고려하지 못한 드림타워가 관광객들의 마음을 사로잡을 수 있을지 귀추가 주목된다. 김소영 기자 · soyoung@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의 &lt; 유통 &lt; 생활경제 &lt; 기사본문 - 굿모닝경제 - 경제인의 나라, 경제인의 아침! 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:48 (화) For translation 전체기사 로그인 회원가입 post youtube facebook 경제인의 나라, 경제인의 아침 전체메뉴 버튼 정치·정책 정책 국회 대통령실 정부부처 지방자치 경제금융 금융당국 은행 보험 제2금융 일반경제 증권 증권 자산운용 자본시장 블록체인 산업 재계 전자 자동차 정유 중공업 철강 정보통신과학 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 건설 분양 시황 교통 공기업 사회·문화 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 유통 제주도, 제주버추얼포럼 개최…관광시장 회복 방안 논의 기자명 김형수 기자 입력 2020.10.28 10:38 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [한국정책신문=김형수 기자] 제주특별자치도는 제주관광공사, 국가브랜드진흥원과 함께 '팬데믹 시대의 관광 리빌딩'을 주제로 제주버추얼포럼을 개최한다고 28일 밝혔다. 오는 30일 제주국제컨벤션센터 탐라홀에서 개최되는 제주버추얼포럼은 사회적 거리두기를 위해 관객없이 열린다. 국내·외 연사들이 온·오프라인으로 참석하는 하이브리드 방식으로 진행된다. 제주버추얼포럼은 포스트 코로나 시대 관광의 변화를 예측하고, 변화에 대응할 수 있는 관광산업 리빌딩을 통해 관광 산업의 새로운 지속가능 성장 전략을 모색하기 위해 기획됐다. 제주버추얼포럼은 두 개의 세션으로 나눠 개최된다. 첫 세션은 ‘비욘드 코로나 시대의 국제협력 네트워크’를 주제로 마련됐다. 원희룡 지사의 기조강연 이후 미국 하와이, 중국 해남도, 일본, 싱가포르 관광청의 사례 발표와 코로나 이후 관광시장 회복을 위한 국제 네트워크의 중요성에 대해 토론이 이뤄질 예정이다. 두 번째 세션은 ‘비욘드 코로나 시대 관광산업의 미래 / 기술·혁신·비즈니스’를 주제로 세계여행관광협회와 UNWTO 관계자 등이 기조강연에 나선다. 카카오모빌리티, 하나투어, 야놀자, 제주연구원 관계자 등이 패널로 참가해 코로나19 이후 관광 산업 조기 회복을 위한 기술과 혁신, 비즈니스 분야의 역할에 대해 토론하는 순서로 진행된다. 트윗하기 김형수 기자 alias@goodkyung.com 다른기사 보기 저작권자 © 굿모닝경제 - 경제인의 나라, 경제인의 아침! 무단전재 및 재배포 금지 당신만 안 본 뉴스 증시 침체기 중소 증권사, 스택 상장 통해 활로 열기 '트윈데믹' 우려 확산...정부, 감기약 생산증대 지원방안 무기한 연장 선우은숙, 아나운서 유영재와 재혼 "최근 혼인신고" [굿모닝! 오늘의 날씨] 강한 바람에 체감온도 '뚝'...아침 기온 대부분 10도↓ 하반기 전망 엇갈리는 삼성·한화생명...한화 저축보험으로 만회 노리나 [기자수첩] 박수칠 때 떠나는 '아름다운' 기관장의 모습 '남궁민♥' 진아름 "결혼 축하 감사…성숙되고 예쁘게 살 것" 증시 침체기 중소 증권사, 스택 상장 통해 활로 열기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 한상대 서울석세스대상 집행위원장 "수상자 응원하는 문화 정착시킬 것" 이준식 서울석세스대상 조직위원장 "권위 있는 상으로 발전하도록 힘 보탤 것" "숨은 영웅들 잘 찾을 것"…서울석세스대상 조직위원 위촉 일성 與 “민주, 종부세 공정시장가액비율 70% 상향하자” '트윈데믹' 우려 확산...정부, 감기약 생산증대 지원방안 무기한 연장 [굿모닝!이 만난사람] 최상기 인제군수 “모든 행정력 집중해 1000만 관광 거점 조성” 최신뉴스 달달프렌즈, ‘메타버스 세미나 및 워크샵’ 25일 개최 구자은 LS 회장, 주한 걸프 5개국 대사와 미래사업 협력 유사나헬스사이언스, 2023아시아퍼시픽 컨벤션 ‘한국’ 개최 확정 두산퓨얼셀, 한국조선해양·쉘과 '선박용 연료전지 개발·실증' 본격 추진 한상대 서울석세스대상 집행위원장 "수상자 응원하는 문화 정착시킬 것" 인기뉴스 1 증시 침체기 중소 증권사, 스택 상장 통해 활로 열기 2 '트윈데믹' 우려 확산...정부, 감기약 생산증대 지원방안 무기한 연장 3 선우은숙, 아나운서 유영재와 재혼 "최근 혼인신고" 4 [굿모닝! 오늘의 날씨] 강한 바람에 체감온도 '뚝'...아침 기온 대부분 10도↓ 5 하반기 전망 엇갈리는 삼성·한화생명...한화 저축보험으로 만회 노리나 6 [기자수첩] 박수칠 때 떠나는 '아름다운' 기관장의 모습 7 '남궁민♥' 진아름 "결혼 축하 감사…성숙되고 예쁘게 살 것" 8 이복현 금감원장 "횡령·공매도 신속·강력 대응" 하단메뉴 신문사소개 사업소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리인 매체정보 서울특별시 중구 삼일대로6길 5 조양빌딩(신관) 11층 대표전화 : 02-726-7493 팩스 : 02-777-6473 등록번호 : 서울 아03448 등록·발행일자 : 2014-11-24 대표이사·발행인 : 오운암 편집인 : 원충희 편집국장 : 이근형 청소년보호·개인정보관리 책임자 : 정성환 굿모닝경제 모든 콘텐츠(기사)는 저작권법의 보호를 받는 바, 무단전재, 복사, 배포 등을 금합니다. © 굿모닝경제 - 경제인의 나라, 경제인의 아침!. All rights reserved. 위로 전체메뉴 전체기사 정치·정책 전체 정책 국회 대통령실 정부부처 지방자치 여론조사 국제 경제금융 전체 금융당국 은행 보험 제2금융 일반경제 증권 전체 증권 자산운용 자본시장 블록체인 산업 전체 재계 전자 자동차 정유 중공업 철강 정보통신과학 전체 정보통신 방송·뉴미디어 게임 모빌리티 4차산업 생활경제 전체 식품 유통 제약·바이오 병원 뷰티 패션 호텔 건설부동산·공기업 전체 건설 분양 시황 교통 공기업 사회·문화 전체 법원·검찰·경찰 사회일반 생활문화 연예·스포츠 오늘의날씨 건강 카드뉴스 오피니언 전체 사설 데스크칼럼 칼럼 기자수첩 세미나·포럼 인사·부고·동정 포토 전체 연예포토 스타화보 스포츠포토 일반포토 동영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광업계 경영위기 극복위한 특별융자 16일까지 신청가능 주메뉴 바로가기 본문 바로가기 2022.10.07 (금) 카카오채널 RSS 모바일보기 맑음서울 13.1℃ 흐림제주 17.6℃ 흐림고산 17.0℃ 흐림성산 16.1℃ 흐림서귀포 17.7℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 Korean English 中文 日本語 tiếng Việt Idioma español ру́сский язы́к 메뉴 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 기사검색 검색어를 입력해주세요 검색하기 검색창 열기 닫기 전체기사 정치 경제 사회 교육 복지 라이프 문화·행사 오피니언 기고 만평 사회 홈 사회 제주도, 관광업계 경영위기 극복위한 특별융자 16일까지 신청가능 임의순 기자 jejutwn@daum.net 등록 2020.10.07 10:30:34 URL복사 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 제주도가 코로나19로 직격탄을 맞은 관광사업체의 경영위기 극복을 위해 10월 6일까지 하반기 제주관광진흥기금 지원 신청을 받은 결과, 총 91건·89억 규모가 접수됐다고 밝혔다.업종별로 ▲여행업 46건 23억원 ▲ 관광숙박업 9건 19억원 ▲일반숙박업 11건 9억원 ▲ 전세버스업 10건 12억원 ▲ 관광식당업 3건 3억원 ▲ 기타 12건 23억원 등으로 집계됐다.총 91건의 신청건수 중 여행업계가 46건(23억)으로 50%를 차지하는 것은 코로나19 직격탄을 맞은 여행업이 여전히 경영난으로 어려움을 겪고 있다는 것으로 분석됐다.특히 상반기 융자추천 후 대출 실행을 보류했다가 코로나19 장기화로 자금난이 이어지면서 하반기에 재신청하는 사례가 48건(46억원)으로, 전체 신청건수의 52%를 차지했다.원희룡 지사는 지난 5일 소통과 공감의 날을 통해 “침체돼있는 제주 지역 경제와 관광을 활성화 시킬 수 있는 채비를 해나가야한다”면서 “경기침체에서 위기에 처한 각 가구와 기업들을 지원하기 위한 사업에 철저를 기할 것”을 주문한 바 있다.제주도는 관광업계 어려움을 반영해 올해 상반기 특별융자 추천자의 경우, 융자 금액 한도 내에서 상반기 대출 실행한 금액을 제외한 나머지를 추가로 융자 추천하는 방안을 추진 중이다.관광업계 의견을 수렴해 행정처분 이력, 융자금 중도회수 이력, 투자진흥지구 지정여부 관계없이 신청이 가능하도록 제한을 완화하는 등 제도개선도 추진했다.특별융자 신청은 오는 16일까지 제주웰컴센터 내 설치된 관광진흥기금특별지원센터에서 접수 받는다.지원은 융자추천액 대출 실행에 따른 이자차액을 보전해 주는 방식으로 이뤄진다.융자자 부담 금리는 0.37%(4분기 기준)이며 융자 기간은 2년 거치 3년 균등 상환 조건이다.특히 올해 5월 관광진흥조례 개정에 따라 관광사업의 종류에 관광지원서비스업이 추가됐다. 해당업종 운영자는 관할 행정시에서 지정증을 교부받아야 융자금 신청을 하면 된다.          ※ 문의처 : 제주관광진흥기금 특별지원센터(740-6095~7, 710-3344)한편, 제주도는 올해 상반기 1,494개 업체 1,797억 원을 신규 융자 추천했으며 기존 대출 실행자 1,139건 2,700억 원에 대해서는 2년간 상환유예를 결정했다.제주교통복지신문, JEJUTWN 임의순 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 Copyright @2015 제주교통복지신문 Corp. All rights reserved. 랭킹뉴스 1 제주 서귀포 친환경 주거타운 ‘제주 레브카운티’, 대자연 풍경과 개발 수혜로 관심 2 제주 오션갤러리, 시행사 보유분 특별분양 3 연예인 입주로 화제…‘한일 베라체 인비디아’ 눈길 4 [TW포토] 2022 제주레저힐링축제 새별오름 공연 5 제주음협, 오는 22일 '창착오페라 「홍윤애」 하이라이트' 선보인다 6 제주시 동부보건소, 청소년 대상 코로나우울·스마트폰 중독 예방 홍보관 운영 7 제주 사회적기업 성장지원센터, 입주기업 설명회 및 간담회 성황리에 개최 8 서귀포시, 코로나19 취약(소농) 전업농가 영농경영비 신청기간 연장 9 제주시 서부보건소, 코로나 넘어 건강한 일상으로!『고고당 잡게 오몽하게 마씸』 10 서귀포시 장애인게이트볼 연맹, 전국장애인게이트볼대회 참가 실시간 뉴스 2022-10-07_FRI 창작오페라 「홍윤애」 제작발표회 19:15 제주특별자치도, 도심항공교통 상용화 시험대... 자율비행 드론 이용해 피자 배달 16:31 [TW포토] 제61회 탐라문화제 산지천 주변, 산지천갤러리 15:26 제주특별자치도의회, 참신한 정책 도민과 함께 만들어 갑니다 15:20 제주특별자치도, 40년만의 미국 인플레이션 살피는 까닭? 15:18 신문사소개 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 이청) 이메일 무단수집거부 기사제보 문의하기 제주특별자치도 제주시 신대로7길 20, 301호 (연동, 새롬빌라) | 대표전화 : 010-8675-4517 발행인 : 이문호 | 편집인 : 이청 | 등록번호 : 제주, 아01068 | 등록일 : 2016.10.11 | 이메일 : news@jejutwn.com 제주교통복지신문의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2021 제주교통복지신문. All rights reserved. 최종편집일: 2022년 10월 07일 20시 04분 최상단으로</t>
+  </si>
+  <si>
+    <t>[전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 안창남 제주도의회 문화관광체육위원장, 행정사무감사 임하는 각오 편집팀 iheadline@hanmail.net 승인 2020.10.12 17:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 안창남 문화관광체육위원장. ⓒ헤드라인제주 “코로나19 위기에 대응한 문화, 체육, 관광정책에 대한 심층적 검토” 올해는 코로나 19로 인해 제주도민 전체가 힘든 시기를 보내고 있습니다. 문화예술행사는 취소와 연기를 반복하고 있고, 체육과 축제는 모든 지원행사의 취소로 콘텐츠가 가득한 섬이 아닌, 잠자는섬이 되어버렸습니다. 또한 문화체육활동으로 인해 파급되는 경제활동 역시 간과할 수 없는 상황이 되었습니다. 도차원에서는 침체된 경제를 회복시킨다는 명분으로 문화예술, 체육, 축제 등 행사성 예산을 전폭 삭감하여 소액의 재난지원금이란 형태로 분배하였습니다만. 제주지역 내에서 실질경제가 돌아갈 수 있는 선순환구조를 오히려 행정이 파괴해 버렸습니다. 11대 하반기 의정의 시작인 올해는 행정사무감사를 통해 민선 7기 코로나19로 인해 방치해두었던 문화관광체육분야에 대한 정책 점검과, 문화예술과 체육활동의 통제, 축제의 취소에서 오는 문제점들을 심도 있게 검토하여 도민행복에 부합할 수 있는 정책 방향이 제시되도록 개선을 강력히 요구 할 것입니다. 내년에도 팬데믹과 재정여건으로 인해 문화예술, 체육, 관광 등에서 낙관적이지는 못합니다만, 앞으로 문화관광체육이 나아가야 할 방향과 제주문화관광에 맞는 자연유산의 가치부각을 위한 활용사업 주문을 비롯하여, 도민경제에 미치는 영향이 극대화 될 수 있도록 심층적으로 검토하겠습니다. 더불어 전 세계적 위기를 사각지대 없는 방역메뉴얼을 통해 제주가 기회로 올 수 있는 시스템을 구축할 수 있도록 구조적 제도개선을 요구하겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 [전문] 좌남수 제주도의회 의장, 행정사무감사 임하는 입장 [전문] 정민구 제주도의회 부의장, 행정사무감사 임하는 입장 [전문] 강연호 제주도의회 부의장, 행정사무감사 임하는 입장 [전문] 김용범 제주도의회 의회운영위원장, 행정사무감사 임하는 각오 [전문] 이상봉 제주도의회 행정자치위원장, 행정사무감사 임하는 입장 [전문] 양영식 제주도의회 보건복지안전위원장, 행정사무감사 임하는 입장 [전문] 강성의 제주도의회 환경도시위원장, 행정사무감사 임하는 각오 [전문] 현길호 제주도의회 농수축경제위원장, 행정사무감사 임하는 각오 [전문] 부공남 제주도의회 교육위원장, 행정사무감사 임하는 각오 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 고은숙 관광공사 사장 후보자 인사청문 요청서 제출 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도, 고은숙 관광공사 사장 후보자 인사청문 요청서 제출 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 제주도정 제주도, 고은숙 관광공사 사장 후보자 인사청문 요청서 제출 현대성 기자 승인 2020.10.13 17:50 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도는 제5대 제주관광공사 사장 임용후보자로 지명된 고은숙 제일기획 자문위원(53)에 대한 인사청문 요청서를 제주도의회에 제출했다고 13일 밝혔다. 이번 인사청문 요청에 따라 제주도의회는 인사청문 요청을 받은 날로부터 20일 이내에 인사청문특별위원회를 구성해 청문회를 개최하고, 인사청문 경과보고서를 제주도에 회신해야 한다. 고은숙 후보자 인사청문회는 29일 개최될 것으로 점쳐지고 있다. 도의회는 강도 높은 인사청문회를 통해 적임자 여부를 검증한다는 방침이다. 고은숙 후보자는 제주시 일도1동 출신으로 제일기획 익스피리언스비즈니스 그룹장, 옴니채널지즈니스 BE비즈니스본부장(임원) 및 자문위원 등을 역임한 통합마케팅 전문가다. 제주도는 고은숙 후보자가 25년 이상 대기업 근무와 임원 경험을 바탕으로 조직·인사·재무 등의 능력을 지닌 것으로 판단하고 공사의 재무위기 극복 및 4차 산업혁명 시대 제주관광의 패러다임 전환을 이끌 적임자로서의 역할 수행을 기대하고 있다. 현대성 기자  cannon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 현대성 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>한글날 연휴 제주도 몰린 관광객…사흘간 11만 명 방문 - 이투데이 속보창 구독신청 RSS 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 속보창 구독신청 RSS 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 이투데이 사회 일반 한글날 연휴 제주도 몰린 관광객…사흘간 11만 명 방문 입력 2020-10-11 10:57 이재영 기자																								구독하기 북마크 되었습니다.마이페이지에서 확인하세요. 가장작게 작게 기본 크게 가장크게 ▲한글날 연휴 나흘간 약 14만 명의 관광객이 제주도를 찾은 것으로 예상된다. (연합뉴스)한글날 연휴를 맞아 제주도를 찾은 관광객이 사흘간 11만 명이 넘어섰다. 11일 제주도관광협회에 따르면 한글날을 하루 앞둔 8일부터 10일까지 제주를 찾은 입도객 수는 11만126명으로 집계됐다.날짜별로는 8일 3만9888명, 9일 4만2933명, 10일 2만7305명이었다. 연휴 마지막 날인 11일에도 약 3만 명이 제주를 찾을 것으로 보여 한글날 연휴 나흘간 약 14만 명의 관광객이 제주를 찾을 것으로 예상된다. 관련 뉴스 제주도 방문객, 오늘부터 마스크 의무 착용…37.5도 넘으면 의무 격리 서울, 4월 상용근로자 임금 전국 중 최고…418만 원 이재훈 선행, 제주도에서 선한 영향력…근황 보니 관광객 급증으로 인해 제주에는 코로나19 방역에 대한 비상이 걸렸다. 아직까지 코로나19 확진자는 발생하고 있지 않지만, 도 방역당국은 긴장을 놓지 않고 있다.도 방역당국은 발열 증상자에 대해 코로나19 진단 검사를 의무적으로 받도록 하는 특별 입도 절차를 한글날 연휴 마지막 날인 11일까지 운영한다.이에 따라 제주국제공항과 제주항으로 들어오는 관광객 등 방문자 중 체온이 37.5도 이상이면 코로나19 진단 검사를 의무적으로 받아야 하며, 판정 결과가 나올 때까지 의무 격리를 해야 한다.제주도는 추석과 한글날 연휴 동안 많은 관광객이 찾은 만큼 '조용한 전파' 가능성이 있다고 보고 18일까지 특별방역 위험 관리기간으로 지정해 고강도 사후 방역 관리를 이어간다는 방침이다. #제주도 좋아요0 화나요0 슬퍼요0 추가취재 원해요0 주요 뉴스 [이슈크래커] ‘무비자 여행 개시’ 일본 어디 갈까…日관광청 추천 10월 최고의 여행지는? 일본이 2년 7개월 만에 무비자 관광을 재개하면서 일본이 올 가을 최고의 여행지가 될 전망이다. 게다가 엔저 덕분에 유럽이나 미국보다 상대적으로 통화가치가 낮아 비용 부담도 덜 수 있다. 가을 정취를 즐길 수 있는 단풍 명소뿐만 아니라 먹거리와 트래킹, 핼러윈 축제 등이 여행객을 기다린다. 국내 여행사들은 앞다퉈 특가 항공권을 내놓 [영상] ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 최근 미국 군수산업체 제너럴 다이내믹스사에서 미군의 차세대 전차 ‘에이브럼스 X’의 영상을 공개했습니다. 에이브럼스 X에는 신형주포, 하이브리드 엔진, 유무인복합체계 등이 적용 됐다고 하는데요. 놀라운 것은 에이브럼스 X에 장착되는 하이브리드 엔진은 연료 소모를 기존보다 50% 줄이고 ‘무소음 기동’도 가능하다고 합니다. 미국 차세대 [국감 핫이슈] ‘감사위원 배석’ 두고 여야 2라운드 공방 여야가 국회 법제사법위원회 감사원 국정감사에서 감사위원 배석 여부를 두고 충돌했다. 야당은 서해 공무원 피격사건 감사와 관련해 '감사위원회 패싱' 문제를 확인해야 한다고 주장했고, 여당에서는 '특정사안감사'는 문재인 정부 당시에도 많았다며 감사위원 배석이 불필요하다고 반박했다. 더불어민주당 국회 법사위 간사인 기동민 의원은 1 尹, 북한 전술핵에 “걱정 말라”…핵무장 여지도 남겨 윤석열 대통령은 11일 북한이 ‘전술핵 운용 훈련’을 했다고 밝히며 위협 수위를 높인 데 대해 한미일 안보협력을 통해 대비하겠다며 “걱정 말라”고 말했다. 윤 대통령은 이날 용산 대통령실 청사 출근길에 기자들과 만나 “북핵 위협이 날로 심각해지고 있다. 누누이 강조했지만 굳건한 한미동맹과 한미일 안보협력을 바탕으로 아주 견고한 대응 KDI "경기 회복세 약화...반도체ㆍ대중수출 부진 경기하방 위험↑" 한국개발연구원(KDI)이 두 달째 우리 경제의 회복세가 약화하고 있다는 진단을 내렸다. KDI는 11일 발간한 '10월 경제동향'에서 "최근 우리 경제는 내수가 일부 개선됐으나, 대외 여건 악화에 따른 수출 부진으로 경기 회복세가 약해지는 모습"이라고 분석했다. KDI의 이같은 진단은 지난달 '9월 경제동향' 발표에 이어 두번째다. KDI에 따르면 10월 초 무역수지 38억 달러 적자…글로벌 위기에 '빨간불' 계속 조업일수 줄어들고 분기초 빠지는 탓 반도체도 단가 하락으로 수출 감소해 중심축인 美·中 모두 무역수지 적자 "각국 금리·긴축 기조 영향 지켜봐야" 무역수지의 빨간불이 꺼지지 않고 있다. 수출이 많이 감소한 탓에 4~9월까지 6개월 연속 적자 흐름을 이어가고 있으며 국제 경기가 좋지 않은 상황이라 이번달 무역수지도 어두운 상황이다. 11 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 SRT 2018년부터 1만 7172회 늦어 KTX, 16분 미만은 지연으로 불포함 선로관리 미흡 등으로 열차 지연돼 유경준 의원 "철저한 관리 필요해" 서울 강남구에서 세종으로 출퇴근하는 공무원 전 모 씨는 고속열차를 이용하기 위해 수서역으로 향했다. 수서역에서 오송역에 내리자마자 출근 버스를 타야 하기에 시간에 맞춰 열차를 예매했지만, SRT가 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 73.6일간 정지…총 232건 발생 불시정지, 경영평가 항목 포함 서부발전 피해액만 33억원가량 엄태영 의원 "최대한 예방 必" 한국전력공사의 발전자회사 5곳이 지난 5년간 발전소 불시정지 사고로 78억 원가량 손해를 본 것으로 나타났다. 인적 과실로 인한 피해도 12건이나 발생했다. 이에 사전 점검 등 더 철저한 발전소 관리가 필요하다는 지적 많이 본 뉴스 01 선우은숙, 4살 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” 02 전장연, 지하철 4호선 출근길 시위…“지연 우려” 03 [오늘의 증시] 래몽래인·코아스템·켐온·비케이탑스 등 04 바이오기업 IPO 4분기 대목이라더니…찬바람 ‘쌩쌩’ 05 신화 신혜성, 음주측정 거부해 현행범 체포…차량은 도난 의심 06 [Bit코인] 리플 주도 상승세 꺾여…“비트코인, 변동성 폭발·하락 경고” 07 ‘결혼지옥’ 외도 2번 저지른 79세 남편…“내연녀, 우수한 대학 성적 보기 좋더라” 08 단독 "하루 10번꼴로 늦어"…KTX·SRT, 5년간 2만번 넘게 열차 지연 09 단독 한전 발전자회사, 불시정지로 80억원 증발…"관리 부실" 10 ‘공사중단’ 둔촌주공, 상가 갈등에 발목 잡히나 최신 영상 ‘무소음 이동’이 가능한 미국의 차세대 전차 ‘에이브럼스 X’ 공개 // 이투데이TV 사회 최신 뉴스 박강수 마포구청장 "쓰레기 소각만이 답 아냐…전처리시설 설립 제안" "우주 공부하고 학점 인정받고"...여가부, 고교학점제 연계프로그램 늘린다 신혜성, 음주운전 벌써 두 번째…“만취해 본인 차량 아닌지도 모르고 운전” [국감 핫이슈] 교육부 등 소속기관 등 5년간 사이버 공격 21만 건 50대 남성, 서울 공원서 총상…극단 선택 추정 [포토] 2022 하이서울패션쇼 개막 [포토] 한국패션 미래를 한자리에 '하이서울패션쇼 2022' [포토] 하이서울패션쇼 2022, 3년만에 개최 “통통한 새우젓 알뜰 구매”…3년 만에 마포나루 ‘새우젓 축제’ 열린다 [포토] '내가 가고싶은 회사에서 만드는 제품은' 뉴스발전소 [이슈크래커] '무비자 여행 개시' 일본 어디 갈까…日관광청 추천 10월 최고의 여행지는? 내가 저장한 뉴스 모아보기 내가 구독한 기자 전체보기 한 컷 [포토] '비에니끄' 의류 선보이는 모델들 마켓 뉴스 특징주 투자전략 코아스템·켐온, 합병 소식에 상한가·28% 강세 LG에너지솔루션, 증권가 목표가 상향에 강세 CJ대한통운, 8만원 붕괴…‘신저가’ 경신 HMM, 52주 신저가 SCI평가정보, 기준금리 인상 가능성에 강세 “LG화학, 양극재 판매량 증가로 매출액, 영업익 모두 개선...목표가 7% 상향” “IT, 기대감이 주가 견인…추가 상승 모멘텀 ‘글쎄’” 메리츠증권 “불확실성 여전…10~11월 변동성 확대 구간” “LG생활건강, '위안화 약세'로 따이공 구매력 하락'에 3분기 영업익 부진...목표가 9% 하향” “삼성전자, 2019년 1분기와 비슷…단기 반등 가능” 오늘의 상승종목 10.11 14:34 20분지연 코스피 코스닥 1.다이나믹디자인 3,200 2.유니온머티리얼 395 3.화천기계 850 4.베트남개발1 46 5.STX 380 1.동국알앤에스 1,030 2.코아스템 2,680 3.켐온 585 4.테라셈 14 5.코디엠 166 실시간 암호화폐 시세 종목 현재가(원) 변동률 비트코인 27,364,000 -1.2% 이더리움 1,832,000 -2.66% 비트코인 캐시 159,900 -4.19% 리플 704.7 -6.41% 위믹스 2,414 -4.96% 에이다 569.1 -5.48% 이오스 1,496 -6.56% 트론 88.54 -2.8% 스텔라루멘 177.6 -2.52% 비트코인에스브이 68,350 -3.26% 체인링크 10,360 -4.34% 샌드박스 1,131 -4.96% * 24시간 변동률 기준 금융·증권 공시 시황 시세 장외/IPO 특징주 투자전략 IB 채권/펀드 금융 일반 부동산 시장동향 업계 정책 분양 개발 경매 일반 기업 재계 전자/통신/IT 자동차 중화학 항공/물류 유통 의료/바이오 중기/벤처 일반 글로벌경제 국제경제 국제일반 시황 미국 중국 아시아 유럽/중동 정치 대통령실/총리실 정책 국회/정당 국방/외교 일반 경제 경제 정책 일반 사회 사건/사고 노동/취업 법조 교육 인사/동정/부음 오비추어리 일반 문화·라이프 방송/TV 영화 음악 공연/출판 스포츠 여행 일반 오피니언 사설 데스크칼럼 차장칼럼 칼럼 기자수첩 이슈n인물 스페셜리포트 e스튜디오 뉴스발전소 이슈크래커 요즘, 이거 생활과 경제 그래픽스 한 컷 Channel 5 위너스클럽 날씨 패밀리사이트 Channel5 브라보마이라이프 바이오스펙테이터 회사소개 이용약관 개인정보처리방침 청소년보호정책 광고 및 제휴 구독신청 고충처리 RSS 사이트맵 (주)이투데이 (제호 : 이투데이) ㅣ 서울시 강남구 강남대로 556 이투데이빌딩 ㅣ ☎ 02) 799-2600 등록번호 : 서울아02868 ㅣ 등록일자 : 2013.11.07 ㅣ 발행일자 : 2006.04.27 ㅣ 발행인 : 김상우 ㅣ 편집인 : 김덕헌 ㅣ 청소년보호책임자 : 박성호 이투데이의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재 및 수집, 복사, 배포 등을 금지합니다. Copyright(c) (주)이투데이. All rights reserved. ㅣ 보도자료 및 기사제보 press@etoday.co.kr 이투데이 임직원은 모두의 의견을 모아 언론 윤리강령, 기자윤리강령, 임직원 윤리강령 및 실천규정을 제정, 준수하고 있습니다.한국기자협회와 인터넷신문위원회 윤리강령 및 실천요강도 준수합니다. 「열린보도원칙」당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.</t>
+  </si>
+  <si>
+    <t>추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격 : 사회 : 종교신문 1위 크리스천투데이 사회 추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격 크리스천투데이 전체기사 교계교단 전체기사 일반기사 연합기구 교단 기관단체 이단·사이비 목회신학 전체기사 일반기사 교회/목회 치유상담 신학대 소식 신학/단체 은혜의 샘 설교 교회로 돌아온 신학 교회건축, 패러다임을 바꾸다 선교 전체기사 일반기사 국내선교 해외선교 특수선교 중보기도 해외 한인교회 특별기고 청년캠퍼스 청소년 국제 전체기사 일반기사 국제기구 미국·중남미 아시아·대앙주 유럽 중동·아프리카 일반기사 사회 전체기사 일반기사 정치·사회 인권 종교 봉사 NGO 복지 사람들 문화 전체기사 일반기사 대중문화 에세이 송영옥 칼럼 영화·공연 미술전시 문학 북스 뮤직/CCM 크리스천 연예/스포츠 교육 전체기사 일반기사 교회교육 홈스쿨링 기독교학교 라이프 전체기사 건축 일터 사역 여행 집회/세미나 생활경제 가정 건강 크리스천기업소식 오피니언/칼럼 기독컨텐츠 카드뉴스 오늘의 묵상 기독교 명언 북마크 쉽게 씌어진 시 Praise 배경화면 Pray with You 산마루서신 오늘의 기도문 포토투데이 CTTV 사회 정치/사회 추석 연휴, 교회·집회는 통제하더니… 놀이동산·제주도 관광 인파 충격 김신의 기자 sukim@chtoday.co.kr | 입력 : 2020.10.05 14:46 Share Kakao More ▲2020년 추석 연휴 기간, 놀아동산을 찾은 관광객들. ⓒ인터넷 커뮤니티 캡쳐 정부가 추석 연휴 기간 동안 교회와 광화문 집회를 제한 또는 통제한 가운데, 놀이동산과 제주도 등 관광지에는 엄청난 인파가 모인 것으로 알려졌다. 5일 제주도 관광협회에 따르면, 사실상 추석 연휴가 시작된 지난달 26일부터 4일까지 제주도 입도객 수는 28만 1천 258명으로 알려졌다. 하루 평균 약 3만 명 이상. 제주도가 이 기간 동안 코로나19 진단검사를 진행한 건은 겨우 618건에 불과하다. 한편 인터넷 커뮤니티에는 추석 연휴에 몰린 놀이동산 관광객들의 실시간 사진이 올라왔다. 누리꾼들이 공개한 사진에는 거리 두기 1m조차 지켜지지 않은 상태의 관광객들이 빼곡하게 서 있는 모습이 담겼다. 이 같은 사진을 올린 누리꾼은 “사회적 거리 두기 이런 거 없다. 이럴 거면서 왜 힘없는 서민들을 괴롭히는가? 더구나 정부 정책에 반대하는 집회는 무관용? 이게 무슨 코미디인가?”라고 분개했다. 한편 정부는 코로나19 방역을 명분으로 300석 미만의 교회는 20명 미만, 300석 이상의 교회는 50명 미만만 예배를 드릴 수 있도록 제한했다. 또 광화문 집회 측은 드라이브 스루, 카퍼레이드 방식을 선택했음에도 방역 당국으로부터 제지를 당했다. 경찰은 서울시내 진입로 90곳에 검문소를 설치하기도 했다. ‘재인산성’ 검문소·차벽 등 집회 통제에 각계 비판 쏟아져중대본, 100만 모인 곳 놔두고 여전히 ‘교회·광화문 집회’ 집착 구독신청 &lt;저작권자 ⓒ '종교 신문 1위' 크리스천투데이, 무단전재 및 재배포 금지&gt; 마켓 플레이스 기독교 세미나/행사정보 목회자가 변해야, 교회가 산다 [목회… "위코세"특강 위드코로나시대의 말씀… 파워관계전도세미나 이스라엘성서대학 한국목회임지연구소 교회 후임 요청 … 수맥과팔체질 [10월16일 개강]집중력 영어속독 강사&amp;… [양평] 더큰나무 펜션_캠프_교육관_수… 치유전문목회 필독서_GS약선카페 창업… 사역장로 '7년의중간보고서' [시무장… 꿈이있는교회 3GO사역 "나누고 섬기고 … 전세계 모든 열방을 살리는 나성기도… 원데이 성막영성집회 강사 조태규목… &lt;눈으로 보듯 손으로 만지듯&gt; 어쨌든 신장병을 고쳤다는데... 장대수 목사의 추석특별 심령치유의 … 제37차 코칭 목회 세미나 &gt;Please activate JavaScript for write a comment in LiveRe. 인사이드 시티 이 기사는 논쟁중 “태아 한 명 더 살릴 ‘태아생명 보호법’ 제정” 촉구 10월 국정감사 기간 국회 앞 집중 운행하기로 정부, 태아 생명권 임산부에게 떠넘기지 말고 후속 정책 마련해 태아 생명권 적극 보호해야 행동하는 프로라이프(상임대표 … 美 생명수호단체, 지지자 압수수색·체포한 법무장관 탄핵 촉구 美 유명 만화, ‘레즈비언 여주인공’ 등장 논란 인물 이 사람 “신앙이란 고난 안 만나는 것 아닌, 이길 힘 공급받는 것” “부활하신 예수님께 항상 기도하며 일하니, 범사에 감사뿐입니다” 세계는 지금 메신저 대화 때문에 체포·수감된 나이지리아 기독교인, 재판 회부돼 세계 청소년들, 대부분 예수에 대해 ‘긍정적’이지만… 크리스천 셀럽 가수 이수영 15년 만의 콘서트… “영육 간에 강건해요” 배다해, CCM채널 ‘갓쏭’ 출연해 러빔의 ‘하나님의 열심’ 커버 많이 본 기사 “부활하신 예수님께 항상 기도하며 일하니, 범사에 감사뿐입니다” “신앙이란 고난 안 만나는 것 아닌, 이길 힘 공급받는 것” “성경 연구 소프트웨어에 혁신을 더하다”… ‘Logos 10’ 출시! [최종천 칼럼] 간결하게 사는 삶 “태아 한 명 더 살릴 ‘태아생명 보호법’ 제정” 촉구 남원중앙교회, 창립 70주년 감사 및 비전선포 예배 [순교자의소리] 금주의 중보기도 (10/10~10/16) 美 유명 만화, ‘레즈비언 여주인공’ 등장 논란 신앙과 삶 [신앙 에세이: 삶과 사랑] 은혜 CT YouTube [영상] “아빠가 엄마로? 허락한 대법관들의 이름 역사는 기억” [영상] 남북관계, 정부가 나서지 말고 기독교계에 맡겨라[영상] 통계가 말하는 동성애와 에이즈[영상] 이영훈 목사 “조용기 목사님은 강단에 서시기만 하면…” 크리스천투데이 크리스천투데이 | 등록번호 : 서울, 아01897 | 등록일자 : 2011년 12월 2일 | 제호 : 크리스천투데이 | 발행인 : 유재광 | 편집인 : 이대웅 | 발행소 : 서울시 종로구 창경궁로 305, 시티빌딩 (혜화동) / 서울시 종로구 혜화동 31-1번지 시티빌딩 | 발행일자 : | 청소년보호책임자 : 송경호 | Tel : 02) 598-4564 | Fax : 02) 6008-4204 Copyright © All rights reserved. 크리스천투데이의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재, 복사, 배포 등은 법적제재를 받을 수 있습니다. 회사소개 | 구독신청 | 개인정보취급방침 | 편집자에게 | 광고안내 02)598-4597 | 대표전화 : 02)598-4564 | Fax : 02)6008-4204 저작권 | 회원약관 | 게시판/댓글 운영원칙 | 이메일주소 무단수집거부</t>
   </si>
 </sst>
 </file>
@@ -437,7 +605,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +627,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +660,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +682,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +693,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +704,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +715,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +726,334 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
